--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="366">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -748,6 +748,15 @@
     <t>['3', '81', '90']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['54', '58']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -881,9 +890,6 @@
   </si>
   <si>
     <t>['2', '14']</t>
-  </si>
-  <si>
-    <t>['65']</t>
   </si>
   <si>
     <t>['56', '90+5']</t>
@@ -1103,6 +1109,9 @@
   </si>
   <si>
     <t>['2']</t>
+  </si>
+  <si>
+    <t>['6', '46']</t>
   </si>
 </sst>
 </file>
@@ -1464,7 +1473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP230"/>
+  <dimension ref="A1:BP234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1723,7 +1732,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -2007,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ3">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2135,7 +2144,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2213,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ4">
         <v>1.24</v>
@@ -2422,7 +2431,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ5">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3783,7 +3792,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -3864,7 +3873,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ12">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR12">
         <v>1.83</v>
@@ -4479,10 +4488,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ15">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4607,7 +4616,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4688,7 +4697,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ16">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5097,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ18">
         <v>1.94</v>
@@ -5225,7 +5234,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5431,7 +5440,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5509,7 +5518,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ20">
         <v>2.06</v>
@@ -5637,7 +5646,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5843,7 +5852,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -6049,7 +6058,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6255,7 +6264,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6951,7 +6960,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
         <v>0.88</v>
@@ -7079,7 +7088,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7157,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ28">
         <v>0.75</v>
@@ -7363,7 +7372,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ29">
         <v>0.82</v>
@@ -7572,7 +7581,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ30">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR30">
         <v>2.36</v>
@@ -7778,7 +7787,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR31">
         <v>1.44</v>
@@ -7903,7 +7912,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -7984,7 +7993,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ32">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR32">
         <v>1.17</v>
@@ -8109,7 +8118,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8187,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ33">
         <v>1.94</v>
@@ -8315,7 +8324,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8521,7 +8530,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8727,7 +8736,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9345,7 +9354,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9423,7 +9432,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ39">
         <v>0.59</v>
@@ -9551,7 +9560,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -10044,7 +10053,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ42">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
         <v>0.84</v>
@@ -10169,7 +10178,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10250,7 +10259,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ43">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR43">
         <v>1.76</v>
@@ -10375,7 +10384,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10581,7 +10590,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10659,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ45">
         <v>1.94</v>
@@ -10865,10 +10874,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ46">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR46">
         <v>1.33</v>
@@ -11071,7 +11080,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ47">
         <v>1.88</v>
@@ -11280,7 +11289,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>2.17</v>
@@ -11611,7 +11620,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -12229,7 +12238,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12847,7 +12856,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13053,7 +13062,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13134,7 +13143,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ57">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR57">
         <v>1.23</v>
@@ -13259,7 +13268,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13337,10 +13346,10 @@
         <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
         <v>0.99</v>
@@ -14289,7 +14298,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14367,7 +14376,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ63">
         <v>1.94</v>
@@ -14495,7 +14504,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14907,7 +14916,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -14988,7 +14997,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ66">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR66">
         <v>1.65</v>
@@ -15113,7 +15122,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15191,7 +15200,7 @@
         <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ67">
         <v>0.88</v>
@@ -15319,7 +15328,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15525,7 +15534,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15809,7 +15818,7 @@
         <v>0.75</v>
       </c>
       <c r="AP70">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ70">
         <v>0.5</v>
@@ -15937,7 +15946,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16015,7 +16024,7 @@
         <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ71">
         <v>0.59</v>
@@ -16143,7 +16152,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16221,7 +16230,7 @@
         <v>0.4</v>
       </c>
       <c r="AP72">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
         <v>0.63</v>
@@ -16349,7 +16358,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16555,7 +16564,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16636,7 +16645,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR74">
         <v>1.97</v>
@@ -16967,7 +16976,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17379,7 +17388,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17457,7 +17466,7 @@
         <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ78">
         <v>0.88</v>
@@ -17585,7 +17594,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17666,7 +17675,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR79">
         <v>1.9</v>
@@ -17997,7 +18006,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18078,7 +18087,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ81">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18281,7 +18290,7 @@
         <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ82">
         <v>1.88</v>
@@ -18409,7 +18418,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -19108,7 +19117,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ86">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR86">
         <v>1.67</v>
@@ -19439,7 +19448,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19645,7 +19654,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19723,7 +19732,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
         <v>0.59</v>
@@ -20469,7 +20478,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20881,7 +20890,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -21087,7 +21096,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21293,7 +21302,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21371,7 +21380,7 @@
         <v>2.57</v>
       </c>
       <c r="AP97">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
         <v>2.06</v>
@@ -21499,7 +21508,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21705,7 +21714,7 @@
         <v>89</v>
       </c>
       <c r="P99" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -21783,7 +21792,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ99">
         <v>1.94</v>
@@ -21911,7 +21920,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -22117,7 +22126,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22401,10 +22410,10 @@
         <v>0.14</v>
       </c>
       <c r="AP102">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ102">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR102">
         <v>1.05</v>
@@ -22529,7 +22538,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22607,7 +22616,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ103">
         <v>1.88</v>
@@ -22735,7 +22744,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22813,10 +22822,10 @@
         <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ104">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR104">
         <v>1.29</v>
@@ -22941,7 +22950,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23225,7 +23234,7 @@
         <v>2.33</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
         <v>1.94</v>
@@ -23353,7 +23362,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -24383,7 +24392,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24667,10 +24676,10 @@
         <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR113">
         <v>1.09</v>
@@ -24795,7 +24804,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25001,7 +25010,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25079,10 +25088,10 @@
         <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ115">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR115">
         <v>1.28</v>
@@ -25207,7 +25216,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25288,7 +25297,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR116">
         <v>1.87</v>
@@ -25491,10 +25500,10 @@
         <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ117">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR117">
         <v>1.07</v>
@@ -25619,7 +25628,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25825,7 +25834,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26109,7 +26118,7 @@
         <v>0.75</v>
       </c>
       <c r="AP120">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ120">
         <v>0.82</v>
@@ -26237,7 +26246,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26315,7 +26324,7 @@
         <v>0.38</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ121">
         <v>0.5</v>
@@ -26443,7 +26452,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26649,7 +26658,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26855,7 +26864,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -27267,7 +27276,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27760,7 +27769,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ128">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR128">
         <v>1.23</v>
@@ -27885,7 +27894,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -27963,7 +27972,7 @@
         <v>0.55</v>
       </c>
       <c r="AP129">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ129">
         <v>0.63</v>
@@ -28169,10 +28178,10 @@
         <v>0.22</v>
       </c>
       <c r="AP130">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ130">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
         <v>1.43</v>
@@ -28297,7 +28306,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28503,7 +28512,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28581,7 +28590,7 @@
         <v>2</v>
       </c>
       <c r="AP132">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
         <v>1.88</v>
@@ -28790,7 +28799,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ133">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR133">
         <v>1.85</v>
@@ -28915,7 +28924,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29121,7 +29130,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29327,7 +29336,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29405,7 +29414,7 @@
         <v>0.67</v>
       </c>
       <c r="AP136">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ136">
         <v>0.88</v>
@@ -30151,7 +30160,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30357,7 +30366,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30563,7 +30572,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30644,7 +30653,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ142">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR142">
         <v>1.18</v>
@@ -30769,7 +30778,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30847,7 +30856,7 @@
         <v>1.11</v>
       </c>
       <c r="AP143">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ143">
         <v>1.24</v>
@@ -30975,7 +30984,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31053,10 +31062,10 @@
         <v>0.22</v>
       </c>
       <c r="AP144">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ144">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR144">
         <v>1.36</v>
@@ -31181,7 +31190,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31259,7 +31268,7 @@
         <v>1</v>
       </c>
       <c r="AP145">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ145">
         <v>0.82</v>
@@ -31387,7 +31396,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31468,7 +31477,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ146">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR146">
         <v>1.89</v>
@@ -31593,7 +31602,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31671,7 +31680,7 @@
         <v>1.78</v>
       </c>
       <c r="AP147">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ147">
         <v>1.94</v>
@@ -32289,7 +32298,7 @@
         <v>1.1</v>
       </c>
       <c r="AP150">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ150">
         <v>1.24</v>
@@ -32829,7 +32838,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32907,7 +32916,7 @@
         <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ153">
         <v>2.06</v>
@@ -33035,7 +33044,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33116,7 +33125,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ154">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR154">
         <v>1.27</v>
@@ -33447,7 +33456,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33525,7 +33534,7 @@
         <v>1.09</v>
       </c>
       <c r="AP156">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ156">
         <v>1.24</v>
@@ -33653,7 +33662,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33859,7 +33868,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34146,7 +34155,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ159">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR159">
         <v>1.94</v>
@@ -34271,7 +34280,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34555,7 +34564,7 @@
         <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ161">
         <v>0.63</v>
@@ -34683,7 +34692,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34764,7 +34773,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ162">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR162">
         <v>1.22</v>
@@ -34889,7 +34898,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35173,7 +35182,7 @@
         <v>0.73</v>
       </c>
       <c r="AP164">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ164">
         <v>0.75</v>
@@ -35301,7 +35310,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35379,7 +35388,7 @@
         <v>0.36</v>
       </c>
       <c r="AP165">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ165">
         <v>0.5</v>
@@ -35507,7 +35516,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35713,7 +35722,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35794,7 +35803,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ167">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR167">
         <v>1.85</v>
@@ -36125,7 +36134,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36206,7 +36215,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ169">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36331,7 +36340,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36412,7 +36421,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ170">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR170">
         <v>1.28</v>
@@ -36537,7 +36546,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36743,7 +36752,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36821,7 +36830,7 @@
         <v>1.17</v>
       </c>
       <c r="AP172">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ172">
         <v>0.82</v>
@@ -36949,7 +36958,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37155,7 +37164,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37361,7 +37370,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37439,7 +37448,7 @@
         <v>2</v>
       </c>
       <c r="AP175">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ175">
         <v>1.94</v>
@@ -37773,7 +37782,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -37851,10 +37860,10 @@
         <v>1.08</v>
       </c>
       <c r="AP177">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ177">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR177">
         <v>1.25</v>
@@ -38057,7 +38066,7 @@
         <v>0.75</v>
       </c>
       <c r="AP178">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ178">
         <v>0.75</v>
@@ -38185,7 +38194,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -38263,7 +38272,7 @@
         <v>2.08</v>
       </c>
       <c r="AP179">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ179">
         <v>2.06</v>
@@ -38391,7 +38400,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38597,7 +38606,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q181">
         <v>2.95</v>
@@ -38678,7 +38687,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ181">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR181">
         <v>1.25</v>
@@ -38803,7 +38812,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -39215,7 +39224,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39421,7 +39430,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39627,7 +39636,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39833,7 +39842,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40245,7 +40254,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -40323,7 +40332,7 @@
         <v>0.54</v>
       </c>
       <c r="AP189">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ189">
         <v>0.59</v>
@@ -40735,10 +40744,10 @@
         <v>1</v>
       </c>
       <c r="AP191">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ191">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR191">
         <v>1.28</v>
@@ -40944,7 +40953,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ192">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR192">
         <v>1.2</v>
@@ -41069,7 +41078,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41147,10 +41156,10 @@
         <v>0.38</v>
       </c>
       <c r="AP193">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ193">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR193">
         <v>1.27</v>
@@ -41353,7 +41362,7 @@
         <v>0.77</v>
       </c>
       <c r="AP194">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ194">
         <v>0.75</v>
@@ -41481,7 +41490,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -42717,7 +42726,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42795,7 +42804,7 @@
         <v>0.64</v>
       </c>
       <c r="AP201">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ201">
         <v>0.63</v>
@@ -42923,7 +42932,7 @@
         <v>89</v>
       </c>
       <c r="P202" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q202">
         <v>2.88</v>
@@ -43210,7 +43219,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ203">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR203">
         <v>1.33</v>
@@ -43413,7 +43422,7 @@
         <v>0.5</v>
       </c>
       <c r="AP204">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ204">
         <v>0.59</v>
@@ -43541,7 +43550,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43747,7 +43756,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43953,7 +43962,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44159,7 +44168,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44237,7 +44246,7 @@
         <v>0.43</v>
       </c>
       <c r="AP208">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ208">
         <v>0.5</v>
@@ -44365,7 +44374,7 @@
         <v>125</v>
       </c>
       <c r="P209" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q209">
         <v>2.58</v>
@@ -44571,7 +44580,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q210">
         <v>2.99</v>
@@ -44649,10 +44658,10 @@
         <v>0.93</v>
       </c>
       <c r="AP210">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ210">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AR210">
         <v>1.28</v>
@@ -44777,7 +44786,7 @@
         <v>89</v>
       </c>
       <c r="P211" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q211">
         <v>2.88</v>
@@ -44858,7 +44867,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ211">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR211">
         <v>1.3</v>
@@ -44983,7 +44992,7 @@
         <v>229</v>
       </c>
       <c r="P212" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q212">
         <v>1.53</v>
@@ -45473,7 +45482,7 @@
         <v>0.93</v>
       </c>
       <c r="AP214">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AQ214">
         <v>0.88</v>
@@ -45601,7 +45610,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q215">
         <v>3.15</v>
@@ -45682,7 +45691,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ215">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR215">
         <v>1.32</v>
@@ -45807,7 +45816,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q216">
         <v>3.08</v>
@@ -45885,10 +45894,10 @@
         <v>0.67</v>
       </c>
       <c r="AP216">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ216">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR216">
         <v>1.11</v>
@@ -46013,7 +46022,7 @@
         <v>233</v>
       </c>
       <c r="P217" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="Q217">
         <v>2.63</v>
@@ -46091,7 +46100,7 @@
         <v>0.47</v>
       </c>
       <c r="AP217">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AQ217">
         <v>0.59</v>
@@ -46219,7 +46228,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -46425,7 +46434,7 @@
         <v>106</v>
       </c>
       <c r="P219" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46631,7 +46640,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46837,7 +46846,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47661,7 +47670,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q225">
         <v>1.79</v>
@@ -48485,7 +48494,7 @@
         <v>243</v>
       </c>
       <c r="P229" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q229">
         <v>3.15</v>
@@ -48691,7 +48700,7 @@
         <v>89</v>
       </c>
       <c r="P230" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q230">
         <v>1.75</v>
@@ -48848,6 +48857,830 @@
       </c>
       <c r="BP230">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:68">
+      <c r="A231" s="1">
+        <v>230</v>
+      </c>
+      <c r="B231">
+        <v>7382776</v>
+      </c>
+      <c r="C231" t="s">
+        <v>68</v>
+      </c>
+      <c r="D231" t="s">
+        <v>69</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45423.58333333334</v>
+      </c>
+      <c r="F231">
+        <v>7</v>
+      </c>
+      <c r="G231" t="s">
+        <v>83</v>
+      </c>
+      <c r="H231" t="s">
+        <v>76</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>1</v>
+      </c>
+      <c r="N231">
+        <v>1</v>
+      </c>
+      <c r="O231" t="s">
+        <v>89</v>
+      </c>
+      <c r="P231" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q231">
+        <v>3.1</v>
+      </c>
+      <c r="R231">
+        <v>2.1</v>
+      </c>
+      <c r="S231">
+        <v>3.6</v>
+      </c>
+      <c r="T231">
+        <v>1.44</v>
+      </c>
+      <c r="U231">
+        <v>2.63</v>
+      </c>
+      <c r="V231">
+        <v>3.25</v>
+      </c>
+      <c r="W231">
+        <v>1.33</v>
+      </c>
+      <c r="X231">
+        <v>9</v>
+      </c>
+      <c r="Y231">
+        <v>1.07</v>
+      </c>
+      <c r="Z231">
+        <v>2.14</v>
+      </c>
+      <c r="AA231">
+        <v>3.1</v>
+      </c>
+      <c r="AB231">
+        <v>2.95</v>
+      </c>
+      <c r="AC231">
+        <v>1.07</v>
+      </c>
+      <c r="AD231">
+        <v>10</v>
+      </c>
+      <c r="AE231">
+        <v>1.33</v>
+      </c>
+      <c r="AF231">
+        <v>3.3</v>
+      </c>
+      <c r="AG231">
+        <v>1.76</v>
+      </c>
+      <c r="AH231">
+        <v>1.78</v>
+      </c>
+      <c r="AI231">
+        <v>1.8</v>
+      </c>
+      <c r="AJ231">
+        <v>1.95</v>
+      </c>
+      <c r="AK231">
+        <v>1.4</v>
+      </c>
+      <c r="AL231">
+        <v>1.3</v>
+      </c>
+      <c r="AM231">
+        <v>1.6</v>
+      </c>
+      <c r="AN231">
+        <v>1.38</v>
+      </c>
+      <c r="AO231">
+        <v>1.07</v>
+      </c>
+      <c r="AP231">
+        <v>1.29</v>
+      </c>
+      <c r="AQ231">
+        <v>1.19</v>
+      </c>
+      <c r="AR231">
+        <v>1.12</v>
+      </c>
+      <c r="AS231">
+        <v>1.12</v>
+      </c>
+      <c r="AT231">
+        <v>2.24</v>
+      </c>
+      <c r="AU231">
+        <v>2</v>
+      </c>
+      <c r="AV231">
+        <v>5</v>
+      </c>
+      <c r="AW231">
+        <v>3</v>
+      </c>
+      <c r="AX231">
+        <v>7</v>
+      </c>
+      <c r="AY231">
+        <v>5</v>
+      </c>
+      <c r="AZ231">
+        <v>12</v>
+      </c>
+      <c r="BA231">
+        <v>1</v>
+      </c>
+      <c r="BB231">
+        <v>4</v>
+      </c>
+      <c r="BC231">
+        <v>5</v>
+      </c>
+      <c r="BD231">
+        <v>2.12</v>
+      </c>
+      <c r="BE231">
+        <v>6.95</v>
+      </c>
+      <c r="BF231">
+        <v>2.09</v>
+      </c>
+      <c r="BG231">
+        <v>1.45</v>
+      </c>
+      <c r="BH231">
+        <v>2.55</v>
+      </c>
+      <c r="BI231">
+        <v>1.85</v>
+      </c>
+      <c r="BJ231">
+        <v>1.95</v>
+      </c>
+      <c r="BK231">
+        <v>2.39</v>
+      </c>
+      <c r="BL231">
+        <v>1.51</v>
+      </c>
+      <c r="BM231">
+        <v>3.2</v>
+      </c>
+      <c r="BN231">
+        <v>1.28</v>
+      </c>
+      <c r="BO231">
+        <v>4.4</v>
+      </c>
+      <c r="BP231">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="232" spans="1:68">
+      <c r="A232" s="1">
+        <v>231</v>
+      </c>
+      <c r="B232">
+        <v>7382777</v>
+      </c>
+      <c r="C232" t="s">
+        <v>68</v>
+      </c>
+      <c r="D232" t="s">
+        <v>69</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45423.58333333334</v>
+      </c>
+      <c r="F232">
+        <v>7</v>
+      </c>
+      <c r="G232" t="s">
+        <v>72</v>
+      </c>
+      <c r="H232" t="s">
+        <v>75</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>1</v>
+      </c>
+      <c r="L232">
+        <v>1</v>
+      </c>
+      <c r="M232">
+        <v>2</v>
+      </c>
+      <c r="N232">
+        <v>3</v>
+      </c>
+      <c r="O232" t="s">
+        <v>244</v>
+      </c>
+      <c r="P232" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q232">
+        <v>2.75</v>
+      </c>
+      <c r="R232">
+        <v>2.2</v>
+      </c>
+      <c r="S232">
+        <v>4</v>
+      </c>
+      <c r="T232">
+        <v>1.4</v>
+      </c>
+      <c r="U232">
+        <v>2.75</v>
+      </c>
+      <c r="V232">
+        <v>3</v>
+      </c>
+      <c r="W232">
+        <v>1.36</v>
+      </c>
+      <c r="X232">
+        <v>8</v>
+      </c>
+      <c r="Y232">
+        <v>1.08</v>
+      </c>
+      <c r="Z232">
+        <v>1.86</v>
+      </c>
+      <c r="AA232">
+        <v>3.25</v>
+      </c>
+      <c r="AB232">
+        <v>3.5</v>
+      </c>
+      <c r="AC232">
+        <v>1.05</v>
+      </c>
+      <c r="AD232">
+        <v>10</v>
+      </c>
+      <c r="AE232">
+        <v>1.33</v>
+      </c>
+      <c r="AF232">
+        <v>3.4</v>
+      </c>
+      <c r="AG232">
+        <v>1.68</v>
+      </c>
+      <c r="AH232">
+        <v>1.86</v>
+      </c>
+      <c r="AI232">
+        <v>1.75</v>
+      </c>
+      <c r="AJ232">
+        <v>2</v>
+      </c>
+      <c r="AK232">
+        <v>1.3</v>
+      </c>
+      <c r="AL232">
+        <v>1.26</v>
+      </c>
+      <c r="AM232">
+        <v>1.8</v>
+      </c>
+      <c r="AN232">
+        <v>1.69</v>
+      </c>
+      <c r="AO232">
+        <v>0.75</v>
+      </c>
+      <c r="AP232">
+        <v>1.59</v>
+      </c>
+      <c r="AQ232">
+        <v>0.88</v>
+      </c>
+      <c r="AR232">
+        <v>1.42</v>
+      </c>
+      <c r="AS232">
+        <v>1.2</v>
+      </c>
+      <c r="AT232">
+        <v>2.62</v>
+      </c>
+      <c r="AU232">
+        <v>6</v>
+      </c>
+      <c r="AV232">
+        <v>5</v>
+      </c>
+      <c r="AW232">
+        <v>4</v>
+      </c>
+      <c r="AX232">
+        <v>3</v>
+      </c>
+      <c r="AY232">
+        <v>10</v>
+      </c>
+      <c r="AZ232">
+        <v>8</v>
+      </c>
+      <c r="BA232">
+        <v>3</v>
+      </c>
+      <c r="BB232">
+        <v>3</v>
+      </c>
+      <c r="BC232">
+        <v>6</v>
+      </c>
+      <c r="BD232">
+        <v>1.69</v>
+      </c>
+      <c r="BE232">
+        <v>7.8</v>
+      </c>
+      <c r="BF232">
+        <v>2.75</v>
+      </c>
+      <c r="BG232">
+        <v>1.52</v>
+      </c>
+      <c r="BH232">
+        <v>2.36</v>
+      </c>
+      <c r="BI232">
+        <v>1.98</v>
+      </c>
+      <c r="BJ232">
+        <v>1.82</v>
+      </c>
+      <c r="BK232">
+        <v>2.52</v>
+      </c>
+      <c r="BL232">
+        <v>1.46</v>
+      </c>
+      <c r="BM232">
+        <v>3.48</v>
+      </c>
+      <c r="BN232">
+        <v>1.24</v>
+      </c>
+      <c r="BO232">
+        <v>4.9</v>
+      </c>
+      <c r="BP232">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="233" spans="1:68">
+      <c r="A233" s="1">
+        <v>232</v>
+      </c>
+      <c r="B233">
+        <v>7382778</v>
+      </c>
+      <c r="C233" t="s">
+        <v>68</v>
+      </c>
+      <c r="D233" t="s">
+        <v>69</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45423.58333333334</v>
+      </c>
+      <c r="F233">
+        <v>7</v>
+      </c>
+      <c r="G233" t="s">
+        <v>81</v>
+      </c>
+      <c r="H233" t="s">
+        <v>80</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>2</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>2</v>
+      </c>
+      <c r="O233" t="s">
+        <v>245</v>
+      </c>
+      <c r="P233" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q233">
+        <v>2.75</v>
+      </c>
+      <c r="R233">
+        <v>2.2</v>
+      </c>
+      <c r="S233">
+        <v>4</v>
+      </c>
+      <c r="T233">
+        <v>1.4</v>
+      </c>
+      <c r="U233">
+        <v>2.75</v>
+      </c>
+      <c r="V233">
+        <v>2.75</v>
+      </c>
+      <c r="W233">
+        <v>1.4</v>
+      </c>
+      <c r="X233">
+        <v>8</v>
+      </c>
+      <c r="Y233">
+        <v>1.08</v>
+      </c>
+      <c r="Z233">
+        <v>2.07</v>
+      </c>
+      <c r="AA233">
+        <v>3.25</v>
+      </c>
+      <c r="AB233">
+        <v>3.05</v>
+      </c>
+      <c r="AC233">
+        <v>1.05</v>
+      </c>
+      <c r="AD233">
+        <v>11</v>
+      </c>
+      <c r="AE233">
+        <v>1.3</v>
+      </c>
+      <c r="AF233">
+        <v>3.6</v>
+      </c>
+      <c r="AG233">
+        <v>1.95</v>
+      </c>
+      <c r="AH233">
+        <v>1.89</v>
+      </c>
+      <c r="AI233">
+        <v>1.75</v>
+      </c>
+      <c r="AJ233">
+        <v>2</v>
+      </c>
+      <c r="AK233">
+        <v>1.3</v>
+      </c>
+      <c r="AL233">
+        <v>1.25</v>
+      </c>
+      <c r="AM233">
+        <v>1.8</v>
+      </c>
+      <c r="AN233">
+        <v>1.56</v>
+      </c>
+      <c r="AO233">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP233">
+        <v>1.65</v>
+      </c>
+      <c r="AQ233">
+        <v>0.76</v>
+      </c>
+      <c r="AR233">
+        <v>1.26</v>
+      </c>
+      <c r="AS233">
+        <v>1.13</v>
+      </c>
+      <c r="AT233">
+        <v>2.39</v>
+      </c>
+      <c r="AU233">
+        <v>5</v>
+      </c>
+      <c r="AV233">
+        <v>7</v>
+      </c>
+      <c r="AW233">
+        <v>7</v>
+      </c>
+      <c r="AX233">
+        <v>5</v>
+      </c>
+      <c r="AY233">
+        <v>12</v>
+      </c>
+      <c r="AZ233">
+        <v>12</v>
+      </c>
+      <c r="BA233">
+        <v>7</v>
+      </c>
+      <c r="BB233">
+        <v>5</v>
+      </c>
+      <c r="BC233">
+        <v>12</v>
+      </c>
+      <c r="BD233">
+        <v>1.85</v>
+      </c>
+      <c r="BE233">
+        <v>6.85</v>
+      </c>
+      <c r="BF233">
+        <v>2.5</v>
+      </c>
+      <c r="BG233">
+        <v>1.57</v>
+      </c>
+      <c r="BH233">
+        <v>2.25</v>
+      </c>
+      <c r="BI233">
+        <v>2</v>
+      </c>
+      <c r="BJ233">
+        <v>1.8</v>
+      </c>
+      <c r="BK233">
+        <v>2.72</v>
+      </c>
+      <c r="BL233">
+        <v>1.4</v>
+      </c>
+      <c r="BM233">
+        <v>3.74</v>
+      </c>
+      <c r="BN233">
+        <v>1.21</v>
+      </c>
+      <c r="BO233">
+        <v>5.2</v>
+      </c>
+      <c r="BP233">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:68">
+      <c r="A234" s="1">
+        <v>233</v>
+      </c>
+      <c r="B234">
+        <v>7382779</v>
+      </c>
+      <c r="C234" t="s">
+        <v>68</v>
+      </c>
+      <c r="D234" t="s">
+        <v>69</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45423.58333333334</v>
+      </c>
+      <c r="F234">
+        <v>7</v>
+      </c>
+      <c r="G234" t="s">
+        <v>71</v>
+      </c>
+      <c r="H234" t="s">
+        <v>70</v>
+      </c>
+      <c r="I234">
+        <v>0</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+      <c r="K234">
+        <v>0</v>
+      </c>
+      <c r="L234">
+        <v>1</v>
+      </c>
+      <c r="M234">
+        <v>1</v>
+      </c>
+      <c r="N234">
+        <v>2</v>
+      </c>
+      <c r="O234" t="s">
+        <v>246</v>
+      </c>
+      <c r="P234" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q234">
+        <v>3.2</v>
+      </c>
+      <c r="R234">
+        <v>2.1</v>
+      </c>
+      <c r="S234">
+        <v>3.4</v>
+      </c>
+      <c r="T234">
+        <v>1.4</v>
+      </c>
+      <c r="U234">
+        <v>2.75</v>
+      </c>
+      <c r="V234">
+        <v>3</v>
+      </c>
+      <c r="W234">
+        <v>1.36</v>
+      </c>
+      <c r="X234">
+        <v>8</v>
+      </c>
+      <c r="Y234">
+        <v>1.08</v>
+      </c>
+      <c r="Z234">
+        <v>2.19</v>
+      </c>
+      <c r="AA234">
+        <v>3.25</v>
+      </c>
+      <c r="AB234">
+        <v>2.76</v>
+      </c>
+      <c r="AC234">
+        <v>1.05</v>
+      </c>
+      <c r="AD234">
+        <v>11</v>
+      </c>
+      <c r="AE234">
+        <v>1.33</v>
+      </c>
+      <c r="AF234">
+        <v>3.4</v>
+      </c>
+      <c r="AG234">
+        <v>1.65</v>
+      </c>
+      <c r="AH234">
+        <v>1.9</v>
+      </c>
+      <c r="AI234">
+        <v>1.75</v>
+      </c>
+      <c r="AJ234">
+        <v>2</v>
+      </c>
+      <c r="AK234">
+        <v>1.45</v>
+      </c>
+      <c r="AL234">
+        <v>1.28</v>
+      </c>
+      <c r="AM234">
+        <v>1.55</v>
+      </c>
+      <c r="AN234">
+        <v>0.8</v>
+      </c>
+      <c r="AO234">
+        <v>0.88</v>
+      </c>
+      <c r="AP234">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ234">
+        <v>0.88</v>
+      </c>
+      <c r="AR234">
+        <v>1.28</v>
+      </c>
+      <c r="AS234">
+        <v>0.93</v>
+      </c>
+      <c r="AT234">
+        <v>2.21</v>
+      </c>
+      <c r="AU234">
+        <v>7</v>
+      </c>
+      <c r="AV234">
+        <v>5</v>
+      </c>
+      <c r="AW234">
+        <v>5</v>
+      </c>
+      <c r="AX234">
+        <v>2</v>
+      </c>
+      <c r="AY234">
+        <v>12</v>
+      </c>
+      <c r="AZ234">
+        <v>7</v>
+      </c>
+      <c r="BA234">
+        <v>6</v>
+      </c>
+      <c r="BB234">
+        <v>2</v>
+      </c>
+      <c r="BC234">
+        <v>8</v>
+      </c>
+      <c r="BD234">
+        <v>1.72</v>
+      </c>
+      <c r="BE234">
+        <v>8.1</v>
+      </c>
+      <c r="BF234">
+        <v>2.63</v>
+      </c>
+      <c r="BG234">
+        <v>1.38</v>
+      </c>
+      <c r="BH234">
+        <v>2.8</v>
+      </c>
+      <c r="BI234">
+        <v>1.7</v>
+      </c>
+      <c r="BJ234">
+        <v>2.1</v>
+      </c>
+      <c r="BK234">
+        <v>2.14</v>
+      </c>
+      <c r="BL234">
+        <v>1.63</v>
+      </c>
+      <c r="BM234">
+        <v>2.84</v>
+      </c>
+      <c r="BN234">
+        <v>1.35</v>
+      </c>
+      <c r="BO234">
+        <v>3.9</v>
+      </c>
+      <c r="BP234">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1466" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="367">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -757,6 +757,9 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['26', '65']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -1473,7 +1476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP234"/>
+  <dimension ref="A1:BP235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1732,7 +1735,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -2144,7 +2147,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2428,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ5">
         <v>1.19</v>
@@ -3792,7 +3795,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -3870,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ12">
         <v>0.76</v>
@@ -4616,7 +4619,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -5234,7 +5237,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5440,7 +5443,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5646,7 +5649,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5852,7 +5855,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -6058,7 +6061,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6264,7 +6267,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6548,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ25">
         <v>1.24</v>
@@ -6757,7 +6760,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ26">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR26">
         <v>3.13</v>
@@ -7088,7 +7091,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7912,7 +7915,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8118,7 +8121,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8324,7 +8327,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8530,7 +8533,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8736,7 +8739,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9226,7 +9229,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ38">
         <v>0.88</v>
@@ -9354,7 +9357,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9560,7 +9563,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -10178,7 +10181,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10384,7 +10387,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10590,7 +10593,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10671,7 +10674,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ45">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR45">
         <v>1.3</v>
@@ -11620,7 +11623,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -12238,7 +12241,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12728,7 +12731,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12856,7 +12859,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13062,7 +13065,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13268,7 +13271,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -14298,7 +14301,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14379,7 +14382,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ63">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14504,7 +14507,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14916,7 +14919,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -15122,7 +15125,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15328,7 +15331,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15534,7 +15537,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15946,7 +15949,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16152,7 +16155,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16358,7 +16361,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16564,7 +16567,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16642,7 +16645,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ74">
         <v>0.88</v>
@@ -16976,7 +16979,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17057,7 +17060,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ76">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR76">
         <v>1.28</v>
@@ -17388,7 +17391,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17594,7 +17597,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17878,7 +17881,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ80">
         <v>0.63</v>
@@ -18006,7 +18009,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18418,7 +18421,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -19448,7 +19451,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19529,7 +19532,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ88">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR88">
         <v>1.32</v>
@@ -19654,7 +19657,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -20144,7 +20147,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ91">
         <v>0.82</v>
@@ -20478,7 +20481,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20890,7 +20893,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -21096,7 +21099,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21302,7 +21305,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21508,7 +21511,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21795,7 +21798,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ99">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR99">
         <v>1.43</v>
@@ -21920,7 +21923,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -22126,7 +22129,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22538,7 +22541,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22744,7 +22747,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22950,7 +22953,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23237,7 +23240,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ106">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR106">
         <v>1.18</v>
@@ -23362,7 +23365,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23649,7 +23652,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ108">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -24058,7 +24061,7 @@
         <v>0.43</v>
       </c>
       <c r="AP110">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ110">
         <v>0.5</v>
@@ -24392,7 +24395,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24804,7 +24807,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25010,7 +25013,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25216,7 +25219,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25628,7 +25631,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25834,7 +25837,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26246,7 +26249,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26452,7 +26455,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26658,7 +26661,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26864,7 +26867,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -26945,7 +26948,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ124">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR124">
         <v>1.32</v>
@@ -27276,7 +27279,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27560,7 +27563,7 @@
         <v>0.44</v>
       </c>
       <c r="AP127">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ127">
         <v>0.59</v>
@@ -27894,7 +27897,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28306,7 +28309,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28512,7 +28515,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28924,7 +28927,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29005,7 +29008,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ134">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR134">
         <v>1.81</v>
@@ -29130,7 +29133,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29336,7 +29339,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -30160,7 +30163,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30366,7 +30369,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30444,7 +30447,7 @@
         <v>2.2</v>
       </c>
       <c r="AP141">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ141">
         <v>2.06</v>
@@ -30572,7 +30575,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30778,7 +30781,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30984,7 +30987,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31190,7 +31193,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31396,7 +31399,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31602,7 +31605,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31889,7 +31892,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ148">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR148">
         <v>1.85</v>
@@ -32838,7 +32841,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -33044,7 +33047,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33328,7 +33331,7 @@
         <v>2.1</v>
       </c>
       <c r="AP155">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ155">
         <v>1.88</v>
@@ -33456,7 +33459,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33662,7 +33665,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33868,7 +33871,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34280,7 +34283,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34358,10 +34361,10 @@
         <v>1.91</v>
       </c>
       <c r="AP160">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ160">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR160">
         <v>1.87</v>
@@ -34692,7 +34695,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34898,7 +34901,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35310,7 +35313,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35516,7 +35519,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35722,7 +35725,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -36134,7 +36137,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36340,7 +36343,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36546,7 +36549,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36752,7 +36755,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36958,7 +36961,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37039,7 +37042,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ173">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR173">
         <v>1.46</v>
@@ -37164,7 +37167,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37370,7 +37373,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37782,7 +37785,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -38194,7 +38197,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -38400,7 +38403,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38606,7 +38609,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q181">
         <v>2.95</v>
@@ -38812,7 +38815,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -39224,7 +39227,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39430,7 +39433,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39636,7 +39639,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39714,7 +39717,7 @@
         <v>1.15</v>
       </c>
       <c r="AP186">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ186">
         <v>1.24</v>
@@ -39842,7 +39845,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40254,7 +40257,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -41078,7 +41081,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41490,7 +41493,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -41777,7 +41780,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ196">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR196">
         <v>2.06</v>
@@ -42392,7 +42395,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ199">
         <v>0.82</v>
@@ -42726,7 +42729,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42932,7 +42935,7 @@
         <v>89</v>
       </c>
       <c r="P202" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q202">
         <v>2.88</v>
@@ -43550,7 +43553,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43631,7 +43634,7 @@
         <v>1.24</v>
       </c>
       <c r="AQ205">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR205">
         <v>1.12</v>
@@ -43756,7 +43759,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43962,7 +43965,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44168,7 +44171,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44374,7 +44377,7 @@
         <v>125</v>
       </c>
       <c r="P209" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q209">
         <v>2.58</v>
@@ -44580,7 +44583,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q210">
         <v>2.99</v>
@@ -44786,7 +44789,7 @@
         <v>89</v>
       </c>
       <c r="P211" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q211">
         <v>2.88</v>
@@ -44992,7 +44995,7 @@
         <v>229</v>
       </c>
       <c r="P212" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q212">
         <v>1.53</v>
@@ -45610,7 +45613,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q215">
         <v>3.15</v>
@@ -45816,7 +45819,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q216">
         <v>3.08</v>
@@ -46228,7 +46231,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -46434,7 +46437,7 @@
         <v>106</v>
       </c>
       <c r="P219" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46640,7 +46643,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46846,7 +46849,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -47133,7 +47136,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ222">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AR222">
         <v>1.69</v>
@@ -47670,7 +47673,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q225">
         <v>1.79</v>
@@ -48494,7 +48497,7 @@
         <v>243</v>
       </c>
       <c r="P229" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q229">
         <v>3.15</v>
@@ -48572,7 +48575,7 @@
         <v>2</v>
       </c>
       <c r="AP229">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AQ229">
         <v>1.88</v>
@@ -48700,7 +48703,7 @@
         <v>89</v>
       </c>
       <c r="P230" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q230">
         <v>1.75</v>
@@ -48906,7 +48909,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49112,7 +49115,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -49681,6 +49684,212 @@
       </c>
       <c r="BP234">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="235" spans="1:68">
+      <c r="A235" s="1">
+        <v>234</v>
+      </c>
+      <c r="B235">
+        <v>7378771</v>
+      </c>
+      <c r="C235" t="s">
+        <v>68</v>
+      </c>
+      <c r="D235" t="s">
+        <v>69</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45424.58333333334</v>
+      </c>
+      <c r="F235">
+        <v>5</v>
+      </c>
+      <c r="G235" t="s">
+        <v>73</v>
+      </c>
+      <c r="H235" t="s">
+        <v>74</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+      <c r="K235">
+        <v>1</v>
+      </c>
+      <c r="L235">
+        <v>2</v>
+      </c>
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>2</v>
+      </c>
+      <c r="O235" t="s">
+        <v>247</v>
+      </c>
+      <c r="P235" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q235">
+        <v>2.88</v>
+      </c>
+      <c r="R235">
+        <v>2.25</v>
+      </c>
+      <c r="S235">
+        <v>3.5</v>
+      </c>
+      <c r="T235">
+        <v>1.33</v>
+      </c>
+      <c r="U235">
+        <v>3.25</v>
+      </c>
+      <c r="V235">
+        <v>2.63</v>
+      </c>
+      <c r="W235">
+        <v>1.44</v>
+      </c>
+      <c r="X235">
+        <v>7</v>
+      </c>
+      <c r="Y235">
+        <v>1.1</v>
+      </c>
+      <c r="Z235">
+        <v>2.29</v>
+      </c>
+      <c r="AA235">
+        <v>3.44</v>
+      </c>
+      <c r="AB235">
+        <v>3.06</v>
+      </c>
+      <c r="AC235">
+        <v>1.03</v>
+      </c>
+      <c r="AD235">
+        <v>14</v>
+      </c>
+      <c r="AE235">
+        <v>1.22</v>
+      </c>
+      <c r="AF235">
+        <v>3.8</v>
+      </c>
+      <c r="AG235">
+        <v>1.8</v>
+      </c>
+      <c r="AH235">
+        <v>2.02</v>
+      </c>
+      <c r="AI235">
+        <v>1.62</v>
+      </c>
+      <c r="AJ235">
+        <v>2.2</v>
+      </c>
+      <c r="AK235">
+        <v>1.36</v>
+      </c>
+      <c r="AL235">
+        <v>1.29</v>
+      </c>
+      <c r="AM235">
+        <v>1.69</v>
+      </c>
+      <c r="AN235">
+        <v>2.38</v>
+      </c>
+      <c r="AO235">
+        <v>1.94</v>
+      </c>
+      <c r="AP235">
+        <v>2.41</v>
+      </c>
+      <c r="AQ235">
+        <v>1.82</v>
+      </c>
+      <c r="AR235">
+        <v>1.77</v>
+      </c>
+      <c r="AS235">
+        <v>1.64</v>
+      </c>
+      <c r="AT235">
+        <v>3.41</v>
+      </c>
+      <c r="AU235">
+        <v>0</v>
+      </c>
+      <c r="AV235">
+        <v>5</v>
+      </c>
+      <c r="AW235">
+        <v>5</v>
+      </c>
+      <c r="AX235">
+        <v>3</v>
+      </c>
+      <c r="AY235">
+        <v>5</v>
+      </c>
+      <c r="AZ235">
+        <v>8</v>
+      </c>
+      <c r="BA235">
+        <v>3</v>
+      </c>
+      <c r="BB235">
+        <v>3</v>
+      </c>
+      <c r="BC235">
+        <v>6</v>
+      </c>
+      <c r="BD235">
+        <v>1.92</v>
+      </c>
+      <c r="BE235">
+        <v>7.3</v>
+      </c>
+      <c r="BF235">
+        <v>2.34</v>
+      </c>
+      <c r="BG235">
+        <v>1.32</v>
+      </c>
+      <c r="BH235">
+        <v>2.98</v>
+      </c>
+      <c r="BI235">
+        <v>1.61</v>
+      </c>
+      <c r="BJ235">
+        <v>2.17</v>
+      </c>
+      <c r="BK235">
+        <v>2.08</v>
+      </c>
+      <c r="BL235">
+        <v>1.7</v>
+      </c>
+      <c r="BM235">
+        <v>2.72</v>
+      </c>
+      <c r="BN235">
+        <v>1.4</v>
+      </c>
+      <c r="BO235">
+        <v>3.74</v>
+      </c>
+      <c r="BP235">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -49826,22 +49826,22 @@
         <v>3.41</v>
       </c>
       <c r="AU235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV235">
+        <v>4</v>
+      </c>
+      <c r="AW235">
+        <v>4</v>
+      </c>
+      <c r="AX235">
         <v>5</v>
       </c>
-      <c r="AW235">
-        <v>5</v>
-      </c>
-      <c r="AX235">
-        <v>3</v>
-      </c>
       <c r="AY235">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ235">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA235">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="371">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -760,6 +760,15 @@
     <t>['26', '65']</t>
   </si>
   <si>
+    <t>['35', '43']</t>
+  </si>
+  <si>
+    <t>['37', '72', '89', '90+2']</t>
+  </si>
+  <si>
+    <t>['65', '90+2']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -1115,6 +1124,9 @@
   </si>
   <si>
     <t>['6', '46']</t>
+  </si>
+  <si>
+    <t>['46', '76', '78', '89']</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP235"/>
+  <dimension ref="A1:BP238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1735,7 +1747,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -2147,7 +2159,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2228,7 +2240,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ4">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2431,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ5">
         <v>1.19</v>
@@ -2637,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
         <v>0.63</v>
@@ -3667,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3795,7 +3807,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -3873,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ12">
         <v>0.76</v>
@@ -4079,7 +4091,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -4619,7 +4631,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4903,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="AP17">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
         <v>0.82</v>
@@ -5237,7 +5249,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5318,7 +5330,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ19">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR19">
         <v>1.21</v>
@@ -5443,7 +5455,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5524,7 +5536,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ20">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR20">
         <v>1.39</v>
@@ -5649,7 +5661,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5727,7 +5739,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
         <v>0.5</v>
@@ -5855,7 +5867,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -5936,7 +5948,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ22">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR22">
         <v>1.75</v>
@@ -6061,7 +6073,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6267,7 +6279,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6551,10 +6563,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ25">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>1.95</v>
@@ -7091,7 +7103,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7581,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ30">
         <v>0.76</v>
@@ -7915,7 +7927,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8121,7 +8133,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8327,7 +8339,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8408,7 +8420,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ34">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR34">
         <v>1.73</v>
@@ -8533,7 +8545,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8739,7 +8751,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -9023,10 +9035,10 @@
         <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
         <v>2.25</v>
@@ -9229,7 +9241,7 @@
         <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ38">
         <v>0.88</v>
@@ -9357,7 +9369,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9563,7 +9575,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -9644,7 +9656,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ40">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR40">
         <v>1.53</v>
@@ -10053,7 +10065,7 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42">
         <v>0.88</v>
@@ -10181,7 +10193,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10387,7 +10399,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10593,7 +10605,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -11086,7 +11098,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ47">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR47">
         <v>1.42</v>
@@ -11623,7 +11635,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11701,7 +11713,7 @@
         <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ50">
         <v>0.59</v>
@@ -12241,7 +12253,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12322,7 +12334,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ53">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR53">
         <v>1.41</v>
@@ -12731,7 +12743,7 @@
         <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12859,7 +12871,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -12937,10 +12949,10 @@
         <v>3</v>
       </c>
       <c r="AP56">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ56">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR56">
         <v>2.15</v>
@@ -13065,7 +13077,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13271,7 +13283,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -14301,7 +14313,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14507,7 +14519,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14585,10 +14597,10 @@
         <v>3</v>
       </c>
       <c r="AP64">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR64">
         <v>1.04</v>
@@ -14794,7 +14806,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ65">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR65">
         <v>1.58</v>
@@ -14919,7 +14931,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -15125,7 +15137,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15331,7 +15343,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15409,7 +15421,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ68">
         <v>1.94</v>
@@ -15537,7 +15549,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15949,7 +15961,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16155,7 +16167,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16361,7 +16373,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16442,7 +16454,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ73">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
         <v>1.34</v>
@@ -16567,7 +16579,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16645,7 +16657,7 @@
         <v>0.2</v>
       </c>
       <c r="AP74">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ74">
         <v>0.88</v>
@@ -16979,7 +16991,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17266,7 +17278,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ77">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR77">
         <v>1.42</v>
@@ -17391,7 +17403,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17597,7 +17609,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -17675,7 +17687,7 @@
         <v>0.17</v>
       </c>
       <c r="AP79">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79">
         <v>0.88</v>
@@ -17881,7 +17893,7 @@
         <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ80">
         <v>0.63</v>
@@ -18009,7 +18021,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18296,7 +18308,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ82">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR82">
         <v>1.08</v>
@@ -18421,7 +18433,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18499,7 +18511,7 @@
         <v>0.57</v>
       </c>
       <c r="AP83">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ83">
         <v>0.75</v>
@@ -18708,7 +18720,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ84">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR84">
         <v>1.9</v>
@@ -19451,7 +19463,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19657,7 +19669,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -20147,7 +20159,7 @@
         <v>0.83</v>
       </c>
       <c r="AP91">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ91">
         <v>0.82</v>
@@ -20356,7 +20368,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ92">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>2.03</v>
@@ -20481,7 +20493,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20893,7 +20905,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -21099,7 +21111,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21177,7 +21189,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ96">
         <v>0.88</v>
@@ -21305,7 +21317,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21386,7 +21398,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR97">
         <v>1.2</v>
@@ -21511,7 +21523,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21592,7 +21604,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ98">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR98">
         <v>1.71</v>
@@ -21923,7 +21935,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -22129,7 +22141,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22210,7 +22222,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ101">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR101">
         <v>1.3</v>
@@ -22541,7 +22553,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22622,7 +22634,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ103">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR103">
         <v>1.29</v>
@@ -22747,7 +22759,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22953,7 +22965,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23365,7 +23377,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23446,7 +23458,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ107">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
@@ -23649,7 +23661,7 @@
         <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ108">
         <v>1.82</v>
@@ -24061,7 +24073,7 @@
         <v>0.43</v>
       </c>
       <c r="AP110">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ110">
         <v>0.5</v>
@@ -24395,7 +24407,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24807,7 +24819,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25013,7 +25025,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25219,7 +25231,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25631,7 +25643,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25837,7 +25849,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -25915,10 +25927,10 @@
         <v>1.88</v>
       </c>
       <c r="AP119">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR119">
         <v>1.84</v>
@@ -26249,7 +26261,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26455,7 +26467,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26533,7 +26545,7 @@
         <v>0.3</v>
       </c>
       <c r="AP122">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ122">
         <v>0.63</v>
@@ -26661,7 +26673,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26742,7 +26754,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ123">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.56</v>
@@ -26867,7 +26879,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -27279,7 +27291,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27360,7 +27372,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ126">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR126">
         <v>1.94</v>
@@ -27563,7 +27575,7 @@
         <v>0.44</v>
       </c>
       <c r="AP127">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ127">
         <v>0.59</v>
@@ -27769,7 +27781,7 @@
         <v>0.25</v>
       </c>
       <c r="AP128">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ128">
         <v>0.76</v>
@@ -27897,7 +27909,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28309,7 +28321,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28515,7 +28527,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28596,7 +28608,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR132">
         <v>1.13</v>
@@ -28927,7 +28939,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29133,7 +29145,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29339,7 +29351,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29626,7 +29638,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ137">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
         <v>1.27</v>
@@ -30163,7 +30175,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30241,7 +30253,7 @@
         <v>0.4</v>
       </c>
       <c r="AP140">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ140">
         <v>0.59</v>
@@ -30369,7 +30381,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30447,10 +30459,10 @@
         <v>2.2</v>
       </c>
       <c r="AP141">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ141">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR141">
         <v>1.95</v>
@@ -30575,7 +30587,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30781,7 +30793,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30862,7 +30874,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ143">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR143">
         <v>1.23</v>
@@ -30987,7 +30999,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31193,7 +31205,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31399,7 +31411,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31605,7 +31617,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -32095,7 +32107,7 @@
         <v>0.4</v>
       </c>
       <c r="AP149">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ149">
         <v>0.5</v>
@@ -32304,7 +32316,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ150">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR150">
         <v>1.29</v>
@@ -32841,7 +32853,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -32922,7 +32934,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ153">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR153">
         <v>1.31</v>
@@ -33047,7 +33059,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33125,7 +33137,7 @@
         <v>1.3</v>
       </c>
       <c r="AP154">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ154">
         <v>1.19</v>
@@ -33331,10 +33343,10 @@
         <v>2.1</v>
       </c>
       <c r="AP155">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ155">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR155">
         <v>1.9</v>
@@ -33459,7 +33471,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33540,7 +33552,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ156">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR156">
         <v>1.06</v>
@@ -33665,7 +33677,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33871,7 +33883,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34283,7 +34295,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34361,7 +34373,7 @@
         <v>1.91</v>
       </c>
       <c r="AP160">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ160">
         <v>1.82</v>
@@ -34695,7 +34707,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34901,7 +34913,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -34979,10 +34991,10 @@
         <v>2</v>
       </c>
       <c r="AP163">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ163">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR163">
         <v>1.24</v>
@@ -35313,7 +35325,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35519,7 +35531,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35725,7 +35737,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -35803,7 +35815,7 @@
         <v>1.18</v>
       </c>
       <c r="AP167">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ167">
         <v>1.19</v>
@@ -36137,7 +36149,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36343,7 +36355,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36549,7 +36561,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36755,7 +36767,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36961,7 +36973,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37167,7 +37179,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37373,7 +37385,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37660,7 +37672,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ176">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR176">
         <v>1.88</v>
@@ -37785,7 +37797,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -38197,7 +38209,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -38278,7 +38290,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ179">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR179">
         <v>1.36</v>
@@ -38403,7 +38415,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38481,7 +38493,7 @@
         <v>2.08</v>
       </c>
       <c r="AP180">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ180">
         <v>1.94</v>
@@ -38609,7 +38621,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q181">
         <v>2.95</v>
@@ -38815,7 +38827,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -38896,7 +38908,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ182">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR182">
         <v>1.75</v>
@@ -39099,7 +39111,7 @@
         <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ183">
         <v>0.88</v>
@@ -39227,7 +39239,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39305,10 +39317,10 @@
         <v>2</v>
       </c>
       <c r="AP184">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ184">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR184">
         <v>1.18</v>
@@ -39433,7 +39445,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39511,10 +39523,10 @@
         <v>2</v>
       </c>
       <c r="AP185">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ185">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR185">
         <v>2.06</v>
@@ -39639,7 +39651,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39717,10 +39729,10 @@
         <v>1.15</v>
       </c>
       <c r="AP186">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ186">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR186">
         <v>1.83</v>
@@ -39845,7 +39857,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40257,7 +40269,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -41081,7 +41093,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41493,7 +41505,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -42189,10 +42201,10 @@
         <v>1.29</v>
       </c>
       <c r="AP198">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ198">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR198">
         <v>2.03</v>
@@ -42395,7 +42407,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ199">
         <v>0.82</v>
@@ -42604,7 +42616,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ200">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR200">
         <v>1.89</v>
@@ -42729,7 +42741,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42935,7 +42947,7 @@
         <v>89</v>
       </c>
       <c r="P202" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q202">
         <v>2.88</v>
@@ -43553,7 +43565,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43631,7 +43643,7 @@
         <v>1.93</v>
       </c>
       <c r="AP205">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ205">
         <v>1.82</v>
@@ -43759,7 +43771,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43840,7 +43852,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ206">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR206">
         <v>1.73</v>
@@ -43965,7 +43977,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44171,7 +44183,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44377,7 +44389,7 @@
         <v>125</v>
       </c>
       <c r="P209" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q209">
         <v>2.58</v>
@@ -44583,7 +44595,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q210">
         <v>2.99</v>
@@ -44789,7 +44801,7 @@
         <v>89</v>
       </c>
       <c r="P211" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q211">
         <v>2.88</v>
@@ -44995,7 +45007,7 @@
         <v>229</v>
       </c>
       <c r="P212" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q212">
         <v>1.53</v>
@@ -45282,7 +45294,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ213">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR213">
         <v>1.95</v>
@@ -45613,7 +45625,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q215">
         <v>3.15</v>
@@ -45819,7 +45831,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q216">
         <v>3.08</v>
@@ -46231,7 +46243,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -46309,10 +46321,10 @@
         <v>2.13</v>
       </c>
       <c r="AP218">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ218">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR218">
         <v>1.11</v>
@@ -46437,7 +46449,7 @@
         <v>106</v>
       </c>
       <c r="P219" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46518,7 +46530,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ219">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR219">
         <v>1.74</v>
@@ -46643,7 +46655,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46721,7 +46733,7 @@
         <v>2.13</v>
       </c>
       <c r="AP220">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ220">
         <v>1.94</v>
@@ -46849,7 +46861,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -46927,7 +46939,7 @@
         <v>2</v>
       </c>
       <c r="AP221">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="AQ221">
         <v>1.94</v>
@@ -47342,7 +47354,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ223">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AR223">
         <v>1.96</v>
@@ -47673,7 +47685,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q225">
         <v>1.79</v>
@@ -48369,7 +48381,7 @@
         <v>0.88</v>
       </c>
       <c r="AP228">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ228">
         <v>0.82</v>
@@ -48497,7 +48509,7 @@
         <v>243</v>
       </c>
       <c r="P229" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q229">
         <v>3.15</v>
@@ -48575,10 +48587,10 @@
         <v>2</v>
       </c>
       <c r="AP229">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ229">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AR229">
         <v>1.81</v>
@@ -48703,7 +48715,7 @@
         <v>89</v>
       </c>
       <c r="P230" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q230">
         <v>1.75</v>
@@ -48784,7 +48796,7 @@
         <v>2.12</v>
       </c>
       <c r="AQ230">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AR230">
         <v>1.87</v>
@@ -48909,7 +48921,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49115,7 +49127,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -49811,7 +49823,7 @@
         <v>1.94</v>
       </c>
       <c r="AP235">
-        <v>2.41</v>
+        <v>2.44</v>
       </c>
       <c r="AQ235">
         <v>1.82</v>
@@ -49890,6 +49902,624 @@
       </c>
       <c r="BP235">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="236" spans="1:68">
+      <c r="A236" s="1">
+        <v>235</v>
+      </c>
+      <c r="B236">
+        <v>7378784</v>
+      </c>
+      <c r="C236" t="s">
+        <v>68</v>
+      </c>
+      <c r="D236" t="s">
+        <v>69</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45427.5</v>
+      </c>
+      <c r="F236">
+        <v>9</v>
+      </c>
+      <c r="G236" t="s">
+        <v>79</v>
+      </c>
+      <c r="H236" t="s">
+        <v>82</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236">
+        <v>0</v>
+      </c>
+      <c r="K236">
+        <v>2</v>
+      </c>
+      <c r="L236">
+        <v>2</v>
+      </c>
+      <c r="M236">
+        <v>4</v>
+      </c>
+      <c r="N236">
+        <v>6</v>
+      </c>
+      <c r="O236" t="s">
+        <v>248</v>
+      </c>
+      <c r="P236" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q236">
+        <v>4.33</v>
+      </c>
+      <c r="R236">
+        <v>2.25</v>
+      </c>
+      <c r="S236">
+        <v>2.5</v>
+      </c>
+      <c r="T236">
+        <v>1.36</v>
+      </c>
+      <c r="U236">
+        <v>3</v>
+      </c>
+      <c r="V236">
+        <v>2.63</v>
+      </c>
+      <c r="W236">
+        <v>1.44</v>
+      </c>
+      <c r="X236">
+        <v>7</v>
+      </c>
+      <c r="Y236">
+        <v>1.1</v>
+      </c>
+      <c r="Z236">
+        <v>3.15</v>
+      </c>
+      <c r="AA236">
+        <v>3.35</v>
+      </c>
+      <c r="AB236">
+        <v>1.97</v>
+      </c>
+      <c r="AC236">
+        <v>1.04</v>
+      </c>
+      <c r="AD236">
+        <v>13</v>
+      </c>
+      <c r="AE236">
+        <v>1.24</v>
+      </c>
+      <c r="AF236">
+        <v>3.7</v>
+      </c>
+      <c r="AG236">
+        <v>1.86</v>
+      </c>
+      <c r="AH236">
+        <v>1.98</v>
+      </c>
+      <c r="AI236">
+        <v>1.7</v>
+      </c>
+      <c r="AJ236">
+        <v>2.05</v>
+      </c>
+      <c r="AK236">
+        <v>1.9</v>
+      </c>
+      <c r="AL236">
+        <v>1.24</v>
+      </c>
+      <c r="AM236">
+        <v>1.28</v>
+      </c>
+      <c r="AN236">
+        <v>1.24</v>
+      </c>
+      <c r="AO236">
+        <v>1.24</v>
+      </c>
+      <c r="AP236">
+        <v>1.17</v>
+      </c>
+      <c r="AQ236">
+        <v>1.33</v>
+      </c>
+      <c r="AR236">
+        <v>1.12</v>
+      </c>
+      <c r="AS236">
+        <v>1</v>
+      </c>
+      <c r="AT236">
+        <v>2.12</v>
+      </c>
+      <c r="AU236">
+        <v>6</v>
+      </c>
+      <c r="AV236">
+        <v>6</v>
+      </c>
+      <c r="AW236">
+        <v>4</v>
+      </c>
+      <c r="AX236">
+        <v>5</v>
+      </c>
+      <c r="AY236">
+        <v>10</v>
+      </c>
+      <c r="AZ236">
+        <v>11</v>
+      </c>
+      <c r="BA236">
+        <v>3</v>
+      </c>
+      <c r="BB236">
+        <v>2</v>
+      </c>
+      <c r="BC236">
+        <v>5</v>
+      </c>
+      <c r="BD236">
+        <v>2.64</v>
+      </c>
+      <c r="BE236">
+        <v>7.5</v>
+      </c>
+      <c r="BF236">
+        <v>1.69</v>
+      </c>
+      <c r="BG236">
+        <v>1.53</v>
+      </c>
+      <c r="BH236">
+        <v>2.45</v>
+      </c>
+      <c r="BI236">
+        <v>1.9</v>
+      </c>
+      <c r="BJ236">
+        <v>1.9</v>
+      </c>
+      <c r="BK236">
+        <v>2.41</v>
+      </c>
+      <c r="BL236">
+        <v>1.55</v>
+      </c>
+      <c r="BM236">
+        <v>3.34</v>
+      </c>
+      <c r="BN236">
+        <v>1.26</v>
+      </c>
+      <c r="BO236">
+        <v>4.85</v>
+      </c>
+      <c r="BP236">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:68">
+      <c r="A237" s="1">
+        <v>236</v>
+      </c>
+      <c r="B237">
+        <v>7378783</v>
+      </c>
+      <c r="C237" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" t="s">
+        <v>69</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45427.58333333334</v>
+      </c>
+      <c r="F237">
+        <v>9</v>
+      </c>
+      <c r="G237" t="s">
+        <v>73</v>
+      </c>
+      <c r="H237" t="s">
+        <v>77</v>
+      </c>
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237">
+        <v>0</v>
+      </c>
+      <c r="K237">
+        <v>1</v>
+      </c>
+      <c r="L237">
+        <v>4</v>
+      </c>
+      <c r="M237">
+        <v>1</v>
+      </c>
+      <c r="N237">
+        <v>5</v>
+      </c>
+      <c r="O237" t="s">
+        <v>249</v>
+      </c>
+      <c r="P237" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q237">
+        <v>2.75</v>
+      </c>
+      <c r="R237">
+        <v>2.2</v>
+      </c>
+      <c r="S237">
+        <v>3.75</v>
+      </c>
+      <c r="T237">
+        <v>1.4</v>
+      </c>
+      <c r="U237">
+        <v>2.75</v>
+      </c>
+      <c r="V237">
+        <v>2.75</v>
+      </c>
+      <c r="W237">
+        <v>1.4</v>
+      </c>
+      <c r="X237">
+        <v>8</v>
+      </c>
+      <c r="Y237">
+        <v>1.08</v>
+      </c>
+      <c r="Z237">
+        <v>1.88</v>
+      </c>
+      <c r="AA237">
+        <v>3.45</v>
+      </c>
+      <c r="AB237">
+        <v>3.35</v>
+      </c>
+      <c r="AC237">
+        <v>1.05</v>
+      </c>
+      <c r="AD237">
+        <v>11</v>
+      </c>
+      <c r="AE237">
+        <v>1.3</v>
+      </c>
+      <c r="AF237">
+        <v>3.6</v>
+      </c>
+      <c r="AG237">
+        <v>1.83</v>
+      </c>
+      <c r="AH237">
+        <v>2.03</v>
+      </c>
+      <c r="AI237">
+        <v>1.75</v>
+      </c>
+      <c r="AJ237">
+        <v>2</v>
+      </c>
+      <c r="AK237">
+        <v>1.35</v>
+      </c>
+      <c r="AL237">
+        <v>1.26</v>
+      </c>
+      <c r="AM237">
+        <v>1.72</v>
+      </c>
+      <c r="AN237">
+        <v>2.41</v>
+      </c>
+      <c r="AO237">
+        <v>2.06</v>
+      </c>
+      <c r="AP237">
+        <v>2.44</v>
+      </c>
+      <c r="AQ237">
+        <v>1.94</v>
+      </c>
+      <c r="AR237">
+        <v>1.72</v>
+      </c>
+      <c r="AS237">
+        <v>1.5</v>
+      </c>
+      <c r="AT237">
+        <v>3.22</v>
+      </c>
+      <c r="AU237">
+        <v>7</v>
+      </c>
+      <c r="AV237">
+        <v>4</v>
+      </c>
+      <c r="AW237">
+        <v>5</v>
+      </c>
+      <c r="AX237">
+        <v>0</v>
+      </c>
+      <c r="AY237">
+        <v>12</v>
+      </c>
+      <c r="AZ237">
+        <v>4</v>
+      </c>
+      <c r="BA237">
+        <v>4</v>
+      </c>
+      <c r="BB237">
+        <v>2</v>
+      </c>
+      <c r="BC237">
+        <v>6</v>
+      </c>
+      <c r="BD237">
+        <v>1.64</v>
+      </c>
+      <c r="BE237">
+        <v>8</v>
+      </c>
+      <c r="BF237">
+        <v>2.67</v>
+      </c>
+      <c r="BG237">
+        <v>1.39</v>
+      </c>
+      <c r="BH237">
+        <v>2.76</v>
+      </c>
+      <c r="BI237">
+        <v>1.75</v>
+      </c>
+      <c r="BJ237">
+        <v>2.05</v>
+      </c>
+      <c r="BK237">
+        <v>2.23</v>
+      </c>
+      <c r="BL237">
+        <v>1.64</v>
+      </c>
+      <c r="BM237">
+        <v>2.93</v>
+      </c>
+      <c r="BN237">
+        <v>1.33</v>
+      </c>
+      <c r="BO237">
+        <v>4.2</v>
+      </c>
+      <c r="BP237">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:68">
+      <c r="A238" s="1">
+        <v>237</v>
+      </c>
+      <c r="B238">
+        <v>7378782</v>
+      </c>
+      <c r="C238" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" t="s">
+        <v>69</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45427.58333333334</v>
+      </c>
+      <c r="F238">
+        <v>9</v>
+      </c>
+      <c r="G238" t="s">
+        <v>74</v>
+      </c>
+      <c r="H238" t="s">
+        <v>78</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+      <c r="J238">
+        <v>0</v>
+      </c>
+      <c r="K238">
+        <v>0</v>
+      </c>
+      <c r="L238">
+        <v>2</v>
+      </c>
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>2</v>
+      </c>
+      <c r="O238" t="s">
+        <v>250</v>
+      </c>
+      <c r="P238" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q238">
+        <v>3.1</v>
+      </c>
+      <c r="R238">
+        <v>2.2</v>
+      </c>
+      <c r="S238">
+        <v>3.4</v>
+      </c>
+      <c r="T238">
+        <v>1.4</v>
+      </c>
+      <c r="U238">
+        <v>2.75</v>
+      </c>
+      <c r="V238">
+        <v>2.75</v>
+      </c>
+      <c r="W238">
+        <v>1.4</v>
+      </c>
+      <c r="X238">
+        <v>8</v>
+      </c>
+      <c r="Y238">
+        <v>1.08</v>
+      </c>
+      <c r="Z238">
+        <v>2.24</v>
+      </c>
+      <c r="AA238">
+        <v>3.3</v>
+      </c>
+      <c r="AB238">
+        <v>2.67</v>
+      </c>
+      <c r="AC238">
+        <v>1.05</v>
+      </c>
+      <c r="AD238">
+        <v>11</v>
+      </c>
+      <c r="AE238">
+        <v>1.3</v>
+      </c>
+      <c r="AF238">
+        <v>3.6</v>
+      </c>
+      <c r="AG238">
+        <v>1.8</v>
+      </c>
+      <c r="AH238">
+        <v>1.85</v>
+      </c>
+      <c r="AI238">
+        <v>1.7</v>
+      </c>
+      <c r="AJ238">
+        <v>2.05</v>
+      </c>
+      <c r="AK238">
+        <v>1.45</v>
+      </c>
+      <c r="AL238">
+        <v>1.28</v>
+      </c>
+      <c r="AM238">
+        <v>1.55</v>
+      </c>
+      <c r="AN238">
+        <v>2.29</v>
+      </c>
+      <c r="AO238">
+        <v>1.88</v>
+      </c>
+      <c r="AP238">
+        <v>2.33</v>
+      </c>
+      <c r="AQ238">
+        <v>1.78</v>
+      </c>
+      <c r="AR238">
+        <v>1.99</v>
+      </c>
+      <c r="AS238">
+        <v>1.87</v>
+      </c>
+      <c r="AT238">
+        <v>3.86</v>
+      </c>
+      <c r="AU238">
+        <v>7</v>
+      </c>
+      <c r="AV238">
+        <v>5</v>
+      </c>
+      <c r="AW238">
+        <v>9</v>
+      </c>
+      <c r="AX238">
+        <v>4</v>
+      </c>
+      <c r="AY238">
+        <v>16</v>
+      </c>
+      <c r="AZ238">
+        <v>9</v>
+      </c>
+      <c r="BA238">
+        <v>7</v>
+      </c>
+      <c r="BB238">
+        <v>2</v>
+      </c>
+      <c r="BC238">
+        <v>9</v>
+      </c>
+      <c r="BD238">
+        <v>1.95</v>
+      </c>
+      <c r="BE238">
+        <v>7.5</v>
+      </c>
+      <c r="BF238">
+        <v>2.1</v>
+      </c>
+      <c r="BG238">
+        <v>1.32</v>
+      </c>
+      <c r="BH238">
+        <v>3.1</v>
+      </c>
+      <c r="BI238">
+        <v>1.69</v>
+      </c>
+      <c r="BJ238">
+        <v>2.15</v>
+      </c>
+      <c r="BK238">
+        <v>2.12</v>
+      </c>
+      <c r="BL238">
+        <v>1.7</v>
+      </c>
+      <c r="BM238">
+        <v>2.85</v>
+      </c>
+      <c r="BN238">
+        <v>1.37</v>
+      </c>
+      <c r="BO238">
+        <v>3.6</v>
+      </c>
+      <c r="BP238">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="375">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -769,6 +769,12 @@
     <t>['65', '90+2']</t>
   </si>
   <si>
+    <t>['20', '40', '90+2']</t>
+  </si>
+  <si>
+    <t>['45+5', '59']</t>
+  </si>
+  <si>
     <t>['55', '61']</t>
   </si>
   <si>
@@ -1127,6 +1133,12 @@
   </si>
   <si>
     <t>['46', '76', '78', '89']</t>
+  </si>
+  <si>
+    <t>['30', '62']</t>
+  </si>
+  <si>
+    <t>['73', '81']</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP238"/>
+  <dimension ref="A1:BP241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1747,7 +1759,7 @@
         <v>84</v>
       </c>
       <c r="P2" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q2">
         <v>3.4</v>
@@ -1828,7 +1840,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ2">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2159,7 +2171,7 @@
         <v>86</v>
       </c>
       <c r="P4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -3267,7 +3279,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -3473,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ10">
         <v>0.63</v>
@@ -3807,7 +3819,7 @@
         <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q12">
         <v>1.62</v>
@@ -4631,7 +4643,7 @@
         <v>98</v>
       </c>
       <c r="P16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q16">
         <v>2.2</v>
@@ -4709,7 +4721,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ16">
         <v>1.19</v>
@@ -4918,7 +4930,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR17">
         <v>2.51</v>
@@ -5124,7 +5136,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ18">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR18">
         <v>1.52</v>
@@ -5249,7 +5261,7 @@
         <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q19">
         <v>9</v>
@@ -5455,7 +5467,7 @@
         <v>89</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q20">
         <v>6.5</v>
@@ -5661,7 +5673,7 @@
         <v>102</v>
       </c>
       <c r="P21" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q21">
         <v>3.4</v>
@@ -5867,7 +5879,7 @@
         <v>89</v>
       </c>
       <c r="P22" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q22">
         <v>8.5</v>
@@ -6073,7 +6085,7 @@
         <v>103</v>
       </c>
       <c r="P23" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6279,7 +6291,7 @@
         <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q24">
         <v>2.75</v>
@@ -6769,10 +6781,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ26">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR26">
         <v>3.13</v>
@@ -7103,7 +7115,7 @@
         <v>107</v>
       </c>
       <c r="P28" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q28">
         <v>2.6</v>
@@ -7390,7 +7402,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ29">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR29">
         <v>1.38</v>
@@ -7799,7 +7811,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ31">
         <v>0.88</v>
@@ -7927,7 +7939,7 @@
         <v>111</v>
       </c>
       <c r="P32" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q32">
         <v>3.4</v>
@@ -8133,7 +8145,7 @@
         <v>112</v>
       </c>
       <c r="P33" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q33">
         <v>5.5</v>
@@ -8214,7 +8226,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ33">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.27</v>
@@ -8339,7 +8351,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q34">
         <v>3.1</v>
@@ -8417,7 +8429,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ34">
         <v>1.78</v>
@@ -8545,7 +8557,7 @@
         <v>113</v>
       </c>
       <c r="P35" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8751,7 +8763,7 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8832,7 +8844,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ36">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR36">
         <v>1.6</v>
@@ -9369,7 +9381,7 @@
         <v>116</v>
       </c>
       <c r="P39" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q39">
         <v>3.1</v>
@@ -9575,7 +9587,7 @@
         <v>117</v>
       </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q40">
         <v>5.5</v>
@@ -9859,7 +9871,7 @@
         <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ41">
         <v>0.75</v>
@@ -10193,7 +10205,7 @@
         <v>119</v>
       </c>
       <c r="P43" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -10271,7 +10283,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ43">
         <v>0.76</v>
@@ -10399,7 +10411,7 @@
         <v>120</v>
       </c>
       <c r="P44" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q44">
         <v>2.6</v>
@@ -10477,10 +10489,10 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ44">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR44">
         <v>1.54</v>
@@ -10605,7 +10617,7 @@
         <v>89</v>
       </c>
       <c r="P45" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q45">
         <v>6.5</v>
@@ -10686,7 +10698,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ45">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR45">
         <v>1.3</v>
@@ -11301,7 +11313,7 @@
         <v>0.33</v>
       </c>
       <c r="AP48">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ48">
         <v>0.88</v>
@@ -11507,7 +11519,7 @@
         <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ49">
         <v>0.75</v>
@@ -11635,7 +11647,7 @@
         <v>124</v>
       </c>
       <c r="P50" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -12125,7 +12137,7 @@
         <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ52">
         <v>0.63</v>
@@ -12253,7 +12265,7 @@
         <v>89</v>
       </c>
       <c r="P53" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q53">
         <v>5.5</v>
@@ -12871,7 +12883,7 @@
         <v>89</v>
       </c>
       <c r="P56" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q56">
         <v>2.6</v>
@@ -13077,7 +13089,7 @@
         <v>128</v>
       </c>
       <c r="P57" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -13283,7 +13295,7 @@
         <v>129</v>
       </c>
       <c r="P58" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q58">
         <v>2.5</v>
@@ -13570,7 +13582,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ59">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR59">
         <v>1.24</v>
@@ -13773,7 +13785,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ60">
         <v>0.63</v>
@@ -13979,7 +13991,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ61">
         <v>0.59</v>
@@ -14185,10 +14197,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ62">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR62">
         <v>2.31</v>
@@ -14313,7 +14325,7 @@
         <v>89</v>
       </c>
       <c r="P63" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q63">
         <v>5.5</v>
@@ -14394,7 +14406,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ63">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR63">
         <v>1.33</v>
@@ -14519,7 +14531,7 @@
         <v>133</v>
       </c>
       <c r="P64" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q64">
         <v>6.5</v>
@@ -14931,7 +14943,7 @@
         <v>89</v>
       </c>
       <c r="P66" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q66">
         <v>3.4</v>
@@ -15137,7 +15149,7 @@
         <v>135</v>
       </c>
       <c r="P67" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q67">
         <v>2.63</v>
@@ -15343,7 +15355,7 @@
         <v>136</v>
       </c>
       <c r="P68" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15424,7 +15436,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ68">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>1.91</v>
@@ -15549,7 +15561,7 @@
         <v>137</v>
       </c>
       <c r="P69" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q69">
         <v>2.1</v>
@@ -15627,7 +15639,7 @@
         <v>0.17</v>
       </c>
       <c r="AP69">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ69">
         <v>0.75</v>
@@ -15961,7 +15973,7 @@
         <v>139</v>
       </c>
       <c r="P71" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -16167,7 +16179,7 @@
         <v>140</v>
       </c>
       <c r="P72" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q72">
         <v>2.6</v>
@@ -16373,7 +16385,7 @@
         <v>89</v>
       </c>
       <c r="P73" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q73">
         <v>4.75</v>
@@ -16579,7 +16591,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q74">
         <v>1.62</v>
@@ -16863,10 +16875,10 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ75">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR75">
         <v>2.12</v>
@@ -16991,7 +17003,7 @@
         <v>89</v>
       </c>
       <c r="P76" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q76">
         <v>6.5</v>
@@ -17072,7 +17084,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ76">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR76">
         <v>1.28</v>
@@ -17403,7 +17415,7 @@
         <v>143</v>
       </c>
       <c r="P78" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q78">
         <v>2.3</v>
@@ -17609,7 +17621,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q79">
         <v>1.5</v>
@@ -18021,7 +18033,7 @@
         <v>146</v>
       </c>
       <c r="P81" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18433,7 +18445,7 @@
         <v>147</v>
       </c>
       <c r="P83" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q83">
         <v>3</v>
@@ -18717,7 +18729,7 @@
         <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ84">
         <v>1.94</v>
@@ -19463,7 +19475,7 @@
         <v>151</v>
       </c>
       <c r="P88" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q88">
         <v>11</v>
@@ -19544,7 +19556,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ88">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR88">
         <v>1.32</v>
@@ -19669,7 +19681,7 @@
         <v>133</v>
       </c>
       <c r="P89" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q89">
         <v>2.63</v>
@@ -19953,7 +19965,7 @@
         <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ90">
         <v>0.5</v>
@@ -20162,7 +20174,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ91">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR91">
         <v>1.81</v>
@@ -20365,7 +20377,7 @@
         <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20493,7 +20505,7 @@
         <v>154</v>
       </c>
       <c r="P93" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q93">
         <v>3.2</v>
@@ -20777,7 +20789,7 @@
         <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ94">
         <v>0.5</v>
@@ -20905,7 +20917,7 @@
         <v>155</v>
       </c>
       <c r="P95" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q95">
         <v>5.5</v>
@@ -20986,7 +20998,7 @@
         <v>1.12</v>
       </c>
       <c r="AQ95">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR95">
         <v>1.17</v>
@@ -21111,7 +21123,7 @@
         <v>156</v>
       </c>
       <c r="P96" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -21317,7 +21329,7 @@
         <v>157</v>
       </c>
       <c r="P97" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -21523,7 +21535,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q98">
         <v>8.5</v>
@@ -21810,7 +21822,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ99">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR99">
         <v>1.43</v>
@@ -21935,7 +21947,7 @@
         <v>159</v>
       </c>
       <c r="P100" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q100">
         <v>2.05</v>
@@ -22013,10 +22025,10 @@
         <v>0.71</v>
       </c>
       <c r="AP100">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ100">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR100">
         <v>1.78</v>
@@ -22141,7 +22153,7 @@
         <v>89</v>
       </c>
       <c r="P101" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q101">
         <v>8</v>
@@ -22553,7 +22565,7 @@
         <v>160</v>
       </c>
       <c r="P103" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q103">
         <v>9</v>
@@ -22759,7 +22771,7 @@
         <v>89</v>
       </c>
       <c r="P104" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q104">
         <v>2.75</v>
@@ -22965,7 +22977,7 @@
         <v>89</v>
       </c>
       <c r="P105" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -23046,7 +23058,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ105">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR105">
         <v>1.39</v>
@@ -23252,7 +23264,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ106">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR106">
         <v>1.18</v>
@@ -23377,7 +23389,7 @@
         <v>161</v>
       </c>
       <c r="P107" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q107">
         <v>4</v>
@@ -23664,7 +23676,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ108">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR108">
         <v>1.21</v>
@@ -23867,7 +23879,7 @@
         <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -24279,7 +24291,7 @@
         <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ111">
         <v>0.59</v>
@@ -24407,7 +24419,7 @@
         <v>166</v>
       </c>
       <c r="P112" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q112">
         <v>3</v>
@@ -24819,7 +24831,7 @@
         <v>126</v>
       </c>
       <c r="P114" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q114">
         <v>3.1</v>
@@ -25025,7 +25037,7 @@
         <v>134</v>
       </c>
       <c r="P115" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q115">
         <v>2.75</v>
@@ -25231,7 +25243,7 @@
         <v>168</v>
       </c>
       <c r="P116" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q116">
         <v>1.57</v>
@@ -25309,7 +25321,7 @@
         <v>0.25</v>
       </c>
       <c r="AP116">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ116">
         <v>0.88</v>
@@ -25643,7 +25655,7 @@
         <v>170</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>4.5</v>
@@ -25721,10 +25733,10 @@
         <v>1.86</v>
       </c>
       <c r="AP118">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ118">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR118">
         <v>1.89</v>
@@ -25849,7 +25861,7 @@
         <v>171</v>
       </c>
       <c r="P119" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q119">
         <v>3.1</v>
@@ -26136,7 +26148,7 @@
         <v>1.59</v>
       </c>
       <c r="AQ120">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR120">
         <v>1.37</v>
@@ -26261,7 +26273,7 @@
         <v>172</v>
       </c>
       <c r="P121" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26467,7 +26479,7 @@
         <v>89</v>
       </c>
       <c r="P122" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26673,7 +26685,7 @@
         <v>89</v>
       </c>
       <c r="P123" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q123">
         <v>3.5</v>
@@ -26879,7 +26891,7 @@
         <v>173</v>
       </c>
       <c r="P124" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q124">
         <v>8.5</v>
@@ -26960,7 +26972,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ124">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR124">
         <v>1.32</v>
@@ -27291,7 +27303,7 @@
         <v>175</v>
       </c>
       <c r="P126" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q126">
         <v>2.63</v>
@@ -27369,7 +27381,7 @@
         <v>2.33</v>
       </c>
       <c r="AP126">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ126">
         <v>1.94</v>
@@ -27909,7 +27921,7 @@
         <v>89</v>
       </c>
       <c r="P129" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q129">
         <v>2.88</v>
@@ -28321,7 +28333,7 @@
         <v>179</v>
       </c>
       <c r="P131" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q131">
         <v>6</v>
@@ -28402,7 +28414,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ131">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR131">
         <v>1.19</v>
@@ -28527,7 +28539,7 @@
         <v>89</v>
       </c>
       <c r="P132" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q132">
         <v>7</v>
@@ -28811,7 +28823,7 @@
         <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ133">
         <v>1.19</v>
@@ -28939,7 +28951,7 @@
         <v>174</v>
       </c>
       <c r="P134" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29017,10 +29029,10 @@
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ134">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR134">
         <v>1.81</v>
@@ -29145,7 +29157,7 @@
         <v>181</v>
       </c>
       <c r="P135" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q135">
         <v>2.88</v>
@@ -29226,7 +29238,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ135">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR135">
         <v>1.53</v>
@@ -29351,7 +29363,7 @@
         <v>182</v>
       </c>
       <c r="P136" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q136">
         <v>2.88</v>
@@ -29841,7 +29853,7 @@
         <v>0.44</v>
       </c>
       <c r="AP138">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ138">
         <v>0.5</v>
@@ -30175,7 +30187,7 @@
         <v>185</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>1.62</v>
@@ -30381,7 +30393,7 @@
         <v>186</v>
       </c>
       <c r="P141" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -30587,7 +30599,7 @@
         <v>187</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>3</v>
@@ -30793,7 +30805,7 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q143">
         <v>4</v>
@@ -30999,7 +31011,7 @@
         <v>156</v>
       </c>
       <c r="P144" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q144">
         <v>2.38</v>
@@ -31205,7 +31217,7 @@
         <v>188</v>
       </c>
       <c r="P145" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q145">
         <v>3.2</v>
@@ -31286,7 +31298,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AQ145">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR145">
         <v>1.16</v>
@@ -31411,7 +31423,7 @@
         <v>189</v>
       </c>
       <c r="P146" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q146">
         <v>1.62</v>
@@ -31489,7 +31501,7 @@
         <v>1.44</v>
       </c>
       <c r="AP146">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ146">
         <v>1.19</v>
@@ -31617,7 +31629,7 @@
         <v>89</v>
       </c>
       <c r="P147" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q147">
         <v>6</v>
@@ -31698,7 +31710,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ147">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR147">
         <v>1.12</v>
@@ -31901,10 +31913,10 @@
         <v>2.1</v>
       </c>
       <c r="AP148">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ148">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR148">
         <v>1.85</v>
@@ -32853,7 +32865,7 @@
         <v>89</v>
       </c>
       <c r="P153" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q153">
         <v>7.5</v>
@@ -33059,7 +33071,7 @@
         <v>193</v>
       </c>
       <c r="P154" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q154">
         <v>3.2</v>
@@ -33471,7 +33483,7 @@
         <v>89</v>
       </c>
       <c r="P156" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q156">
         <v>3.75</v>
@@ -33677,7 +33689,7 @@
         <v>195</v>
       </c>
       <c r="P157" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q157">
         <v>1.73</v>
@@ -33755,10 +33767,10 @@
         <v>1.18</v>
       </c>
       <c r="AP157">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ157">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR157">
         <v>1.83</v>
@@ -33883,7 +33895,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -34167,7 +34179,7 @@
         <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ159">
         <v>0.76</v>
@@ -34295,7 +34307,7 @@
         <v>137</v>
       </c>
       <c r="P160" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q160">
         <v>2.63</v>
@@ -34376,7 +34388,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ160">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR160">
         <v>1.87</v>
@@ -34707,7 +34719,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q162">
         <v>2.6</v>
@@ -34913,7 +34925,7 @@
         <v>133</v>
       </c>
       <c r="P163" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q163">
         <v>7</v>
@@ -35325,7 +35337,7 @@
         <v>200</v>
       </c>
       <c r="P165" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q165">
         <v>3.1</v>
@@ -35531,7 +35543,7 @@
         <v>201</v>
       </c>
       <c r="P166" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q166">
         <v>7</v>
@@ -35612,7 +35624,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ166">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR166">
         <v>1.5</v>
@@ -35737,7 +35749,7 @@
         <v>202</v>
       </c>
       <c r="P167" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q167">
         <v>1.73</v>
@@ -36021,7 +36033,7 @@
         <v>0.73</v>
       </c>
       <c r="AP168">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ168">
         <v>0.88</v>
@@ -36149,7 +36161,7 @@
         <v>204</v>
       </c>
       <c r="P169" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q169">
         <v>1.62</v>
@@ -36227,7 +36239,7 @@
         <v>0.45</v>
       </c>
       <c r="AP169">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ169">
         <v>0.76</v>
@@ -36355,7 +36367,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q170">
         <v>2.5</v>
@@ -36561,7 +36573,7 @@
         <v>206</v>
       </c>
       <c r="P171" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q171">
         <v>3.4</v>
@@ -36767,7 +36779,7 @@
         <v>207</v>
       </c>
       <c r="P172" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q172">
         <v>3.1</v>
@@ -36848,7 +36860,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ172">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR172">
         <v>1.06</v>
@@ -36973,7 +36985,7 @@
         <v>107</v>
       </c>
       <c r="P173" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q173">
         <v>7</v>
@@ -37054,7 +37066,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ173">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR173">
         <v>1.46</v>
@@ -37179,7 +37191,7 @@
         <v>208</v>
       </c>
       <c r="P174" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q174">
         <v>1.53</v>
@@ -37257,7 +37269,7 @@
         <v>0.58</v>
       </c>
       <c r="AP174">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ174">
         <v>0.59</v>
@@ -37385,7 +37397,7 @@
         <v>89</v>
       </c>
       <c r="P175" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q175">
         <v>1.72</v>
@@ -37466,7 +37478,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ175">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR175">
         <v>1.28</v>
@@ -37669,7 +37681,7 @@
         <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ176">
         <v>1.33</v>
@@ -37797,7 +37809,7 @@
         <v>210</v>
       </c>
       <c r="P177" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q177">
         <v>3</v>
@@ -38209,7 +38221,7 @@
         <v>211</v>
       </c>
       <c r="P179" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q179">
         <v>6</v>
@@ -38415,7 +38427,7 @@
         <v>89</v>
       </c>
       <c r="P180" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q180">
         <v>6.5</v>
@@ -38496,7 +38508,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ180">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR180">
         <v>1.23</v>
@@ -38621,7 +38633,7 @@
         <v>212</v>
       </c>
       <c r="P181" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q181">
         <v>2.95</v>
@@ -38827,7 +38839,7 @@
         <v>213</v>
       </c>
       <c r="P182" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q182">
         <v>6</v>
@@ -38905,7 +38917,7 @@
         <v>2.08</v>
       </c>
       <c r="AP182">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ182">
         <v>1.78</v>
@@ -39239,7 +39251,7 @@
         <v>89</v>
       </c>
       <c r="P184" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q184">
         <v>8.5</v>
@@ -39445,7 +39457,7 @@
         <v>119</v>
       </c>
       <c r="P185" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q185">
         <v>2.6</v>
@@ -39651,7 +39663,7 @@
         <v>89</v>
       </c>
       <c r="P186" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q186">
         <v>2.1</v>
@@ -39857,7 +39869,7 @@
         <v>89</v>
       </c>
       <c r="P187" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q187">
         <v>2.5</v>
@@ -40269,7 +40281,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q189">
         <v>2.75</v>
@@ -41093,7 +41105,7 @@
         <v>112</v>
       </c>
       <c r="P193" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q193">
         <v>2.75</v>
@@ -41505,7 +41517,7 @@
         <v>219</v>
       </c>
       <c r="P195" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q195">
         <v>2.75</v>
@@ -41583,10 +41595,10 @@
         <v>2.15</v>
       </c>
       <c r="AP195">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ195">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR195">
         <v>1.87</v>
@@ -41789,10 +41801,10 @@
         <v>2.08</v>
       </c>
       <c r="AP196">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ196">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR196">
         <v>2.06</v>
@@ -41995,10 +42007,10 @@
         <v>1.08</v>
       </c>
       <c r="AP197">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ197">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR197">
         <v>1.7</v>
@@ -42410,7 +42422,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ199">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR199">
         <v>1.8</v>
@@ -42613,7 +42625,7 @@
         <v>2.07</v>
       </c>
       <c r="AP200">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ200">
         <v>1.78</v>
@@ -42741,7 +42753,7 @@
         <v>140</v>
       </c>
       <c r="P201" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q201">
         <v>2.63</v>
@@ -42947,7 +42959,7 @@
         <v>89</v>
       </c>
       <c r="P202" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q202">
         <v>2.88</v>
@@ -43565,7 +43577,7 @@
         <v>146</v>
       </c>
       <c r="P205" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q205">
         <v>11</v>
@@ -43646,7 +43658,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ205">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR205">
         <v>1.12</v>
@@ -43771,7 +43783,7 @@
         <v>89</v>
       </c>
       <c r="P206" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q206">
         <v>4.5</v>
@@ -43849,7 +43861,7 @@
         <v>2.07</v>
       </c>
       <c r="AP206">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ206">
         <v>1.94</v>
@@ -43977,7 +43989,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44055,10 +44067,10 @@
         <v>2.21</v>
       </c>
       <c r="AP207">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ207">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR207">
         <v>2.02</v>
@@ -44183,7 +44195,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q208">
         <v>2.88</v>
@@ -44389,7 +44401,7 @@
         <v>125</v>
       </c>
       <c r="P209" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q209">
         <v>2.58</v>
@@ -44595,7 +44607,7 @@
         <v>89</v>
       </c>
       <c r="P210" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q210">
         <v>2.99</v>
@@ -44801,7 +44813,7 @@
         <v>89</v>
       </c>
       <c r="P211" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q211">
         <v>2.88</v>
@@ -45007,7 +45019,7 @@
         <v>229</v>
       </c>
       <c r="P212" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q212">
         <v>1.53</v>
@@ -45085,10 +45097,10 @@
         <v>0.93</v>
       </c>
       <c r="AP212">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ212">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR212">
         <v>1.85</v>
@@ -45291,7 +45303,7 @@
         <v>1.2</v>
       </c>
       <c r="AP213">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ213">
         <v>1.33</v>
@@ -45625,7 +45637,7 @@
         <v>89</v>
       </c>
       <c r="P215" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q215">
         <v>3.15</v>
@@ -45831,7 +45843,7 @@
         <v>232</v>
       </c>
       <c r="P216" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q216">
         <v>3.08</v>
@@ -46243,7 +46255,7 @@
         <v>89</v>
       </c>
       <c r="P218" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q218">
         <v>10</v>
@@ -46449,7 +46461,7 @@
         <v>106</v>
       </c>
       <c r="P219" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q219">
         <v>6</v>
@@ -46527,7 +46539,7 @@
         <v>1.93</v>
       </c>
       <c r="AP219">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ219">
         <v>1.78</v>
@@ -46655,7 +46667,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q220">
         <v>2.4</v>
@@ -46736,7 +46748,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ220">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR220">
         <v>2.02</v>
@@ -46861,7 +46873,7 @@
         <v>235</v>
       </c>
       <c r="P221" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q221">
         <v>11</v>
@@ -46942,7 +46954,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ221">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR221">
         <v>1.12</v>
@@ -47145,10 +47157,10 @@
         <v>2</v>
       </c>
       <c r="AP222">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AQ222">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR222">
         <v>1.69</v>
@@ -47351,7 +47363,7 @@
         <v>2.19</v>
       </c>
       <c r="AP223">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ223">
         <v>1.94</v>
@@ -47685,7 +47697,7 @@
         <v>239</v>
       </c>
       <c r="P225" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q225">
         <v>1.79</v>
@@ -48384,7 +48396,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ228">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AR228">
         <v>1.97</v>
@@ -48509,7 +48521,7 @@
         <v>243</v>
       </c>
       <c r="P229" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q229">
         <v>3.15</v>
@@ -48715,7 +48727,7 @@
         <v>89</v>
       </c>
       <c r="P230" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q230">
         <v>1.75</v>
@@ -48793,7 +48805,7 @@
         <v>1.13</v>
       </c>
       <c r="AP230">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="AQ230">
         <v>1.33</v>
@@ -48921,7 +48933,7 @@
         <v>89</v>
       </c>
       <c r="P231" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q231">
         <v>3.1</v>
@@ -49127,7 +49139,7 @@
         <v>244</v>
       </c>
       <c r="P232" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q232">
         <v>2.75</v>
@@ -49826,7 +49838,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ235">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="AR235">
         <v>1.77</v>
@@ -49951,7 +49963,7 @@
         <v>248</v>
       </c>
       <c r="P236" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q236">
         <v>4.33</v>
@@ -50520,6 +50532,624 @@
       </c>
       <c r="BP238">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:68">
+      <c r="A239" s="1">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>7378786</v>
+      </c>
+      <c r="C239" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45431.58333333334</v>
+      </c>
+      <c r="F239">
+        <v>10</v>
+      </c>
+      <c r="G239" t="s">
+        <v>82</v>
+      </c>
+      <c r="H239" t="s">
+        <v>73</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>1</v>
+      </c>
+      <c r="L239">
+        <v>1</v>
+      </c>
+      <c r="M239">
+        <v>2</v>
+      </c>
+      <c r="N239">
+        <v>3</v>
+      </c>
+      <c r="O239" t="s">
+        <v>196</v>
+      </c>
+      <c r="P239" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q239">
+        <v>5.1</v>
+      </c>
+      <c r="R239">
+        <v>2.3</v>
+      </c>
+      <c r="S239">
+        <v>2.16</v>
+      </c>
+      <c r="T239">
+        <v>1.34</v>
+      </c>
+      <c r="U239">
+        <v>3.1</v>
+      </c>
+      <c r="V239">
+        <v>2.58</v>
+      </c>
+      <c r="W239">
+        <v>1.47</v>
+      </c>
+      <c r="X239">
+        <v>6.2</v>
+      </c>
+      <c r="Y239">
+        <v>1.1</v>
+      </c>
+      <c r="Z239">
+        <v>1.5</v>
+      </c>
+      <c r="AA239">
+        <v>3</v>
+      </c>
+      <c r="AB239">
+        <v>1.5</v>
+      </c>
+      <c r="AC239">
+        <v>1.02</v>
+      </c>
+      <c r="AD239">
+        <v>10.5</v>
+      </c>
+      <c r="AE239">
+        <v>1.21</v>
+      </c>
+      <c r="AF239">
+        <v>3.75</v>
+      </c>
+      <c r="AG239">
+        <v>1.77</v>
+      </c>
+      <c r="AH239">
+        <v>2.06</v>
+      </c>
+      <c r="AI239">
+        <v>1.78</v>
+      </c>
+      <c r="AJ239">
+        <v>1.97</v>
+      </c>
+      <c r="AK239">
+        <v>2.27</v>
+      </c>
+      <c r="AL239">
+        <v>1.24</v>
+      </c>
+      <c r="AM239">
+        <v>1.17</v>
+      </c>
+      <c r="AN239">
+        <v>1.82</v>
+      </c>
+      <c r="AO239">
+        <v>1.94</v>
+      </c>
+      <c r="AP239">
+        <v>1.72</v>
+      </c>
+      <c r="AQ239">
+        <v>2</v>
+      </c>
+      <c r="AR239">
+        <v>1.68</v>
+      </c>
+      <c r="AS239">
+        <v>1.51</v>
+      </c>
+      <c r="AT239">
+        <v>3.19</v>
+      </c>
+      <c r="AU239">
+        <v>4</v>
+      </c>
+      <c r="AV239">
+        <v>3</v>
+      </c>
+      <c r="AW239">
+        <v>13</v>
+      </c>
+      <c r="AX239">
+        <v>3</v>
+      </c>
+      <c r="AY239">
+        <v>17</v>
+      </c>
+      <c r="AZ239">
+        <v>6</v>
+      </c>
+      <c r="BA239">
+        <v>1</v>
+      </c>
+      <c r="BB239">
+        <v>2</v>
+      </c>
+      <c r="BC239">
+        <v>3</v>
+      </c>
+      <c r="BD239">
+        <v>2.92</v>
+      </c>
+      <c r="BE239">
+        <v>8</v>
+      </c>
+      <c r="BF239">
+        <v>1.55</v>
+      </c>
+      <c r="BG239">
+        <v>1.4</v>
+      </c>
+      <c r="BH239">
+        <v>2.72</v>
+      </c>
+      <c r="BI239">
+        <v>1.74</v>
+      </c>
+      <c r="BJ239">
+        <v>2.02</v>
+      </c>
+      <c r="BK239">
+        <v>2.21</v>
+      </c>
+      <c r="BL239">
+        <v>1.59</v>
+      </c>
+      <c r="BM239">
+        <v>2.98</v>
+      </c>
+      <c r="BN239">
+        <v>1.32</v>
+      </c>
+      <c r="BO239">
+        <v>4.25</v>
+      </c>
+      <c r="BP239">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:68">
+      <c r="A240" s="1">
+        <v>239</v>
+      </c>
+      <c r="B240">
+        <v>7378785</v>
+      </c>
+      <c r="C240" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" t="s">
+        <v>69</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45431.58333333334</v>
+      </c>
+      <c r="F240">
+        <v>10</v>
+      </c>
+      <c r="G240" t="s">
+        <v>78</v>
+      </c>
+      <c r="H240" t="s">
+        <v>79</v>
+      </c>
+      <c r="I240">
+        <v>2</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+      <c r="K240">
+        <v>2</v>
+      </c>
+      <c r="L240">
+        <v>3</v>
+      </c>
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>3</v>
+      </c>
+      <c r="O240" t="s">
+        <v>251</v>
+      </c>
+      <c r="P240" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q240">
+        <v>1.32</v>
+      </c>
+      <c r="R240">
+        <v>3.78</v>
+      </c>
+      <c r="S240">
+        <v>14</v>
+      </c>
+      <c r="T240">
+        <v>1.15</v>
+      </c>
+      <c r="U240">
+        <v>5.05</v>
+      </c>
+      <c r="V240">
+        <v>1.79</v>
+      </c>
+      <c r="W240">
+        <v>1.96</v>
+      </c>
+      <c r="X240">
+        <v>3.42</v>
+      </c>
+      <c r="Y240">
+        <v>1.29</v>
+      </c>
+      <c r="Z240">
+        <v>1.03</v>
+      </c>
+      <c r="AA240">
+        <v>11</v>
+      </c>
+      <c r="AB240">
+        <v>29</v>
+      </c>
+      <c r="AC240">
+        <v>1.01</v>
+      </c>
+      <c r="AD240">
+        <v>45</v>
+      </c>
+      <c r="AE240">
+        <v>1.04</v>
+      </c>
+      <c r="AF240">
+        <v>7.8</v>
+      </c>
+      <c r="AG240">
+        <v>1.25</v>
+      </c>
+      <c r="AH240">
+        <v>3.56</v>
+      </c>
+      <c r="AI240">
+        <v>2.31</v>
+      </c>
+      <c r="AJ240">
+        <v>1.57</v>
+      </c>
+      <c r="AK240">
+        <v>1.01</v>
+      </c>
+      <c r="AL240">
+        <v>1.03</v>
+      </c>
+      <c r="AM240">
+        <v>8.6</v>
+      </c>
+      <c r="AN240">
+        <v>2.53</v>
+      </c>
+      <c r="AO240">
+        <v>0.82</v>
+      </c>
+      <c r="AP240">
+        <v>2.56</v>
+      </c>
+      <c r="AQ240">
+        <v>0.78</v>
+      </c>
+      <c r="AR240">
+        <v>1.95</v>
+      </c>
+      <c r="AS240">
+        <v>1.05</v>
+      </c>
+      <c r="AT240">
+        <v>3</v>
+      </c>
+      <c r="AU240">
+        <v>8</v>
+      </c>
+      <c r="AV240">
+        <v>2</v>
+      </c>
+      <c r="AW240">
+        <v>16</v>
+      </c>
+      <c r="AX240">
+        <v>3</v>
+      </c>
+      <c r="AY240">
+        <v>24</v>
+      </c>
+      <c r="AZ240">
+        <v>5</v>
+      </c>
+      <c r="BA240">
+        <v>9</v>
+      </c>
+      <c r="BB240">
+        <v>5</v>
+      </c>
+      <c r="BC240">
+        <v>14</v>
+      </c>
+      <c r="BD240">
+        <v>1.02</v>
+      </c>
+      <c r="BE240">
+        <v>17</v>
+      </c>
+      <c r="BF240">
+        <v>19.5</v>
+      </c>
+      <c r="BG240">
+        <v>1.27</v>
+      </c>
+      <c r="BH240">
+        <v>3.28</v>
+      </c>
+      <c r="BI240">
+        <v>1.51</v>
+      </c>
+      <c r="BJ240">
+        <v>2.39</v>
+      </c>
+      <c r="BK240">
+        <v>1.88</v>
+      </c>
+      <c r="BL240">
+        <v>1.86</v>
+      </c>
+      <c r="BM240">
+        <v>2.41</v>
+      </c>
+      <c r="BN240">
+        <v>1.5</v>
+      </c>
+      <c r="BO240">
+        <v>3.2</v>
+      </c>
+      <c r="BP240">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="241" spans="1:68">
+      <c r="A241" s="1">
+        <v>240</v>
+      </c>
+      <c r="B241">
+        <v>7378787</v>
+      </c>
+      <c r="C241" t="s">
+        <v>68</v>
+      </c>
+      <c r="D241" t="s">
+        <v>69</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45431.58333333334</v>
+      </c>
+      <c r="F241">
+        <v>10</v>
+      </c>
+      <c r="G241" t="s">
+        <v>77</v>
+      </c>
+      <c r="H241" t="s">
+        <v>74</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+      <c r="K241">
+        <v>1</v>
+      </c>
+      <c r="L241">
+        <v>2</v>
+      </c>
+      <c r="M241">
+        <v>2</v>
+      </c>
+      <c r="N241">
+        <v>4</v>
+      </c>
+      <c r="O241" t="s">
+        <v>252</v>
+      </c>
+      <c r="P241" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q241">
+        <v>2.92</v>
+      </c>
+      <c r="R241">
+        <v>2.17</v>
+      </c>
+      <c r="S241">
+        <v>3.45</v>
+      </c>
+      <c r="T241">
+        <v>1.37</v>
+      </c>
+      <c r="U241">
+        <v>2.95</v>
+      </c>
+      <c r="V241">
+        <v>2.71</v>
+      </c>
+      <c r="W241">
+        <v>1.43</v>
+      </c>
+      <c r="X241">
+        <v>6.75</v>
+      </c>
+      <c r="Y241">
+        <v>1.09</v>
+      </c>
+      <c r="Z241">
+        <v>2.25</v>
+      </c>
+      <c r="AA241">
+        <v>3.4</v>
+      </c>
+      <c r="AB241">
+        <v>2.75</v>
+      </c>
+      <c r="AC241">
+        <v>1.01</v>
+      </c>
+      <c r="AD241">
+        <v>9.5</v>
+      </c>
+      <c r="AE241">
+        <v>1.25</v>
+      </c>
+      <c r="AF241">
+        <v>3.42</v>
+      </c>
+      <c r="AG241">
+        <v>1.75</v>
+      </c>
+      <c r="AH241">
+        <v>1.85</v>
+      </c>
+      <c r="AI241">
+        <v>1.69</v>
+      </c>
+      <c r="AJ241">
+        <v>2.09</v>
+      </c>
+      <c r="AK241">
+        <v>1.42</v>
+      </c>
+      <c r="AL241">
+        <v>1.31</v>
+      </c>
+      <c r="AM241">
+        <v>1.58</v>
+      </c>
+      <c r="AN241">
+        <v>2.12</v>
+      </c>
+      <c r="AO241">
+        <v>1.82</v>
+      </c>
+      <c r="AP241">
+        <v>2.06</v>
+      </c>
+      <c r="AQ241">
+        <v>1.78</v>
+      </c>
+      <c r="AR241">
+        <v>1.89</v>
+      </c>
+      <c r="AS241">
+        <v>1.61</v>
+      </c>
+      <c r="AT241">
+        <v>3.5</v>
+      </c>
+      <c r="AU241">
+        <v>6</v>
+      </c>
+      <c r="AV241">
+        <v>5</v>
+      </c>
+      <c r="AW241">
+        <v>8</v>
+      </c>
+      <c r="AX241">
+        <v>10</v>
+      </c>
+      <c r="AY241">
+        <v>14</v>
+      </c>
+      <c r="AZ241">
+        <v>15</v>
+      </c>
+      <c r="BA241">
+        <v>8</v>
+      </c>
+      <c r="BB241">
+        <v>2</v>
+      </c>
+      <c r="BC241">
+        <v>10</v>
+      </c>
+      <c r="BD241">
+        <v>1.95</v>
+      </c>
+      <c r="BE241">
+        <v>7.5</v>
+      </c>
+      <c r="BF241">
+        <v>2.1</v>
+      </c>
+      <c r="BG241">
+        <v>1.39</v>
+      </c>
+      <c r="BH241">
+        <v>2.76</v>
+      </c>
+      <c r="BI241">
+        <v>1.72</v>
+      </c>
+      <c r="BJ241">
+        <v>2.05</v>
+      </c>
+      <c r="BK241">
+        <v>2.17</v>
+      </c>
+      <c r="BL241">
+        <v>1.61</v>
+      </c>
+      <c r="BM241">
+        <v>2.93</v>
+      </c>
+      <c r="BN241">
+        <v>1.33</v>
+      </c>
+      <c r="BO241">
+        <v>4.15</v>
+      </c>
+      <c r="BP241">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -50677,19 +50677,19 @@
         <v>4</v>
       </c>
       <c r="AV239">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW239">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AX239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY239">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ239">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BA239">
         <v>1</v>
@@ -50880,22 +50880,22 @@
         <v>3</v>
       </c>
       <c r="AU240">
+        <v>5</v>
+      </c>
+      <c r="AV240">
+        <v>2</v>
+      </c>
+      <c r="AW240">
         <v>8</v>
       </c>
-      <c r="AV240">
-        <v>2</v>
-      </c>
-      <c r="AW240">
-        <v>16</v>
-      </c>
       <c r="AX240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY240">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AZ240">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA240">
         <v>9</v>
@@ -51086,22 +51086,22 @@
         <v>3.5</v>
       </c>
       <c r="AU241">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV241">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW241">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AX241">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AY241">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ241">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BA241">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -50677,19 +50677,19 @@
         <v>4</v>
       </c>
       <c r="AV239">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW239">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AX239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY239">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ239">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BA239">
         <v>1</v>
@@ -50880,22 +50880,22 @@
         <v>3</v>
       </c>
       <c r="AU240">
+        <v>8</v>
+      </c>
+      <c r="AV240">
+        <v>2</v>
+      </c>
+      <c r="AW240">
+        <v>16</v>
+      </c>
+      <c r="AX240">
+        <v>3</v>
+      </c>
+      <c r="AY240">
+        <v>24</v>
+      </c>
+      <c r="AZ240">
         <v>5</v>
-      </c>
-      <c r="AV240">
-        <v>2</v>
-      </c>
-      <c r="AW240">
-        <v>8</v>
-      </c>
-      <c r="AX240">
-        <v>2</v>
-      </c>
-      <c r="AY240">
-        <v>13</v>
-      </c>
-      <c r="AZ240">
-        <v>4</v>
       </c>
       <c r="BA240">
         <v>9</v>
@@ -51086,22 +51086,22 @@
         <v>3.5</v>
       </c>
       <c r="AU241">
+        <v>6</v>
+      </c>
+      <c r="AV241">
         <v>5</v>
       </c>
-      <c r="AV241">
-        <v>3</v>
-      </c>
       <c r="AW241">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX241">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AY241">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ241">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BA241">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -39323,25 +39323,25 @@
         <v>1.06</v>
       </c>
       <c r="AN184">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AO184">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP184">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ184">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR184">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AS184">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="AT184">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39529,25 +39529,25 @@
         <v>1.82</v>
       </c>
       <c r="AN185">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="AO185">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AP185">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ185">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR185">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AS185">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="AT185">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39735,25 +39735,25 @@
         <v>2.68</v>
       </c>
       <c r="AN186">
-        <v>2.46</v>
+        <v>2.31</v>
       </c>
       <c r="AO186">
-        <v>1.15</v>
+        <v>1.62</v>
       </c>
       <c r="AP186">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ186">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR186">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AS186">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AT186">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -41589,25 +41589,25 @@
         <v>1.78</v>
       </c>
       <c r="AN195">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="AO195">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="AP195">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ195">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR195">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="AS195">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AT195">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="AU195">
         <v>8</v>
@@ -41795,25 +41795,25 @@
         <v>1.9</v>
       </c>
       <c r="AN196">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="AO196">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="AP196">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ196">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR196">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="AS196">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AT196">
-        <v>3.61</v>
+        <v>3.73</v>
       </c>
       <c r="AU196">
         <v>6</v>
@@ -42001,25 +42001,25 @@
         <v>2.7</v>
       </c>
       <c r="AN197">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="AO197">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AP197">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ197">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR197">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="AS197">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AT197">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="AU197">
         <v>10</v>
@@ -42207,25 +42207,25 @@
         <v>3</v>
       </c>
       <c r="AN198">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="AO198">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="AP198">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ198">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR198">
-        <v>2.03</v>
+        <v>1.79</v>
       </c>
       <c r="AS198">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="AT198">
-        <v>3.1</v>
+        <v>3.19</v>
       </c>
       <c r="AU198">
         <v>10</v>
@@ -42413,25 +42413,25 @@
         <v>4.33</v>
       </c>
       <c r="AN199">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO199">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AP199">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ199">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR199">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AS199">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AT199">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42619,25 +42619,25 @@
         <v>1.52</v>
       </c>
       <c r="AN200">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="AO200">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="AP200">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ200">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR200">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="AS200">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AT200">
-        <v>3.7</v>
+        <v>3.62</v>
       </c>
       <c r="AU200">
         <v>6</v>
@@ -43649,25 +43649,25 @@
         <v>1.02</v>
       </c>
       <c r="AN205">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AO205">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="AP205">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ205">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR205">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AS205">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="AT205">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="AU205">
         <v>3</v>
@@ -43855,25 +43855,25 @@
         <v>1.28</v>
       </c>
       <c r="AN206">
+        <v>1.66</v>
+      </c>
+      <c r="AO206">
         <v>2.14</v>
       </c>
-      <c r="AO206">
-        <v>2.07</v>
-      </c>
       <c r="AP206">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ206">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR206">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="AS206">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AT206">
-        <v>3.27</v>
+        <v>3.07</v>
       </c>
       <c r="AU206">
         <v>6</v>
@@ -44061,25 +44061,25 @@
         <v>1.92</v>
       </c>
       <c r="AN207">
-        <v>2.57</v>
+        <v>2.24</v>
       </c>
       <c r="AO207">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="AP207">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ207">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR207">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AS207">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AT207">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -45091,25 +45091,25 @@
         <v>5</v>
       </c>
       <c r="AN212">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="AO212">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="AP212">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ212">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR212">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AS212">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AT212">
-        <v>2.91</v>
+        <v>2.76</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45297,25 +45297,25 @@
         <v>4</v>
       </c>
       <c r="AN213">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="AO213">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AP213">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ213">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR213">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS213">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="AT213">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="AU213">
         <v>9</v>
@@ -46327,25 +46327,25 @@
         <v>1.03</v>
       </c>
       <c r="AN218">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AO218">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AP218">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ218">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR218">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AS218">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AT218">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="AU218">
         <v>6</v>
@@ -46533,25 +46533,25 @@
         <v>1.09</v>
       </c>
       <c r="AN219">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AO219">
-        <v>1.93</v>
+        <v>2.23</v>
       </c>
       <c r="AP219">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ219">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR219">
-        <v>1.74</v>
+        <v>1.36</v>
       </c>
       <c r="AS219">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AT219">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46739,25 +46739,25 @@
         <v>1.98</v>
       </c>
       <c r="AN220">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO220">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="AP220">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ220">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR220">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS220">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AT220">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="AU220">
         <v>5</v>
@@ -46945,25 +46945,25 @@
         <v>1.02</v>
       </c>
       <c r="AN221">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AO221">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AP221">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ221">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR221">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AT221">
-        <v>2.62</v>
+        <v>2.73</v>
       </c>
       <c r="AU221">
         <v>3</v>
@@ -47151,25 +47151,25 @@
         <v>1.18</v>
       </c>
       <c r="AN222">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO222">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AP222">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ222">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR222">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="AS222">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="AT222">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47357,25 +47357,25 @@
         <v>1.92</v>
       </c>
       <c r="AN223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO223">
-        <v>2.19</v>
+        <v>2.22</v>
       </c>
       <c r="AP223">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ223">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR223">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AS223">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AT223">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="AU223">
         <v>9</v>
@@ -48387,25 +48387,25 @@
         <v>6</v>
       </c>
       <c r="AN228">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AO228">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AP228">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ228">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR228">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="AS228">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AT228">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="AU228">
         <v>11</v>
@@ -48593,25 +48593,25 @@
         <v>1.5</v>
       </c>
       <c r="AN229">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AO229">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP229">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ229">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR229">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="AS229">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AT229">
-        <v>3.71</v>
+        <v>3.57</v>
       </c>
       <c r="AU229">
         <v>6</v>
@@ -48799,25 +48799,25 @@
         <v>3.4</v>
       </c>
       <c r="AN230">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AO230">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="AP230">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ230">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR230">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AS230">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="AT230">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="AU230">
         <v>7</v>
@@ -49829,25 +49829,25 @@
         <v>1.69</v>
       </c>
       <c r="AN235">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="AO235">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="AP235">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ235">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR235">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AS235">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AT235">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="AU235">
         <v>3</v>
@@ -50035,25 +50035,25 @@
         <v>1.28</v>
       </c>
       <c r="AN236">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="AO236">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AP236">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ236">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR236">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AS236">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="AT236">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="AU236">
         <v>6</v>
@@ -50241,25 +50241,25 @@
         <v>1.72</v>
       </c>
       <c r="AN237">
-        <v>2.41</v>
+        <v>2.18</v>
       </c>
       <c r="AO237">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AP237">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ237">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR237">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AS237">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AT237">
-        <v>3.22</v>
+        <v>3.31</v>
       </c>
       <c r="AU237">
         <v>7</v>
@@ -50447,25 +50447,25 @@
         <v>1.55</v>
       </c>
       <c r="AN238">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AO238">
-        <v>1.88</v>
+        <v>2.21</v>
       </c>
       <c r="AP238">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ238">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR238">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="AS238">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AT238">
-        <v>3.86</v>
+        <v>3.71</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50653,25 +50653,25 @@
         <v>1.17</v>
       </c>
       <c r="AN239">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="AO239">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="AP239">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ239">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR239">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="AS239">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="AT239">
-        <v>3.19</v>
+        <v>2.95</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -50859,25 +50859,25 @@
         <v>8.6</v>
       </c>
       <c r="AN240">
-        <v>2.53</v>
+        <v>2.14</v>
       </c>
       <c r="AO240">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AP240">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ240">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR240">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AS240">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AT240">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AU240">
         <v>8</v>
@@ -51065,25 +51065,25 @@
         <v>1.58</v>
       </c>
       <c r="AN241">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="AO241">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AP241">
+        <v>2</v>
+      </c>
+      <c r="AQ241">
         <v>2.06</v>
       </c>
-      <c r="AQ241">
-        <v>1.78</v>
-      </c>
       <c r="AR241">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="AS241">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AT241">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="AU241">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -39323,25 +39323,25 @@
         <v>1.06</v>
       </c>
       <c r="AN184">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="AO184">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AP184">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ184">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR184">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AS184">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT184">
-        <v>3.06</v>
+        <v>2.97</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39529,25 +39529,25 @@
         <v>1.82</v>
       </c>
       <c r="AN185">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AO185">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AP185">
+        <v>2.33</v>
+      </c>
+      <c r="AQ185">
+        <v>1.94</v>
+      </c>
+      <c r="AR185">
         <v>2.06</v>
       </c>
-      <c r="AQ185">
-        <v>2</v>
-      </c>
-      <c r="AR185">
-        <v>1.81</v>
-      </c>
       <c r="AS185">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AT185">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39735,25 +39735,25 @@
         <v>2.68</v>
       </c>
       <c r="AN186">
-        <v>2.31</v>
+        <v>2.46</v>
       </c>
       <c r="AO186">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="AP186">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ186">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR186">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AS186">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AT186">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -41589,25 +41589,25 @@
         <v>1.78</v>
       </c>
       <c r="AN195">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AO195">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ195">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR195">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AS195">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AT195">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="AU195">
         <v>8</v>
@@ -41795,25 +41795,25 @@
         <v>1.9</v>
       </c>
       <c r="AN196">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="AO196">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="AP196">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ196">
+        <v>1.78</v>
+      </c>
+      <c r="AR196">
         <v>2.06</v>
       </c>
-      <c r="AR196">
-        <v>1.93</v>
-      </c>
       <c r="AS196">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AT196">
-        <v>3.73</v>
+        <v>3.61</v>
       </c>
       <c r="AU196">
         <v>6</v>
@@ -42001,25 +42001,25 @@
         <v>2.7</v>
       </c>
       <c r="AN197">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="AO197">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="AP197">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ197">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR197">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="AS197">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT197">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="AU197">
         <v>10</v>
@@ -42207,25 +42207,25 @@
         <v>3</v>
       </c>
       <c r="AN198">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="AO198">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="AP198">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ198">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR198">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="AS198">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="AT198">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="AU198">
         <v>10</v>
@@ -42413,25 +42413,25 @@
         <v>4.33</v>
       </c>
       <c r="AN199">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AO199">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AP199">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ199">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR199">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AS199">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AT199">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42619,25 +42619,25 @@
         <v>1.52</v>
       </c>
       <c r="AN200">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AO200">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ200">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR200">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="AS200">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="AT200">
-        <v>3.62</v>
+        <v>3.7</v>
       </c>
       <c r="AU200">
         <v>6</v>
@@ -43649,25 +43649,25 @@
         <v>1.02</v>
       </c>
       <c r="AN205">
+        <v>1.43</v>
+      </c>
+      <c r="AO205">
+        <v>1.93</v>
+      </c>
+      <c r="AP205">
         <v>1.17</v>
       </c>
-      <c r="AO205">
-        <v>2.07</v>
-      </c>
-      <c r="AP205">
-        <v>0.97</v>
-      </c>
       <c r="AQ205">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR205">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AS205">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="AT205">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="AU205">
         <v>3</v>
@@ -43855,25 +43855,25 @@
         <v>1.28</v>
       </c>
       <c r="AN206">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="AO206">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AP206">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ206">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR206">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="AS206">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AT206">
-        <v>3.07</v>
+        <v>3.27</v>
       </c>
       <c r="AU206">
         <v>6</v>
@@ -44061,25 +44061,25 @@
         <v>1.92</v>
       </c>
       <c r="AN207">
-        <v>2.24</v>
+        <v>2.57</v>
       </c>
       <c r="AO207">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AP207">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ207">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR207">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AS207">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT207">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -45091,25 +45091,25 @@
         <v>5</v>
       </c>
       <c r="AN212">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="AO212">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AP212">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ212">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR212">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AS212">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AT212">
-        <v>2.76</v>
+        <v>2.91</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45297,25 +45297,25 @@
         <v>4</v>
       </c>
       <c r="AN213">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="AO213">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP213">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ213">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR213">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS213">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="AT213">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="AU213">
         <v>9</v>
@@ -46327,25 +46327,25 @@
         <v>1.03</v>
       </c>
       <c r="AN218">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AO218">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="AP218">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ218">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR218">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AS218">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="AT218">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="AU218">
         <v>6</v>
@@ -46533,25 +46533,25 @@
         <v>1.09</v>
       </c>
       <c r="AN219">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AO219">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="AP219">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ219">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR219">
-        <v>1.36</v>
+        <v>1.74</v>
       </c>
       <c r="AS219">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="AT219">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46739,25 +46739,25 @@
         <v>1.98</v>
       </c>
       <c r="AN220">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO220">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="AP220">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ220">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR220">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AS220">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AT220">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
       <c r="AU220">
         <v>5</v>
@@ -46945,25 +46945,25 @@
         <v>1.02</v>
       </c>
       <c r="AN221">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AO221">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AP221">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ221">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR221">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AS221">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AT221">
-        <v>2.73</v>
+        <v>2.62</v>
       </c>
       <c r="AU221">
         <v>3</v>
@@ -47151,25 +47151,25 @@
         <v>1.18</v>
       </c>
       <c r="AN222">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO222">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AP222">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ222">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR222">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="AS222">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="AT222">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47357,25 +47357,25 @@
         <v>1.92</v>
       </c>
       <c r="AN223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AO223">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="AP223">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ223">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR223">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AS223">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AT223">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU223">
         <v>9</v>
@@ -48387,25 +48387,25 @@
         <v>6</v>
       </c>
       <c r="AN228">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AO228">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AP228">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ228">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR228">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="AS228">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AT228">
-        <v>2.88</v>
+        <v>3.02</v>
       </c>
       <c r="AU228">
         <v>11</v>
@@ -48593,25 +48593,25 @@
         <v>1.5</v>
       </c>
       <c r="AN229">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AO229">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AP229">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ229">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR229">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="AS229">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="AT229">
-        <v>3.57</v>
+        <v>3.71</v>
       </c>
       <c r="AU229">
         <v>6</v>
@@ -48799,25 +48799,25 @@
         <v>3.4</v>
       </c>
       <c r="AN230">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AO230">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="AP230">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ230">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR230">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="AS230">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="AT230">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="AU230">
         <v>7</v>
@@ -49829,25 +49829,25 @@
         <v>1.69</v>
       </c>
       <c r="AN235">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="AO235">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="AP235">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ235">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR235">
+        <v>1.77</v>
+      </c>
+      <c r="AS235">
         <v>1.64</v>
       </c>
-      <c r="AS235">
-        <v>1.82</v>
-      </c>
       <c r="AT235">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="AU235">
         <v>3</v>
@@ -50035,25 +50035,25 @@
         <v>1.28</v>
       </c>
       <c r="AN236">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="AO236">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="AP236">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ236">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR236">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AS236">
-        <v>1.34</v>
+        <v>1</v>
       </c>
       <c r="AT236">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="AU236">
         <v>6</v>
@@ -50241,25 +50241,25 @@
         <v>1.72</v>
       </c>
       <c r="AN237">
-        <v>2.18</v>
+        <v>2.41</v>
       </c>
       <c r="AO237">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AP237">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ237">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR237">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="AS237">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AT237">
-        <v>3.31</v>
+        <v>3.22</v>
       </c>
       <c r="AU237">
         <v>7</v>
@@ -50447,25 +50447,25 @@
         <v>1.55</v>
       </c>
       <c r="AN238">
-        <v>2.06</v>
+        <v>2.29</v>
       </c>
       <c r="AO238">
-        <v>2.21</v>
+        <v>1.88</v>
       </c>
       <c r="AP238">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ238">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR238">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="AS238">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AT238">
-        <v>3.71</v>
+        <v>3.86</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50653,25 +50653,25 @@
         <v>1.17</v>
       </c>
       <c r="AN239">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AO239">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="AP239">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ239">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR239">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="AS239">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="AT239">
-        <v>2.95</v>
+        <v>3.19</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -50859,25 +50859,25 @@
         <v>8.6</v>
       </c>
       <c r="AN240">
-        <v>2.14</v>
+        <v>2.53</v>
       </c>
       <c r="AO240">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AP240">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ240">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR240">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AS240">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AT240">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AU240">
         <v>8</v>
@@ -51065,25 +51065,25 @@
         <v>1.58</v>
       </c>
       <c r="AN241">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="AO241">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AP241">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ241">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR241">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="AS241">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AT241">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="AU241">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -39323,25 +39323,25 @@
         <v>1.06</v>
       </c>
       <c r="AN184">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AO184">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP184">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ184">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR184">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AS184">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="AT184">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39529,25 +39529,25 @@
         <v>1.82</v>
       </c>
       <c r="AN185">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="AO185">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AP185">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ185">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR185">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AS185">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="AT185">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39735,25 +39735,25 @@
         <v>2.68</v>
       </c>
       <c r="AN186">
-        <v>2.46</v>
+        <v>2.31</v>
       </c>
       <c r="AO186">
-        <v>1.15</v>
+        <v>1.62</v>
       </c>
       <c r="AP186">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ186">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR186">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AS186">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AT186">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -39941,25 +39941,25 @@
         <v>1.92</v>
       </c>
       <c r="AN187">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AO187">
-        <v>0.62</v>
+        <v>0.77</v>
       </c>
       <c r="AP187">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ187">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR187">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AS187">
-        <v>0.92</v>
+        <v>1.06</v>
       </c>
       <c r="AT187">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AU187">
         <v>4</v>
@@ -40147,25 +40147,25 @@
         <v>1.52</v>
       </c>
       <c r="AN188">
-        <v>0.92</v>
+        <v>0.73</v>
       </c>
       <c r="AO188">
-        <v>0.38</v>
+        <v>0.96</v>
       </c>
       <c r="AP188">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ188">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR188">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AS188">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="AT188">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="AU188">
         <v>5</v>
@@ -40353,25 +40353,25 @@
         <v>1.78</v>
       </c>
       <c r="AN189">
-        <v>1.38</v>
+        <v>1.08</v>
       </c>
       <c r="AO189">
-        <v>0.54</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP189">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ189">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR189">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AS189">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AT189">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40559,22 +40559,22 @@
         <v>1.68</v>
       </c>
       <c r="AN190">
+        <v>0.77</v>
+      </c>
+      <c r="AO190">
+        <v>1.04</v>
+      </c>
+      <c r="AP190">
+        <v>1.09</v>
+      </c>
+      <c r="AQ190">
         <v>1.15</v>
       </c>
-      <c r="AO190">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="AP190">
-        <v>1.31</v>
-      </c>
-      <c r="AQ190">
-        <v>0.63</v>
-      </c>
       <c r="AR190">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="AS190">
-        <v>1.03</v>
+        <v>1.15</v>
       </c>
       <c r="AT190">
         <v>2.43</v>
@@ -40765,25 +40765,25 @@
         <v>1.6</v>
       </c>
       <c r="AN191">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AO191">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AP191">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ191">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR191">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AS191">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT191">
-        <v>2.41</v>
+        <v>2.37</v>
       </c>
       <c r="AU191">
         <v>4</v>
@@ -40971,22 +40971,22 @@
         <v>1.75</v>
       </c>
       <c r="AN192">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="AO192">
-        <v>0.54</v>
+        <v>0.74</v>
       </c>
       <c r="AP192">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ192">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR192">
-        <v>1.2</v>
+        <v>1.06</v>
       </c>
       <c r="AS192">
-        <v>1.03</v>
+        <v>1.17</v>
       </c>
       <c r="AT192">
         <v>2.23</v>
@@ -41177,25 +41177,25 @@
         <v>1.78</v>
       </c>
       <c r="AN193">
+        <v>0.67</v>
+      </c>
+      <c r="AO193">
         <v>0.85</v>
       </c>
-      <c r="AO193">
-        <v>0.38</v>
-      </c>
       <c r="AP193">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ193">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR193">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="AS193">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AT193">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="AU193">
         <v>5</v>
@@ -41383,25 +41383,25 @@
         <v>1.83</v>
       </c>
       <c r="AN194">
-        <v>1.54</v>
+        <v>0.96</v>
       </c>
       <c r="AO194">
-        <v>0.77</v>
+        <v>1.15</v>
       </c>
       <c r="AP194">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ194">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR194">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AS194">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AT194">
-        <v>2.47</v>
+        <v>2.4</v>
       </c>
       <c r="AU194">
         <v>5</v>
@@ -41589,25 +41589,25 @@
         <v>1.78</v>
       </c>
       <c r="AN195">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="AO195">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="AP195">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ195">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR195">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="AS195">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AT195">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="AU195">
         <v>8</v>
@@ -41795,25 +41795,25 @@
         <v>1.9</v>
       </c>
       <c r="AN196">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="AO196">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="AP196">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ196">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR196">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="AS196">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AT196">
-        <v>3.61</v>
+        <v>3.73</v>
       </c>
       <c r="AU196">
         <v>6</v>
@@ -42001,25 +42001,25 @@
         <v>2.7</v>
       </c>
       <c r="AN197">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="AO197">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AP197">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ197">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR197">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="AS197">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AT197">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="AU197">
         <v>10</v>
@@ -42207,25 +42207,25 @@
         <v>3</v>
       </c>
       <c r="AN198">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="AO198">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="AP198">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ198">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR198">
-        <v>2.03</v>
+        <v>1.79</v>
       </c>
       <c r="AS198">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="AT198">
-        <v>3.1</v>
+        <v>3.19</v>
       </c>
       <c r="AU198">
         <v>10</v>
@@ -42413,25 +42413,25 @@
         <v>4.33</v>
       </c>
       <c r="AN199">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO199">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AP199">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ199">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR199">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AS199">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AT199">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42619,25 +42619,25 @@
         <v>1.52</v>
       </c>
       <c r="AN200">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="AO200">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="AP200">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ200">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR200">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="AS200">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AT200">
-        <v>3.7</v>
+        <v>3.62</v>
       </c>
       <c r="AU200">
         <v>6</v>
@@ -42825,25 +42825,25 @@
         <v>1.83</v>
       </c>
       <c r="AN201">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AO201">
-        <v>0.64</v>
+        <v>1.07</v>
       </c>
       <c r="AP201">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ201">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR201">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AS201">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AT201">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="AU201">
         <v>3</v>
@@ -43031,25 +43031,25 @@
         <v>1.67</v>
       </c>
       <c r="AN202">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AO202">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AP202">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AQ202">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR202">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="AS202">
-        <v>0.93</v>
+        <v>1.08</v>
       </c>
       <c r="AT202">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="AU202">
         <v>3</v>
@@ -43237,22 +43237,22 @@
         <v>1.79</v>
       </c>
       <c r="AN203">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="AO203">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AP203">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ203">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR203">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AS203">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AT203">
         <v>2.43</v>
@@ -43443,25 +43443,25 @@
         <v>1.83</v>
       </c>
       <c r="AN204">
-        <v>1.5</v>
+        <v>0.96</v>
       </c>
       <c r="AO204">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="AP204">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ204">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR204">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AS204">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="AT204">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="AU204">
         <v>9</v>
@@ -43649,25 +43649,25 @@
         <v>1.02</v>
       </c>
       <c r="AN205">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AO205">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="AP205">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ205">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR205">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AS205">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="AT205">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="AU205">
         <v>3</v>
@@ -43855,25 +43855,25 @@
         <v>1.28</v>
       </c>
       <c r="AN206">
+        <v>1.66</v>
+      </c>
+      <c r="AO206">
         <v>2.14</v>
       </c>
-      <c r="AO206">
-        <v>2.07</v>
-      </c>
       <c r="AP206">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ206">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR206">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="AS206">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AT206">
-        <v>3.27</v>
+        <v>3.07</v>
       </c>
       <c r="AU206">
         <v>6</v>
@@ -44061,25 +44061,25 @@
         <v>1.92</v>
       </c>
       <c r="AN207">
-        <v>2.57</v>
+        <v>2.24</v>
       </c>
       <c r="AO207">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="AP207">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ207">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR207">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AS207">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AT207">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -44267,25 +44267,25 @@
         <v>1.68</v>
       </c>
       <c r="AN208">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="AO208">
-        <v>0.43</v>
+        <v>1.03</v>
       </c>
       <c r="AP208">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ208">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR208">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="AS208">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AT208">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44473,25 +44473,25 @@
         <v>1.82</v>
       </c>
       <c r="AN209">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AO209">
-        <v>0.79</v>
+        <v>1.14</v>
       </c>
       <c r="AP209">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ209">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR209">
-        <v>1.23</v>
+        <v>1.06</v>
       </c>
       <c r="AS209">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AT209">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="AU209">
         <v>9</v>
@@ -44679,22 +44679,22 @@
         <v>1.6</v>
       </c>
       <c r="AN210">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="AO210">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AP210">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ210">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR210">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AS210">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT210">
         <v>2.41</v>
@@ -44885,25 +44885,25 @@
         <v>1.71</v>
       </c>
       <c r="AN211">
-        <v>0.93</v>
+        <v>0.79</v>
       </c>
       <c r="AO211">
-        <v>0.43</v>
+        <v>0.83</v>
       </c>
       <c r="AP211">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ211">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR211">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AS211">
-        <v>1.16</v>
+        <v>1.31</v>
       </c>
       <c r="AT211">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU211">
         <v>3</v>
@@ -45091,25 +45091,25 @@
         <v>5</v>
       </c>
       <c r="AN212">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="AO212">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="AP212">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ212">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR212">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AS212">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AT212">
-        <v>2.91</v>
+        <v>2.76</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45297,25 +45297,25 @@
         <v>4</v>
       </c>
       <c r="AN213">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="AO213">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AP213">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ213">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR213">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS213">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="AT213">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="AU213">
         <v>9</v>
@@ -45503,25 +45503,25 @@
         <v>1.87</v>
       </c>
       <c r="AN214">
-        <v>1.6</v>
+        <v>1.03</v>
       </c>
       <c r="AO214">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="AP214">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ214">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR214">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AS214">
-        <v>0.9</v>
+        <v>1.08</v>
       </c>
       <c r="AT214">
-        <v>2.31</v>
+        <v>2.42</v>
       </c>
       <c r="AU214">
         <v>9</v>
@@ -45709,25 +45709,25 @@
         <v>1.57</v>
       </c>
       <c r="AN215">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AO215">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="AP215">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ215">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR215">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
       <c r="AS215">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AT215">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="AU215">
         <v>3</v>
@@ -45915,25 +45915,25 @@
         <v>1.53</v>
       </c>
       <c r="AN216">
-        <v>1.47</v>
+        <v>1.13</v>
       </c>
       <c r="AO216">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="AP216">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ216">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR216">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AS216">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AT216">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="AU216">
         <v>4</v>
@@ -46121,25 +46121,25 @@
         <v>1.83</v>
       </c>
       <c r="AN217">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="AO217">
-        <v>0.47</v>
+        <v>0.63</v>
       </c>
       <c r="AP217">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ217">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR217">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AS217">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AT217">
-        <v>2.34</v>
+        <v>2.31</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46327,25 +46327,25 @@
         <v>1.03</v>
       </c>
       <c r="AN218">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AO218">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AP218">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ218">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR218">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AS218">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AT218">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="AU218">
         <v>6</v>
@@ -46533,25 +46533,25 @@
         <v>1.09</v>
       </c>
       <c r="AN219">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AO219">
-        <v>1.93</v>
+        <v>2.23</v>
       </c>
       <c r="AP219">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ219">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR219">
-        <v>1.74</v>
+        <v>1.36</v>
       </c>
       <c r="AS219">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AT219">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46739,25 +46739,25 @@
         <v>1.98</v>
       </c>
       <c r="AN220">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO220">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="AP220">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ220">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR220">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS220">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AT220">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="AU220">
         <v>5</v>
@@ -46945,25 +46945,25 @@
         <v>1.02</v>
       </c>
       <c r="AN221">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AO221">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AP221">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ221">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR221">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AT221">
-        <v>2.62</v>
+        <v>2.73</v>
       </c>
       <c r="AU221">
         <v>3</v>
@@ -47151,25 +47151,25 @@
         <v>1.18</v>
       </c>
       <c r="AN222">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO222">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AP222">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ222">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR222">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="AS222">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="AT222">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47357,25 +47357,25 @@
         <v>1.92</v>
       </c>
       <c r="AN223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO223">
-        <v>2.19</v>
+        <v>2.22</v>
       </c>
       <c r="AP223">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ223">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR223">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AS223">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AT223">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="AU223">
         <v>9</v>
@@ -47563,25 +47563,25 @@
         <v>2.5</v>
       </c>
       <c r="AN224">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="AO224">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AP224">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ224">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR224">
-        <v>1.26</v>
+        <v>1.09</v>
       </c>
       <c r="AS224">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AT224">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47769,25 +47769,25 @@
         <v>2.55</v>
       </c>
       <c r="AN225">
-        <v>0.87</v>
+        <v>0.84</v>
       </c>
       <c r="AO225">
-        <v>0.44</v>
+        <v>0.61</v>
       </c>
       <c r="AP225">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ225">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR225">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AS225">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AT225">
-        <v>2.37</v>
+        <v>2.39</v>
       </c>
       <c r="AU225">
         <v>7</v>
@@ -47975,25 +47975,25 @@
         <v>2.15</v>
       </c>
       <c r="AN226">
-        <v>1.2</v>
+        <v>0.97</v>
       </c>
       <c r="AO226">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP226">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AQ226">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR226">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AS226">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AT226">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="AU226">
         <v>5</v>
@@ -48181,25 +48181,25 @@
         <v>1.42</v>
       </c>
       <c r="AN227">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AO227">
-        <v>0.47</v>
+        <v>1.1</v>
       </c>
       <c r="AP227">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ227">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR227">
-        <v>1.31</v>
+        <v>1.22</v>
       </c>
       <c r="AS227">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="AT227">
-        <v>2.57</v>
+        <v>2.56</v>
       </c>
       <c r="AU227">
         <v>5</v>
@@ -48387,25 +48387,25 @@
         <v>6</v>
       </c>
       <c r="AN228">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AO228">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AP228">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ228">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR228">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="AS228">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AT228">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="AU228">
         <v>11</v>
@@ -48593,25 +48593,25 @@
         <v>1.5</v>
       </c>
       <c r="AN229">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AO229">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP229">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ229">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR229">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="AS229">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AT229">
-        <v>3.71</v>
+        <v>3.57</v>
       </c>
       <c r="AU229">
         <v>6</v>
@@ -48799,25 +48799,25 @@
         <v>3.4</v>
       </c>
       <c r="AN230">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AO230">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="AP230">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ230">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR230">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AS230">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="AT230">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="AU230">
         <v>7</v>
@@ -49005,25 +49005,25 @@
         <v>1.6</v>
       </c>
       <c r="AN231">
-        <v>1.38</v>
+        <v>1.06</v>
       </c>
       <c r="AO231">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AP231">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ231">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR231">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AS231">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AT231">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="AU231">
         <v>2</v>
@@ -49211,25 +49211,25 @@
         <v>1.8</v>
       </c>
       <c r="AN232">
-        <v>1.69</v>
+        <v>1.09</v>
       </c>
       <c r="AO232">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AP232">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ232">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR232">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="AS232">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="AT232">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="AU232">
         <v>6</v>
@@ -49417,25 +49417,25 @@
         <v>1.8</v>
       </c>
       <c r="AN233">
-        <v>1.56</v>
+        <v>1.09</v>
       </c>
       <c r="AO233">
         <v>0.8100000000000001</v>
       </c>
       <c r="AP233">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ233">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR233">
-        <v>1.26</v>
+        <v>1.14</v>
       </c>
       <c r="AS233">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AT233">
-        <v>2.39</v>
+        <v>2.36</v>
       </c>
       <c r="AU233">
         <v>5</v>
@@ -49623,25 +49623,25 @@
         <v>1.55</v>
       </c>
       <c r="AN234">
-        <v>0.8</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO234">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AP234">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ234">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR234">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AS234">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="AT234">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="AU234">
         <v>7</v>
@@ -49829,25 +49829,25 @@
         <v>1.69</v>
       </c>
       <c r="AN235">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="AO235">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="AP235">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ235">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR235">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AS235">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AT235">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="AU235">
         <v>3</v>
@@ -50035,25 +50035,25 @@
         <v>1.28</v>
       </c>
       <c r="AN236">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="AO236">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AP236">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ236">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR236">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AS236">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="AT236">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="AU236">
         <v>6</v>
@@ -50241,25 +50241,25 @@
         <v>1.72</v>
       </c>
       <c r="AN237">
-        <v>2.41</v>
+        <v>2.18</v>
       </c>
       <c r="AO237">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AP237">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ237">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR237">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AS237">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AT237">
-        <v>3.22</v>
+        <v>3.31</v>
       </c>
       <c r="AU237">
         <v>7</v>
@@ -50447,25 +50447,25 @@
         <v>1.55</v>
       </c>
       <c r="AN238">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AO238">
-        <v>1.88</v>
+        <v>2.21</v>
       </c>
       <c r="AP238">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ238">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR238">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="AS238">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AT238">
-        <v>3.86</v>
+        <v>3.71</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50653,25 +50653,25 @@
         <v>1.17</v>
       </c>
       <c r="AN239">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="AO239">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="AP239">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ239">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR239">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="AS239">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="AT239">
-        <v>3.19</v>
+        <v>2.95</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -50859,25 +50859,25 @@
         <v>8.6</v>
       </c>
       <c r="AN240">
-        <v>2.53</v>
+        <v>2.14</v>
       </c>
       <c r="AO240">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AP240">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ240">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR240">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AS240">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AT240">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AU240">
         <v>8</v>
@@ -51065,25 +51065,25 @@
         <v>1.58</v>
       </c>
       <c r="AN241">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="AO241">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AP241">
+        <v>2</v>
+      </c>
+      <c r="AQ241">
         <v>2.06</v>
       </c>
-      <c r="AQ241">
-        <v>1.78</v>
-      </c>
       <c r="AR241">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="AS241">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AT241">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="AU241">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -39323,25 +39323,25 @@
         <v>1.06</v>
       </c>
       <c r="AN184">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="AO184">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AP184">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ184">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR184">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AS184">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT184">
-        <v>3.06</v>
+        <v>2.97</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39529,25 +39529,25 @@
         <v>1.82</v>
       </c>
       <c r="AN185">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AO185">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AP185">
+        <v>2.33</v>
+      </c>
+      <c r="AQ185">
+        <v>1.94</v>
+      </c>
+      <c r="AR185">
         <v>2.06</v>
       </c>
-      <c r="AQ185">
-        <v>2</v>
-      </c>
-      <c r="AR185">
-        <v>1.81</v>
-      </c>
       <c r="AS185">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AT185">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39735,25 +39735,25 @@
         <v>2.68</v>
       </c>
       <c r="AN186">
-        <v>2.31</v>
+        <v>2.46</v>
       </c>
       <c r="AO186">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="AP186">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ186">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR186">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AS186">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AT186">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -39941,25 +39941,25 @@
         <v>1.92</v>
       </c>
       <c r="AN187">
-        <v>1.19</v>
+        <v>1.38</v>
       </c>
       <c r="AO187">
-        <v>0.77</v>
+        <v>0.62</v>
       </c>
       <c r="AP187">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ187">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR187">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AS187">
-        <v>1.06</v>
+        <v>0.92</v>
       </c>
       <c r="AT187">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="AU187">
         <v>4</v>
@@ -40147,25 +40147,25 @@
         <v>1.52</v>
       </c>
       <c r="AN188">
-        <v>0.73</v>
+        <v>0.92</v>
       </c>
       <c r="AO188">
-        <v>0.96</v>
+        <v>0.38</v>
       </c>
       <c r="AP188">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ188">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR188">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AS188">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="AT188">
-        <v>2.44</v>
+        <v>2.53</v>
       </c>
       <c r="AU188">
         <v>5</v>
@@ -40353,25 +40353,25 @@
         <v>1.78</v>
       </c>
       <c r="AN189">
-        <v>1.08</v>
+        <v>1.38</v>
       </c>
       <c r="AO189">
-        <v>0.6899999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="AP189">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ189">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR189">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AS189">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AT189">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="AU189">
         <v>7</v>
@@ -40559,22 +40559,22 @@
         <v>1.68</v>
       </c>
       <c r="AN190">
-        <v>0.77</v>
+        <v>1.15</v>
       </c>
       <c r="AO190">
-        <v>1.04</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP190">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ190">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR190">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AS190">
-        <v>1.15</v>
+        <v>1.03</v>
       </c>
       <c r="AT190">
         <v>2.43</v>
@@ -40765,25 +40765,25 @@
         <v>1.6</v>
       </c>
       <c r="AN191">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AO191">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AP191">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ191">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR191">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AS191">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AT191">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="AU191">
         <v>4</v>
@@ -40971,22 +40971,22 @@
         <v>1.75</v>
       </c>
       <c r="AN192">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="AO192">
-        <v>0.74</v>
+        <v>0.54</v>
       </c>
       <c r="AP192">
+        <v>1.19</v>
+      </c>
+      <c r="AQ192">
+        <v>0.76</v>
+      </c>
+      <c r="AR192">
+        <v>1.2</v>
+      </c>
+      <c r="AS192">
         <v>1.03</v>
-      </c>
-      <c r="AQ192">
-        <v>0.79</v>
-      </c>
-      <c r="AR192">
-        <v>1.06</v>
-      </c>
-      <c r="AS192">
-        <v>1.17</v>
       </c>
       <c r="AT192">
         <v>2.23</v>
@@ -41177,25 +41177,25 @@
         <v>1.78</v>
       </c>
       <c r="AN193">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="AO193">
-        <v>0.85</v>
+        <v>0.38</v>
       </c>
       <c r="AP193">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ193">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR193">
-        <v>1.16</v>
+        <v>1.27</v>
       </c>
       <c r="AS193">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AT193">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="AU193">
         <v>5</v>
@@ -41383,25 +41383,25 @@
         <v>1.83</v>
       </c>
       <c r="AN194">
-        <v>0.96</v>
+        <v>1.54</v>
       </c>
       <c r="AO194">
-        <v>1.15</v>
+        <v>0.77</v>
       </c>
       <c r="AP194">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ194">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR194">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AS194">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AT194">
-        <v>2.4</v>
+        <v>2.47</v>
       </c>
       <c r="AU194">
         <v>5</v>
@@ -41589,25 +41589,25 @@
         <v>1.78</v>
       </c>
       <c r="AN195">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AO195">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ195">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR195">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AS195">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AT195">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="AU195">
         <v>8</v>
@@ -41795,25 +41795,25 @@
         <v>1.9</v>
       </c>
       <c r="AN196">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="AO196">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="AP196">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ196">
+        <v>1.78</v>
+      </c>
+      <c r="AR196">
         <v>2.06</v>
       </c>
-      <c r="AR196">
-        <v>1.93</v>
-      </c>
       <c r="AS196">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AT196">
-        <v>3.73</v>
+        <v>3.61</v>
       </c>
       <c r="AU196">
         <v>6</v>
@@ -42001,25 +42001,25 @@
         <v>2.7</v>
       </c>
       <c r="AN197">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="AO197">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="AP197">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ197">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR197">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="AS197">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT197">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="AU197">
         <v>10</v>
@@ -42207,25 +42207,25 @@
         <v>3</v>
       </c>
       <c r="AN198">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="AO198">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="AP198">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ198">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR198">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="AS198">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="AT198">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="AU198">
         <v>10</v>
@@ -42413,25 +42413,25 @@
         <v>4.33</v>
       </c>
       <c r="AN199">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AO199">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AP199">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ199">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR199">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AS199">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AT199">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42619,25 +42619,25 @@
         <v>1.52</v>
       </c>
       <c r="AN200">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AO200">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ200">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR200">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="AS200">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="AT200">
-        <v>3.62</v>
+        <v>3.7</v>
       </c>
       <c r="AU200">
         <v>6</v>
@@ -42825,25 +42825,25 @@
         <v>1.83</v>
       </c>
       <c r="AN201">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AO201">
-        <v>1.07</v>
+        <v>0.64</v>
       </c>
       <c r="AP201">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ201">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR201">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AS201">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AT201">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="AU201">
         <v>3</v>
@@ -43031,25 +43031,25 @@
         <v>1.67</v>
       </c>
       <c r="AN202">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AO202">
+        <v>0.79</v>
+      </c>
+      <c r="AP202">
+        <v>1.31</v>
+      </c>
+      <c r="AQ202">
+        <v>0.88</v>
+      </c>
+      <c r="AR202">
+        <v>1.43</v>
+      </c>
+      <c r="AS202">
         <v>0.93</v>
       </c>
-      <c r="AP202">
-        <v>1.09</v>
-      </c>
-      <c r="AQ202">
-        <v>1.03</v>
-      </c>
-      <c r="AR202">
-        <v>1.3</v>
-      </c>
-      <c r="AS202">
-        <v>1.08</v>
-      </c>
       <c r="AT202">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="AU202">
         <v>3</v>
@@ -43237,22 +43237,22 @@
         <v>1.79</v>
       </c>
       <c r="AN203">
-        <v>1.11</v>
+        <v>1.29</v>
       </c>
       <c r="AO203">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ203">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR203">
-        <v>1.23</v>
+        <v>1.33</v>
       </c>
       <c r="AS203">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AT203">
         <v>2.43</v>
@@ -43443,25 +43443,25 @@
         <v>1.83</v>
       </c>
       <c r="AN204">
-        <v>0.96</v>
+        <v>1.5</v>
       </c>
       <c r="AO204">
-        <v>0.68</v>
+        <v>0.5</v>
       </c>
       <c r="AP204">
+        <v>1.59</v>
+      </c>
+      <c r="AQ204">
+        <v>0.59</v>
+      </c>
+      <c r="AR204">
+        <v>1.36</v>
+      </c>
+      <c r="AS204">
         <v>1.06</v>
       </c>
-      <c r="AQ204">
-        <v>0.7</v>
-      </c>
-      <c r="AR204">
-        <v>1.3</v>
-      </c>
-      <c r="AS204">
-        <v>1.17</v>
-      </c>
       <c r="AT204">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="AU204">
         <v>9</v>
@@ -43649,25 +43649,25 @@
         <v>1.02</v>
       </c>
       <c r="AN205">
+        <v>1.43</v>
+      </c>
+      <c r="AO205">
+        <v>1.93</v>
+      </c>
+      <c r="AP205">
         <v>1.17</v>
       </c>
-      <c r="AO205">
-        <v>2.07</v>
-      </c>
-      <c r="AP205">
-        <v>0.97</v>
-      </c>
       <c r="AQ205">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR205">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AS205">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="AT205">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="AU205">
         <v>3</v>
@@ -43855,25 +43855,25 @@
         <v>1.28</v>
       </c>
       <c r="AN206">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="AO206">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AP206">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ206">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR206">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="AS206">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AT206">
-        <v>3.07</v>
+        <v>3.27</v>
       </c>
       <c r="AU206">
         <v>6</v>
@@ -44061,25 +44061,25 @@
         <v>1.92</v>
       </c>
       <c r="AN207">
-        <v>2.24</v>
+        <v>2.57</v>
       </c>
       <c r="AO207">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AP207">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ207">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR207">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AS207">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT207">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -44267,25 +44267,25 @@
         <v>1.68</v>
       </c>
       <c r="AN208">
-        <v>1.07</v>
+        <v>1.5</v>
       </c>
       <c r="AO208">
-        <v>1.03</v>
+        <v>0.43</v>
       </c>
       <c r="AP208">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ208">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR208">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="AS208">
-        <v>1.32</v>
+        <v>1.23</v>
       </c>
       <c r="AT208">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="AU208">
         <v>5</v>
@@ -44473,25 +44473,25 @@
         <v>1.82</v>
       </c>
       <c r="AN209">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="AO209">
-        <v>1.14</v>
+        <v>0.79</v>
       </c>
       <c r="AP209">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ209">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR209">
-        <v>1.06</v>
+        <v>1.23</v>
       </c>
       <c r="AS209">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="AT209">
-        <v>2.19</v>
+        <v>2.38</v>
       </c>
       <c r="AU209">
         <v>9</v>
@@ -44679,22 +44679,22 @@
         <v>1.6</v>
       </c>
       <c r="AN210">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="AO210">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
       <c r="AP210">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ210">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR210">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AS210">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AT210">
         <v>2.41</v>
@@ -44885,25 +44885,25 @@
         <v>1.71</v>
       </c>
       <c r="AN211">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AO211">
-        <v>0.83</v>
+        <v>0.43</v>
       </c>
       <c r="AP211">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ211">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR211">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AS211">
-        <v>1.31</v>
+        <v>1.16</v>
       </c>
       <c r="AT211">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AU211">
         <v>3</v>
@@ -45091,25 +45091,25 @@
         <v>5</v>
       </c>
       <c r="AN212">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="AO212">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AP212">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ212">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR212">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AS212">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AT212">
-        <v>2.76</v>
+        <v>2.91</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45297,25 +45297,25 @@
         <v>4</v>
       </c>
       <c r="AN213">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="AO213">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP213">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ213">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR213">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS213">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="AT213">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="AU213">
         <v>9</v>
@@ -45503,25 +45503,25 @@
         <v>1.87</v>
       </c>
       <c r="AN214">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="AO214">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AP214">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ214">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR214">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AS214">
-        <v>1.08</v>
+        <v>0.9</v>
       </c>
       <c r="AT214">
-        <v>2.42</v>
+        <v>2.31</v>
       </c>
       <c r="AU214">
         <v>9</v>
@@ -45709,25 +45709,25 @@
         <v>1.57</v>
       </c>
       <c r="AN215">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AO215">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AP215">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ215">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR215">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AS215">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
       <c r="AT215">
-        <v>2.52</v>
+        <v>2.48</v>
       </c>
       <c r="AU215">
         <v>3</v>
@@ -45915,25 +45915,25 @@
         <v>1.53</v>
       </c>
       <c r="AN216">
-        <v>1.13</v>
+        <v>1.47</v>
       </c>
       <c r="AO216">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="AP216">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ216">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR216">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AS216">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AT216">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="AU216">
         <v>4</v>
@@ -46121,25 +46121,25 @@
         <v>1.83</v>
       </c>
       <c r="AN217">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="AO217">
-        <v>0.63</v>
+        <v>0.47</v>
       </c>
       <c r="AP217">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ217">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR217">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AS217">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AT217">
-        <v>2.31</v>
+        <v>2.34</v>
       </c>
       <c r="AU217">
         <v>6</v>
@@ -46327,25 +46327,25 @@
         <v>1.03</v>
       </c>
       <c r="AN218">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AO218">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="AP218">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ218">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR218">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AS218">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="AT218">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="AU218">
         <v>6</v>
@@ -46533,25 +46533,25 @@
         <v>1.09</v>
       </c>
       <c r="AN219">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AO219">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="AP219">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ219">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR219">
-        <v>1.36</v>
+        <v>1.74</v>
       </c>
       <c r="AS219">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="AT219">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46739,25 +46739,25 @@
         <v>1.98</v>
       </c>
       <c r="AN220">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO220">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="AP220">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ220">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR220">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AS220">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AT220">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
       <c r="AU220">
         <v>5</v>
@@ -46945,25 +46945,25 @@
         <v>1.02</v>
       </c>
       <c r="AN221">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AO221">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AP221">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ221">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR221">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AS221">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AT221">
-        <v>2.73</v>
+        <v>2.62</v>
       </c>
       <c r="AU221">
         <v>3</v>
@@ -47151,25 +47151,25 @@
         <v>1.18</v>
       </c>
       <c r="AN222">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO222">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AP222">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ222">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR222">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="AS222">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="AT222">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47357,25 +47357,25 @@
         <v>1.92</v>
       </c>
       <c r="AN223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AO223">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="AP223">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ223">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR223">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AS223">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AT223">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU223">
         <v>9</v>
@@ -47563,25 +47563,25 @@
         <v>2.5</v>
       </c>
       <c r="AN224">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="AO224">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP224">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ224">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR224">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="AS224">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AT224">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="AU224">
         <v>6</v>
@@ -47769,25 +47769,25 @@
         <v>2.55</v>
       </c>
       <c r="AN225">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="AO225">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="AP225">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ225">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR225">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AS225">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AT225">
-        <v>2.39</v>
+        <v>2.37</v>
       </c>
       <c r="AU225">
         <v>7</v>
@@ -47975,25 +47975,25 @@
         <v>2.15</v>
       </c>
       <c r="AN226">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
       <c r="AO226">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP226">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ226">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR226">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AS226">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AT226">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="AU226">
         <v>5</v>
@@ -48181,25 +48181,25 @@
         <v>1.42</v>
       </c>
       <c r="AN227">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="AO227">
-        <v>1.1</v>
+        <v>0.47</v>
       </c>
       <c r="AP227">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ227">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR227">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="AS227">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="AT227">
-        <v>2.56</v>
+        <v>2.57</v>
       </c>
       <c r="AU227">
         <v>5</v>
@@ -48387,25 +48387,25 @@
         <v>6</v>
       </c>
       <c r="AN228">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AO228">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AP228">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ228">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR228">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="AS228">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AT228">
-        <v>2.88</v>
+        <v>3.02</v>
       </c>
       <c r="AU228">
         <v>11</v>
@@ -48593,25 +48593,25 @@
         <v>1.5</v>
       </c>
       <c r="AN229">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AO229">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AP229">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ229">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR229">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="AS229">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="AT229">
-        <v>3.57</v>
+        <v>3.71</v>
       </c>
       <c r="AU229">
         <v>6</v>
@@ -48799,25 +48799,25 @@
         <v>3.4</v>
       </c>
       <c r="AN230">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AO230">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="AP230">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ230">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR230">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="AS230">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="AT230">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="AU230">
         <v>7</v>
@@ -49005,25 +49005,25 @@
         <v>1.6</v>
       </c>
       <c r="AN231">
-        <v>1.06</v>
+        <v>1.38</v>
       </c>
       <c r="AO231">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AP231">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ231">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR231">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AS231">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AT231">
-        <v>2.37</v>
+        <v>2.24</v>
       </c>
       <c r="AU231">
         <v>2</v>
@@ -49211,25 +49211,25 @@
         <v>1.8</v>
       </c>
       <c r="AN232">
-        <v>1.09</v>
+        <v>1.69</v>
       </c>
       <c r="AO232">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AP232">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ232">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR232">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="AS232">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AT232">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="AU232">
         <v>6</v>
@@ -49417,25 +49417,25 @@
         <v>1.8</v>
       </c>
       <c r="AN233">
-        <v>1.09</v>
+        <v>1.56</v>
       </c>
       <c r="AO233">
         <v>0.8100000000000001</v>
       </c>
       <c r="AP233">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ233">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR233">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AS233">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AT233">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="AU233">
         <v>5</v>
@@ -49623,25 +49623,25 @@
         <v>1.55</v>
       </c>
       <c r="AN234">
-        <v>0.6899999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AO234">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AP234">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ234">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR234">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AS234">
-        <v>1.1</v>
+        <v>0.93</v>
       </c>
       <c r="AT234">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AU234">
         <v>7</v>
@@ -49829,25 +49829,25 @@
         <v>1.69</v>
       </c>
       <c r="AN235">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="AO235">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="AP235">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ235">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR235">
+        <v>1.77</v>
+      </c>
+      <c r="AS235">
         <v>1.64</v>
       </c>
-      <c r="AS235">
-        <v>1.82</v>
-      </c>
       <c r="AT235">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="AU235">
         <v>3</v>
@@ -50035,25 +50035,25 @@
         <v>1.28</v>
       </c>
       <c r="AN236">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="AO236">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="AP236">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ236">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR236">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AS236">
-        <v>1.34</v>
+        <v>1</v>
       </c>
       <c r="AT236">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="AU236">
         <v>6</v>
@@ -50241,25 +50241,25 @@
         <v>1.72</v>
       </c>
       <c r="AN237">
-        <v>2.18</v>
+        <v>2.41</v>
       </c>
       <c r="AO237">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AP237">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ237">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR237">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="AS237">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AT237">
-        <v>3.31</v>
+        <v>3.22</v>
       </c>
       <c r="AU237">
         <v>7</v>
@@ -50447,25 +50447,25 @@
         <v>1.55</v>
       </c>
       <c r="AN238">
-        <v>2.06</v>
+        <v>2.29</v>
       </c>
       <c r="AO238">
-        <v>2.21</v>
+        <v>1.88</v>
       </c>
       <c r="AP238">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ238">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR238">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="AS238">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AT238">
-        <v>3.71</v>
+        <v>3.86</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50653,25 +50653,25 @@
         <v>1.17</v>
       </c>
       <c r="AN239">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AO239">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="AP239">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ239">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR239">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="AS239">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="AT239">
-        <v>2.95</v>
+        <v>3.19</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -50859,25 +50859,25 @@
         <v>8.6</v>
       </c>
       <c r="AN240">
-        <v>2.14</v>
+        <v>2.53</v>
       </c>
       <c r="AO240">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AP240">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ240">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR240">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AS240">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AT240">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AU240">
         <v>8</v>
@@ -51065,25 +51065,25 @@
         <v>1.58</v>
       </c>
       <c r="AN241">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="AO241">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AP241">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ241">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR241">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="AS241">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AT241">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="AU241">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -1837,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ2">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ3">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ4">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ5">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2661,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ6">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2864,22 +2864,22 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP7">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AQ7">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AU7">
         <v>8</v>
@@ -3070,22 +3070,22 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP8">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AU8">
         <v>5</v>
@@ -3276,22 +3276,22 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR9">
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AU9">
         <v>9</v>
@@ -3485,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ10">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3685,25 +3685,25 @@
         <v>1.22</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AS11">
         <v>1.51</v>
       </c>
       <c r="AT11">
-        <v>1.51</v>
+        <v>3.22</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ12">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR12">
         <v>1.83</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR13">
         <v>2.47</v>
@@ -4309,19 +4309,19 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AS14">
         <v>0.44</v>
       </c>
       <c r="AT14">
-        <v>0.44</v>
+        <v>1.11</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4509,25 +4509,25 @@
         <v>1.5</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ15">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4718,22 +4718,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP16">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ16">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AS16">
-        <v>0.79</v>
+        <v>0.98</v>
       </c>
       <c r="AT16">
-        <v>0.79</v>
+        <v>2.28</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4924,22 +4924,22 @@
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ17">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR17">
         <v>2.51</v>
       </c>
       <c r="AS17">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="AT17">
-        <v>4.22</v>
+        <v>3.81</v>
       </c>
       <c r="AU17">
         <v>9</v>
@@ -5127,25 +5127,25 @@
         <v>1.17</v>
       </c>
       <c r="AN18">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ18">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR18">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="AS18">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AT18">
-        <v>1.52</v>
+        <v>3.76</v>
       </c>
       <c r="AU18">
         <v>3</v>
@@ -5333,25 +5333,25 @@
         <v>1.01</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP19">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ19">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR19">
-        <v>1.21</v>
+        <v>0.87</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="AT19">
-        <v>1.21</v>
+        <v>4</v>
       </c>
       <c r="AU19">
         <v>6</v>
@@ -5539,25 +5539,25 @@
         <v>1.12</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ20">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR20">
-        <v>1.39</v>
+        <v>1.17</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AT20">
-        <v>1.39</v>
+        <v>2.9</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5745,25 +5745,25 @@
         <v>1.45</v>
       </c>
       <c r="AN21">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP21">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR21">
-        <v>0.89</v>
+        <v>1.26</v>
       </c>
       <c r="AS21">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="AT21">
-        <v>2.99</v>
+        <v>2.78</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5957,19 +5957,19 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AQ22">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR22">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="AS22">
-        <v>1.27</v>
+        <v>1.5</v>
       </c>
       <c r="AT22">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="AU22">
         <v>4</v>
@@ -6157,25 +6157,25 @@
         <v>1.75</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP23">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ23">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR23">
+        <v>1.04</v>
+      </c>
+      <c r="AS23">
         <v>1.17</v>
       </c>
-      <c r="AS23">
-        <v>0.95</v>
-      </c>
       <c r="AT23">
-        <v>2.12</v>
+        <v>2.21</v>
       </c>
       <c r="AU23">
         <v>7</v>
@@ -6363,25 +6363,25 @@
         <v>1.78</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP24">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ24">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR24">
-        <v>1.19</v>
+        <v>0.84</v>
       </c>
       <c r="AS24">
-        <v>0.79</v>
+        <v>0.99</v>
       </c>
       <c r="AT24">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6569,25 +6569,25 @@
         <v>2.55</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR25">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="AS25">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="AT25">
-        <v>3.25</v>
+        <v>3.08</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6775,25 +6775,25 @@
         <v>1.87</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP26">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ26">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR26">
-        <v>3.13</v>
+        <v>2.47</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AT26">
-        <v>3.13</v>
+        <v>4.83</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6984,22 +6984,22 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ27">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AS27">
-        <v>0.52</v>
+        <v>0.95</v>
       </c>
       <c r="AT27">
-        <v>0.52</v>
+        <v>2.06</v>
       </c>
       <c r="AU27">
         <v>3</v>
@@ -7187,25 +7187,25 @@
         <v>1.87</v>
       </c>
       <c r="AN28">
-        <v>3</v>
+        <v>1.75</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP28">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR28">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="AS28">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AT28">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7393,25 +7393,25 @@
         <v>1.68</v>
       </c>
       <c r="AN29">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AO29">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AP29">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ29">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR29">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="AS29">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="AT29">
-        <v>2.82</v>
+        <v>2.15</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -7599,25 +7599,25 @@
         <v>5.5</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ30">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR30">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="AS30">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AT30">
-        <v>3.03</v>
+        <v>3.13</v>
       </c>
       <c r="AU30">
         <v>8</v>
@@ -7805,25 +7805,25 @@
         <v>2.65</v>
       </c>
       <c r="AN31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP31">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ31">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR31">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AS31">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AT31">
-        <v>2.78</v>
+        <v>2.65</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -8014,22 +8014,22 @@
         <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ32">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR32">
-        <v>1.17</v>
+        <v>0.98</v>
       </c>
       <c r="AS32">
-        <v>0.97</v>
+        <v>1.25</v>
       </c>
       <c r="AT32">
-        <v>2.14</v>
+        <v>2.23</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -8217,25 +8217,25 @@
         <v>1.15</v>
       </c>
       <c r="AN33">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO33">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AP33">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR33">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AS33">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="AT33">
-        <v>2.57</v>
+        <v>2.81</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -8426,22 +8426,22 @@
         <v>3</v>
       </c>
       <c r="AO34">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AP34">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR34">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AS34">
-        <v>1.82</v>
+        <v>2.03</v>
       </c>
       <c r="AT34">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8632,22 +8632,22 @@
         <v>0.5</v>
       </c>
       <c r="AO35">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="AP35">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR35">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AS35">
-        <v>1.68</v>
+        <v>1.52</v>
       </c>
       <c r="AT35">
-        <v>3.13</v>
+        <v>2.92</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8835,25 +8835,25 @@
         <v>1.52</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="AO36">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ36">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR36">
-        <v>1.6</v>
+        <v>1.09</v>
       </c>
       <c r="AS36">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="AT36">
-        <v>2.79</v>
+        <v>2.14</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -9041,25 +9041,25 @@
         <v>2.95</v>
       </c>
       <c r="AN37">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AO37">
-        <v>0.33</v>
+        <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ37">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR37">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="AS37">
-        <v>1.18</v>
+        <v>1.41</v>
       </c>
       <c r="AT37">
-        <v>3.43</v>
+        <v>3.39</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -9247,25 +9247,25 @@
         <v>4.75</v>
       </c>
       <c r="AN38">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO38">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP38">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ38">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR38">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="AS38">
-        <v>0.79</v>
+        <v>1.05</v>
       </c>
       <c r="AT38">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU38">
         <v>12</v>
@@ -9453,25 +9453,25 @@
         <v>1.6</v>
       </c>
       <c r="AN39">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="AO39">
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ39">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR39">
-        <v>1.59</v>
+        <v>1.17</v>
       </c>
       <c r="AS39">
-        <v>1.03</v>
+        <v>1.2</v>
       </c>
       <c r="AT39">
-        <v>2.62</v>
+        <v>2.37</v>
       </c>
       <c r="AU39">
         <v>6</v>
@@ -9659,25 +9659,25 @@
         <v>1.18</v>
       </c>
       <c r="AN40">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AO40">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AP40">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ40">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR40">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AS40">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AT40">
-        <v>3.18</v>
+        <v>2.92</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9865,25 +9865,25 @@
         <v>4.5</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ41">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR41">
-        <v>2.13</v>
+        <v>1.92</v>
       </c>
       <c r="AS41">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="AT41">
-        <v>3.27</v>
+        <v>3.11</v>
       </c>
       <c r="AU41">
         <v>9</v>
@@ -10071,25 +10071,25 @@
         <v>1.65</v>
       </c>
       <c r="AN42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP42">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ42">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR42">
-        <v>0.84</v>
+        <v>1.05</v>
       </c>
       <c r="AS42">
-        <v>1.34</v>
+        <v>1.51</v>
       </c>
       <c r="AT42">
-        <v>2.18</v>
+        <v>2.56</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10277,25 +10277,25 @@
         <v>2.69</v>
       </c>
       <c r="AN43">
-        <v>3</v>
+        <v>1.17</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AP43">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ43">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR43">
-        <v>1.76</v>
+        <v>1.25</v>
       </c>
       <c r="AS43">
-        <v>0.74</v>
+        <v>1.23</v>
       </c>
       <c r="AT43">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -10483,25 +10483,25 @@
         <v>1.85</v>
       </c>
       <c r="AN44">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="AO44">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AP44">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR44">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="AS44">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AT44">
-        <v>2.74</v>
+        <v>3.37</v>
       </c>
       <c r="AU44">
         <v>13</v>
@@ -10689,25 +10689,25 @@
         <v>1.1</v>
       </c>
       <c r="AN45">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AO45">
-        <v>1</v>
+        <v>2.67</v>
       </c>
       <c r="AP45">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ45">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR45">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AS45">
-        <v>0.9</v>
+        <v>1.94</v>
       </c>
       <c r="AT45">
-        <v>2.2</v>
+        <v>3.09</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10895,25 +10895,25 @@
         <v>1.68</v>
       </c>
       <c r="AN46">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AO46">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AP46">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ46">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR46">
-        <v>1.33</v>
+        <v>1.12</v>
       </c>
       <c r="AS46">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="AU46">
         <v>2</v>
@@ -11101,25 +11101,25 @@
         <v>1.11</v>
       </c>
       <c r="AN47">
-        <v>2.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO47">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AP47">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ47">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR47">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AS47">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="AT47">
-        <v>3.13</v>
+        <v>3.65</v>
       </c>
       <c r="AU47">
         <v>6</v>
@@ -11307,25 +11307,25 @@
         <v>5.7</v>
       </c>
       <c r="AN48">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AO48">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ48">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR48">
-        <v>2.17</v>
+        <v>1.93</v>
       </c>
       <c r="AS48">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="AT48">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AU48">
         <v>9</v>
@@ -11513,25 +11513,25 @@
         <v>3.5</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO49">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP49">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR49">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="AS49">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AT49">
-        <v>3.09</v>
+        <v>2.94</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11719,25 +11719,25 @@
         <v>1.63</v>
       </c>
       <c r="AN50">
-        <v>2.33</v>
+        <v>1.29</v>
       </c>
       <c r="AO50">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AP50">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ50">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR50">
-        <v>0.91</v>
+        <v>1.05</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="AT50">
-        <v>1.91</v>
+        <v>2.08</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11925,25 +11925,25 @@
         <v>1.7</v>
       </c>
       <c r="AN51">
-        <v>0.67</v>
+        <v>0.43</v>
       </c>
       <c r="AO51">
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AQ51">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR51">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="AS51">
-        <v>0.8</v>
+        <v>1.01</v>
       </c>
       <c r="AT51">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU51">
         <v>8</v>
@@ -12131,25 +12131,25 @@
         <v>1.16</v>
       </c>
       <c r="AN52">
-        <v>2.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO52">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ52">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR52">
-        <v>1.76</v>
+        <v>1.32</v>
       </c>
       <c r="AS52">
-        <v>0.88</v>
+        <v>1.2</v>
       </c>
       <c r="AT52">
-        <v>2.64</v>
+        <v>2.52</v>
       </c>
       <c r="AU52">
         <v>8</v>
@@ -12337,25 +12337,25 @@
         <v>1.16</v>
       </c>
       <c r="AN53">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO53">
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ53">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR53">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="AS53">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AT53">
-        <v>3.11</v>
+        <v>3.35</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12543,25 +12543,25 @@
         <v>1.38</v>
       </c>
       <c r="AN54">
-        <v>1.67</v>
+        <v>0.86</v>
       </c>
       <c r="AO54">
-        <v>0.67</v>
+        <v>1.71</v>
       </c>
       <c r="AP54">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR54">
-        <v>1.73</v>
+        <v>1.21</v>
       </c>
       <c r="AS54">
-        <v>1.91</v>
+        <v>1.58</v>
       </c>
       <c r="AT54">
-        <v>3.64</v>
+        <v>2.79</v>
       </c>
       <c r="AU54">
         <v>3</v>
@@ -12749,25 +12749,25 @@
         <v>3.4</v>
       </c>
       <c r="AN55">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO55">
-        <v>0.2</v>
+        <v>0.43</v>
       </c>
       <c r="AP55">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR55">
-        <v>1.96</v>
+        <v>1.59</v>
       </c>
       <c r="AS55">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="AT55">
-        <v>2.94</v>
+        <v>2.58</v>
       </c>
       <c r="AU55">
         <v>8</v>
@@ -12955,25 +12955,25 @@
         <v>1.9</v>
       </c>
       <c r="AN56">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AO56">
-        <v>3</v>
+        <v>2.29</v>
       </c>
       <c r="AP56">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ56">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR56">
-        <v>2.15</v>
+        <v>2.01</v>
       </c>
       <c r="AS56">
-        <v>1.76</v>
+        <v>1.92</v>
       </c>
       <c r="AT56">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="AU56">
         <v>2</v>
@@ -13161,25 +13161,25 @@
         <v>1.63</v>
       </c>
       <c r="AN57">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AO57">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP57">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ57">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR57">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="AS57">
-        <v>0.82</v>
+        <v>1.2</v>
       </c>
       <c r="AT57">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -13367,25 +13367,25 @@
         <v>1.95</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>0.38</v>
       </c>
       <c r="AO58">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ58">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR58">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AT58">
-        <v>2.21</v>
+        <v>2.43</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13576,22 +13576,22 @@
         <v>1</v>
       </c>
       <c r="AO59">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP59">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ59">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR59">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AS59">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="AT59">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13779,25 +13779,25 @@
         <v>4.2</v>
       </c>
       <c r="AN60">
-        <v>1.75</v>
+        <v>2.38</v>
       </c>
       <c r="AO60">
-        <v>0.5</v>
+        <v>1.29</v>
       </c>
       <c r="AP60">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR60">
-        <v>2.04</v>
+        <v>1.79</v>
       </c>
       <c r="AS60">
-        <v>0.85</v>
+        <v>1.14</v>
       </c>
       <c r="AT60">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="AU60">
         <v>7</v>
@@ -13985,25 +13985,25 @@
         <v>2.75</v>
       </c>
       <c r="AN61">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO61">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AP61">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ61">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR61">
-        <v>1.92</v>
+        <v>1.46</v>
       </c>
       <c r="AS61">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AT61">
-        <v>2.97</v>
+        <v>2.52</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -14191,25 +14191,25 @@
         <v>2.05</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AO62">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="AP62">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ62">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR62">
-        <v>2.31</v>
+        <v>2.01</v>
       </c>
       <c r="AS62">
-        <v>1.1</v>
+        <v>1.64</v>
       </c>
       <c r="AT62">
-        <v>3.41</v>
+        <v>3.65</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14397,25 +14397,25 @@
         <v>1.14</v>
       </c>
       <c r="AN63">
-        <v>2.5</v>
+        <v>1.63</v>
       </c>
       <c r="AO63">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AP63">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ63">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR63">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AS63">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AT63">
-        <v>3.01</v>
+        <v>3.38</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -14603,25 +14603,25 @@
         <v>1.1</v>
       </c>
       <c r="AN64">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO64">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="AP64">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ64">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR64">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AS64">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="AT64">
-        <v>2.58</v>
+        <v>2.86</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14809,25 +14809,25 @@
         <v>1.05</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>0.78</v>
       </c>
       <c r="AO65">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="AP65">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ65">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR65">
-        <v>1.58</v>
+        <v>1.14</v>
       </c>
       <c r="AS65">
-        <v>1.71</v>
+        <v>1.94</v>
       </c>
       <c r="AT65">
-        <v>3.29</v>
+        <v>3.08</v>
       </c>
       <c r="AU65">
         <v>3</v>
@@ -15015,25 +15015,25 @@
         <v>1.32</v>
       </c>
       <c r="AN66">
+        <v>0.67</v>
+      </c>
+      <c r="AO66">
+        <v>0.89</v>
+      </c>
+      <c r="AP66">
+        <v>1.09</v>
+      </c>
+      <c r="AQ66">
+        <v>1.15</v>
+      </c>
+      <c r="AR66">
+        <v>1.39</v>
+      </c>
+      <c r="AS66">
         <v>1.25</v>
       </c>
-      <c r="AO66">
-        <v>1</v>
-      </c>
-      <c r="AP66">
-        <v>1.31</v>
-      </c>
-      <c r="AQ66">
-        <v>1.19</v>
-      </c>
-      <c r="AR66">
-        <v>1.65</v>
-      </c>
-      <c r="AS66">
-        <v>1.21</v>
-      </c>
       <c r="AT66">
-        <v>2.86</v>
+        <v>2.64</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -15221,25 +15221,25 @@
         <v>1.85</v>
       </c>
       <c r="AN67">
-        <v>0.75</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO67">
-        <v>0.25</v>
+        <v>0.63</v>
       </c>
       <c r="AP67">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ67">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR67">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="AS67">
-        <v>0.83</v>
+        <v>1.09</v>
       </c>
       <c r="AT67">
-        <v>1.89</v>
+        <v>2.06</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -15427,25 +15427,25 @@
         <v>2.1</v>
       </c>
       <c r="AN68">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="AO68">
-        <v>1</v>
+        <v>1.89</v>
       </c>
       <c r="AP68">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR68">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="AS68">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="AT68">
-        <v>2.92</v>
+        <v>3.36</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15633,25 +15633,25 @@
         <v>2.65</v>
       </c>
       <c r="AN69">
-        <v>2.6</v>
+        <v>1.56</v>
       </c>
       <c r="AO69">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="AP69">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR69">
-        <v>1.94</v>
+        <v>1.52</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AT69">
-        <v>2.94</v>
+        <v>2.56</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15839,25 +15839,25 @@
         <v>1.44</v>
       </c>
       <c r="AN70">
-        <v>2.33</v>
+        <v>1.13</v>
       </c>
       <c r="AO70">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AP70">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR70">
-        <v>1.52</v>
+        <v>1.09</v>
       </c>
       <c r="AS70">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="AT70">
-        <v>3.26</v>
+        <v>2.51</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -16045,25 +16045,25 @@
         <v>2.1</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AO71">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AP71">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ71">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR71">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="AS71">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="AT71">
-        <v>2.06</v>
+        <v>2.4</v>
       </c>
       <c r="AU71">
         <v>5</v>
@@ -16251,25 +16251,25 @@
         <v>1.85</v>
       </c>
       <c r="AN72">
-        <v>1.67</v>
+        <v>0.9</v>
       </c>
       <c r="AO72">
-        <v>0.4</v>
+        <v>1.33</v>
       </c>
       <c r="AP72">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ72">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR72">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="AS72">
-        <v>0.84</v>
+        <v>1.1</v>
       </c>
       <c r="AT72">
-        <v>1.97</v>
+        <v>2.14</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -16457,25 +16457,25 @@
         <v>1.22</v>
       </c>
       <c r="AN73">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO73">
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
       <c r="AP73">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ73">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR73">
-        <v>1.34</v>
+        <v>1.11</v>
       </c>
       <c r="AS73">
-        <v>0.99</v>
+        <v>1.54</v>
       </c>
       <c r="AT73">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16663,25 +16663,25 @@
         <v>4.5</v>
       </c>
       <c r="AN74">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP74">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ74">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR74">
-        <v>1.97</v>
+        <v>1.52</v>
       </c>
       <c r="AS74">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="AT74">
-        <v>3.16</v>
+        <v>2.95</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16869,25 +16869,25 @@
         <v>4.3</v>
       </c>
       <c r="AN75">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO75">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AP75">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ75">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR75">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="AS75">
         <v>1.12</v>
       </c>
       <c r="AT75">
-        <v>3.24</v>
+        <v>3.06</v>
       </c>
       <c r="AU75">
         <v>6</v>
@@ -17075,25 +17075,25 @@
         <v>1.1</v>
       </c>
       <c r="AN76">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AO76">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AP76">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ76">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR76">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AS76">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="AT76">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17281,25 +17281,25 @@
         <v>1.02</v>
       </c>
       <c r="AN77">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AO77">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AP77">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ77">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR77">
-        <v>1.42</v>
+        <v>1.11</v>
       </c>
       <c r="AS77">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="AT77">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17487,25 +17487,25 @@
         <v>2</v>
       </c>
       <c r="AN78">
-        <v>1.83</v>
+        <v>1.27</v>
       </c>
       <c r="AO78">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AP78">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ78">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR78">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AS78">
-        <v>0.9399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="AT78">
-        <v>2.13</v>
+        <v>2.53</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17693,25 +17693,25 @@
         <v>5</v>
       </c>
       <c r="AN79">
-        <v>2.14</v>
+        <v>2.27</v>
       </c>
       <c r="AO79">
-        <v>0.17</v>
+        <v>0.55</v>
       </c>
       <c r="AP79">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ79">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR79">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="AS79">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AT79">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17899,25 +17899,25 @@
         <v>4</v>
       </c>
       <c r="AN80">
-        <v>2.67</v>
+        <v>2.09</v>
       </c>
       <c r="AO80">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="AP80">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ80">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR80">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="AS80">
-        <v>0.83</v>
+        <v>1.07</v>
       </c>
       <c r="AT80">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -18105,25 +18105,25 @@
         <v>1.55</v>
       </c>
       <c r="AN81">
+        <v>0.73</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>0.79</v>
+      </c>
+      <c r="AQ81">
+        <v>1.15</v>
+      </c>
+      <c r="AR81">
+        <v>1.04</v>
+      </c>
+      <c r="AS81">
         <v>1.17</v>
       </c>
-      <c r="AO81">
-        <v>1.4</v>
-      </c>
-      <c r="AP81">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AQ81">
-        <v>1.19</v>
-      </c>
-      <c r="AR81">
-        <v>1.25</v>
-      </c>
-      <c r="AS81">
-        <v>1.14</v>
-      </c>
       <c r="AT81">
-        <v>2.39</v>
+        <v>2.21</v>
       </c>
       <c r="AU81">
         <v>6</v>
@@ -18311,25 +18311,25 @@
         <v>1.05</v>
       </c>
       <c r="AN82">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AO82">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="AP82">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ82">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR82">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AS82">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="AT82">
-        <v>2.85</v>
+        <v>2.97</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18517,25 +18517,25 @@
         <v>1.62</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>1.36</v>
       </c>
       <c r="AO83">
-        <v>0.57</v>
+        <v>0.91</v>
       </c>
       <c r="AP83">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ83">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR83">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AS83">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AT83">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="AU83">
         <v>8</v>
@@ -18723,25 +18723,25 @@
         <v>1.33</v>
       </c>
       <c r="AN84">
-        <v>2.17</v>
+        <v>1.55</v>
       </c>
       <c r="AO84">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="AP84">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ84">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR84">
-        <v>1.9</v>
+        <v>1.49</v>
       </c>
       <c r="AS84">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="AT84">
-        <v>3.42</v>
+        <v>3.22</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18929,22 +18929,22 @@
         <v>1.6</v>
       </c>
       <c r="AN85">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AO85">
-        <v>0.43</v>
+        <v>1.18</v>
       </c>
       <c r="AP85">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ85">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR85">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="AS85">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="AT85">
         <v>2.17</v>
@@ -19135,25 +19135,25 @@
         <v>1.7</v>
       </c>
       <c r="AN86">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO86">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AP86">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AQ86">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR86">
-        <v>1.67</v>
+        <v>1.38</v>
       </c>
       <c r="AS86">
-        <v>0.79</v>
+        <v>1.12</v>
       </c>
       <c r="AT86">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AU86">
         <v>10</v>
@@ -19341,25 +19341,25 @@
         <v>1.85</v>
       </c>
       <c r="AN87">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AO87">
-        <v>0.38</v>
+        <v>1.08</v>
       </c>
       <c r="AP87">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ87">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR87">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AS87">
-        <v>0.84</v>
+        <v>1.03</v>
       </c>
       <c r="AT87">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19547,22 +19547,22 @@
         <v>1.01</v>
       </c>
       <c r="AN88">
-        <v>1.17</v>
+        <v>0.83</v>
       </c>
       <c r="AO88">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AP88">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ88">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR88">
-        <v>1.32</v>
+        <v>1.14</v>
       </c>
       <c r="AS88">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT88">
         <v>2.89</v>
@@ -19753,25 +19753,25 @@
         <v>1.83</v>
       </c>
       <c r="AN89">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
       <c r="AO89">
-        <v>0.5</v>
+        <v>0.58</v>
       </c>
       <c r="AP89">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ89">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR89">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AS89">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AT89">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="AU89">
         <v>6</v>
@@ -19959,25 +19959,25 @@
         <v>3.75</v>
       </c>
       <c r="AN90">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO90">
-        <v>0.6</v>
+        <v>1.25</v>
       </c>
       <c r="AP90">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR90">
-        <v>1.98</v>
+        <v>1.77</v>
       </c>
       <c r="AS90">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AT90">
-        <v>3.62</v>
+        <v>3.21</v>
       </c>
       <c r="AU90">
         <v>8</v>
@@ -20165,25 +20165,25 @@
         <v>4.33</v>
       </c>
       <c r="AN91">
-        <v>2.71</v>
+        <v>2.17</v>
       </c>
       <c r="AO91">
-        <v>0.83</v>
+        <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ91">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR91">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AS91">
-        <v>1.02</v>
+        <v>1.11</v>
       </c>
       <c r="AT91">
-        <v>2.83</v>
+        <v>2.61</v>
       </c>
       <c r="AU91">
         <v>10</v>
@@ -20371,25 +20371,25 @@
         <v>2.95</v>
       </c>
       <c r="AN92">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="AO92">
-        <v>0.8</v>
+        <v>1.67</v>
       </c>
       <c r="AP92">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ92">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR92">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="AS92">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="AT92">
-        <v>3.03</v>
+        <v>3.41</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20577,25 +20577,25 @@
         <v>1.55</v>
       </c>
       <c r="AN93">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="AO93">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
       <c r="AP93">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ93">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR93">
-        <v>1.35</v>
+        <v>1.11</v>
       </c>
       <c r="AS93">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AT93">
-        <v>2.36</v>
+        <v>2.14</v>
       </c>
       <c r="AU93">
         <v>10</v>
@@ -20783,25 +20783,25 @@
         <v>1.7</v>
       </c>
       <c r="AN94">
-        <v>2.29</v>
+        <v>1.54</v>
       </c>
       <c r="AO94">
-        <v>0.5</v>
+        <v>1.15</v>
       </c>
       <c r="AP94">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ94">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR94">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="AS94">
-        <v>1.49</v>
+        <v>1.38</v>
       </c>
       <c r="AT94">
-        <v>3.29</v>
+        <v>2.8</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20989,25 +20989,25 @@
         <v>1.17</v>
       </c>
       <c r="AN95">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AO95">
-        <v>1.4</v>
+        <v>2.23</v>
       </c>
       <c r="AP95">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR95">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AS95">
-        <v>1.07</v>
+        <v>1.56</v>
       </c>
       <c r="AT95">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -21195,25 +21195,25 @@
         <v>1.72</v>
       </c>
       <c r="AN96">
-        <v>1.83</v>
+        <v>1.23</v>
       </c>
       <c r="AO96">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="AP96">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ96">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR96">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="AS96">
-        <v>0.95</v>
+        <v>1.14</v>
       </c>
       <c r="AT96">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="AU96">
         <v>4</v>
@@ -21401,25 +21401,25 @@
         <v>1.12</v>
       </c>
       <c r="AN97">
-        <v>1.4</v>
+        <v>0.92</v>
       </c>
       <c r="AO97">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AP97">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ97">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR97">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AS97">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="AT97">
-        <v>2.82</v>
+        <v>2.89</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21607,25 +21607,25 @@
         <v>1.02</v>
       </c>
       <c r="AN98">
-        <v>1.33</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AO98">
+        <v>2.31</v>
+      </c>
+      <c r="AP98">
+        <v>1.09</v>
+      </c>
+      <c r="AQ98">
         <v>2.17</v>
       </c>
-      <c r="AP98">
-        <v>1.31</v>
-      </c>
-      <c r="AQ98">
-        <v>1.78</v>
-      </c>
       <c r="AR98">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="AS98">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AT98">
-        <v>3.57</v>
+        <v>3.35</v>
       </c>
       <c r="AU98">
         <v>3</v>
@@ -21813,25 +21813,25 @@
         <v>1.05</v>
       </c>
       <c r="AN99">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="AO99">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="AP99">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ99">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR99">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AS99">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="AT99">
-        <v>2.97</v>
+        <v>2.81</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -22019,25 +22019,25 @@
         <v>2.7</v>
       </c>
       <c r="AN100">
-        <v>2.38</v>
+        <v>1.64</v>
       </c>
       <c r="AO100">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AP100">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ100">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR100">
-        <v>1.78</v>
+        <v>1.44</v>
       </c>
       <c r="AS100">
-        <v>1.08</v>
+        <v>1.15</v>
       </c>
       <c r="AT100">
-        <v>2.86</v>
+        <v>2.59</v>
       </c>
       <c r="AU100">
         <v>13</v>
@@ -22225,25 +22225,25 @@
         <v>1.05</v>
       </c>
       <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
+        <v>2.21</v>
+      </c>
+      <c r="AP101">
+        <v>1.03</v>
+      </c>
+      <c r="AQ101">
+        <v>2</v>
+      </c>
+      <c r="AR101">
         <v>1.14</v>
       </c>
-      <c r="AO101">
-        <v>2.25</v>
-      </c>
-      <c r="AP101">
-        <v>1.19</v>
-      </c>
-      <c r="AQ101">
-        <v>1.94</v>
-      </c>
-      <c r="AR101">
-        <v>1.3</v>
-      </c>
       <c r="AS101">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="AT101">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="AU101">
         <v>0</v>
@@ -22431,25 +22431,25 @@
         <v>1.62</v>
       </c>
       <c r="AN102">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AO102">
-        <v>0.14</v>
+        <v>0.71</v>
       </c>
       <c r="AP102">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ102">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR102">
         <v>1.05</v>
       </c>
       <c r="AS102">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="AT102">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -22637,25 +22637,25 @@
         <v>1.06</v>
       </c>
       <c r="AN103">
-        <v>2</v>
+        <v>0.93</v>
       </c>
       <c r="AO103">
-        <v>2</v>
+        <v>2.21</v>
       </c>
       <c r="AP103">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ103">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR103">
-        <v>1.29</v>
+        <v>1.06</v>
       </c>
       <c r="AS103">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="AT103">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="AU103">
         <v>6</v>
@@ -22843,25 +22843,25 @@
         <v>1.78</v>
       </c>
       <c r="AN104">
-        <v>1.71</v>
+        <v>1.07</v>
       </c>
       <c r="AO104">
-        <v>1.67</v>
+        <v>1.21</v>
       </c>
       <c r="AP104">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ104">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR104">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AS104">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AT104">
-        <v>2.44</v>
+        <v>2.51</v>
       </c>
       <c r="AU104">
         <v>6</v>
@@ -23049,25 +23049,25 @@
         <v>1.04</v>
       </c>
       <c r="AN105">
-        <v>1.25</v>
+        <v>0.79</v>
       </c>
       <c r="AO105">
-        <v>1.67</v>
+        <v>2.29</v>
       </c>
       <c r="AP105">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR105">
-        <v>1.39</v>
+        <v>1.15</v>
       </c>
       <c r="AS105">
-        <v>1.19</v>
+        <v>1.58</v>
       </c>
       <c r="AT105">
-        <v>2.58</v>
+        <v>2.73</v>
       </c>
       <c r="AU105">
         <v>3</v>
@@ -23255,25 +23255,25 @@
         <v>1.09</v>
       </c>
       <c r="AN106">
-        <v>1.67</v>
+        <v>1.07</v>
       </c>
       <c r="AO106">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ106">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR106">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AS106">
-        <v>1.59</v>
+        <v>1.73</v>
       </c>
       <c r="AT106">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="AU106">
         <v>2</v>
@@ -23461,25 +23461,25 @@
         <v>1.33</v>
       </c>
       <c r="AN107">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AO107">
-        <v>0.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP107">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>0.98</v>
+        <v>1.52</v>
       </c>
       <c r="AT107">
-        <v>2.18</v>
+        <v>2.72</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23667,25 +23667,25 @@
         <v>1.07</v>
       </c>
       <c r="AN108">
-        <v>1.57</v>
+        <v>1.13</v>
       </c>
       <c r="AO108">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AP108">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ108">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR108">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AS108">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="AT108">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23873,25 +23873,25 @@
         <v>6</v>
       </c>
       <c r="AN109">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AO109">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP109">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ109">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR109">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="AS109">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="AT109">
-        <v>2.96</v>
+        <v>3.02</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -24079,25 +24079,25 @@
         <v>3.7</v>
       </c>
       <c r="AN110">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="AO110">
-        <v>0.43</v>
+        <v>1</v>
       </c>
       <c r="AP110">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ110">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR110">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="AS110">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AT110">
-        <v>3.23</v>
+        <v>2.99</v>
       </c>
       <c r="AU110">
         <v>10</v>
@@ -24285,25 +24285,25 @@
         <v>4.4</v>
       </c>
       <c r="AN111">
-        <v>2.17</v>
+        <v>2.27</v>
       </c>
       <c r="AO111">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AP111">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR111">
-        <v>1.92</v>
+        <v>1.75</v>
       </c>
       <c r="AS111">
         <v>1.06</v>
       </c>
       <c r="AT111">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="AU111">
         <v>7</v>
@@ -24491,25 +24491,25 @@
         <v>1.63</v>
       </c>
       <c r="AN112">
-        <v>1.29</v>
+        <v>0.73</v>
       </c>
       <c r="AO112">
-        <v>0.33</v>
+        <v>0.93</v>
       </c>
       <c r="AP112">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AQ112">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR112">
-        <v>1.56</v>
+        <v>1.33</v>
       </c>
       <c r="AS112">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="AT112">
-        <v>2.49</v>
+        <v>2.4</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24697,25 +24697,25 @@
         <v>2.05</v>
       </c>
       <c r="AN113">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AO113">
-        <v>0.17</v>
+        <v>0.73</v>
       </c>
       <c r="AP113">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ113">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR113">
         <v>1.09</v>
       </c>
       <c r="AS113">
-        <v>0.83</v>
+        <v>1.13</v>
       </c>
       <c r="AT113">
-        <v>1.92</v>
+        <v>2.22</v>
       </c>
       <c r="AU113">
         <v>8</v>
@@ -24903,25 +24903,25 @@
         <v>1.55</v>
       </c>
       <c r="AN114">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO114">
-        <v>0.63</v>
+        <v>1.19</v>
       </c>
       <c r="AP114">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ114">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR114">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AS114">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AT114">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -25109,25 +25109,25 @@
         <v>1.75</v>
       </c>
       <c r="AN115">
-        <v>1.83</v>
+        <v>0.88</v>
       </c>
       <c r="AO115">
-        <v>0.14</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP115">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ115">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR115">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="AS115">
-        <v>0.86</v>
+        <v>1.12</v>
       </c>
       <c r="AT115">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25315,25 +25315,25 @@
         <v>4.5</v>
       </c>
       <c r="AN116">
-        <v>2.29</v>
+        <v>2.31</v>
       </c>
       <c r="AO116">
-        <v>0.25</v>
+        <v>0.88</v>
       </c>
       <c r="AP116">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR116">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="AS116">
-        <v>1.12</v>
+        <v>1.34</v>
       </c>
       <c r="AT116">
-        <v>2.99</v>
+        <v>3.08</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25521,25 +25521,25 @@
         <v>1.5</v>
       </c>
       <c r="AN117">
-        <v>0.71</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO117">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="AP117">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ117">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR117">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AS117">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AT117">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25727,25 +25727,25 @@
         <v>1.25</v>
       </c>
       <c r="AN118">
+        <v>1.5</v>
+      </c>
+      <c r="AO118">
+        <v>2.38</v>
+      </c>
+      <c r="AP118">
+        <v>1.53</v>
+      </c>
+      <c r="AQ118">
         <v>2.22</v>
       </c>
-      <c r="AO118">
-        <v>1.86</v>
-      </c>
-      <c r="AP118">
-        <v>1.72</v>
-      </c>
-      <c r="AQ118">
-        <v>2</v>
-      </c>
       <c r="AR118">
-        <v>1.89</v>
+        <v>1.51</v>
       </c>
       <c r="AS118">
-        <v>1.34</v>
+        <v>1.65</v>
       </c>
       <c r="AT118">
-        <v>3.23</v>
+        <v>3.16</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25933,25 +25933,25 @@
         <v>1.55</v>
       </c>
       <c r="AN119">
-        <v>2.25</v>
+        <v>2.06</v>
       </c>
       <c r="AO119">
-        <v>1.88</v>
+        <v>2.19</v>
       </c>
       <c r="AP119">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ119">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR119">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="AS119">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AT119">
-        <v>3.71</v>
+        <v>3.63</v>
       </c>
       <c r="AU119">
         <v>5</v>
@@ -26139,25 +26139,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO120">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AP120">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ120">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR120">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="AS120">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="AT120">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26345,22 +26345,22 @@
         <v>1.72</v>
       </c>
       <c r="AN121">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AO121">
-        <v>0.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AP121">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ121">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR121">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="AS121">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AT121">
         <v>2.56</v>
@@ -26551,22 +26551,22 @@
         <v>1.72</v>
       </c>
       <c r="AN122">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="AO122">
-        <v>0.3</v>
+        <v>0.88</v>
       </c>
       <c r="AP122">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ122">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR122">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AS122">
-        <v>0.96</v>
+        <v>1.07</v>
       </c>
       <c r="AT122">
         <v>2.22</v>
@@ -26757,25 +26757,25 @@
         <v>1.44</v>
       </c>
       <c r="AN123">
-        <v>1.5</v>
+        <v>0.82</v>
       </c>
       <c r="AO123">
-        <v>0.57</v>
+        <v>1.59</v>
       </c>
       <c r="AP123">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AQ123">
+        <v>1.53</v>
+      </c>
+      <c r="AR123">
         <v>1.33</v>
       </c>
-      <c r="AR123">
-        <v>1.56</v>
-      </c>
       <c r="AS123">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="AT123">
-        <v>2.57</v>
+        <v>2.81</v>
       </c>
       <c r="AU123">
         <v>4</v>
@@ -26963,25 +26963,25 @@
         <v>1.01</v>
       </c>
       <c r="AN124">
-        <v>1.11</v>
+        <v>0.71</v>
       </c>
       <c r="AO124">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AP124">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ124">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR124">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AS124">
-        <v>1.61</v>
+        <v>1.69</v>
       </c>
       <c r="AT124">
-        <v>2.93</v>
+        <v>2.82</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -27169,25 +27169,25 @@
         <v>1.87</v>
       </c>
       <c r="AN125">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AO125">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="AP125">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ125">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR125">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AS125">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="AT125">
-        <v>2.18</v>
+        <v>2.29</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -27375,25 +27375,25 @@
         <v>1.83</v>
       </c>
       <c r="AN126">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="AO126">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="AP126">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ126">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR126">
-        <v>1.94</v>
+        <v>1.86</v>
       </c>
       <c r="AS126">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="AT126">
-        <v>3.57</v>
+        <v>3.59</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27581,25 +27581,25 @@
         <v>4.85</v>
       </c>
       <c r="AN127">
-        <v>2.78</v>
+        <v>2.24</v>
       </c>
       <c r="AO127">
-        <v>0.44</v>
+        <v>0.71</v>
       </c>
       <c r="AP127">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ127">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR127">
-        <v>1.89</v>
+        <v>1.62</v>
       </c>
       <c r="AS127">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AT127">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="AU127">
         <v>11</v>
@@ -27787,25 +27787,25 @@
         <v>1.72</v>
       </c>
       <c r="AN128">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="AO128">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AP128">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ128">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR128">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AS128">
-        <v>0.92</v>
+        <v>1.12</v>
       </c>
       <c r="AT128">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="AU128">
         <v>8</v>
@@ -27993,25 +27993,25 @@
         <v>1.8</v>
       </c>
       <c r="AN129">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO129">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AP129">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ129">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR129">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="AS129">
-        <v>0.97</v>
+        <v>1.07</v>
       </c>
       <c r="AT129">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="AU129">
         <v>4</v>
@@ -28199,25 +28199,25 @@
         <v>1.81</v>
       </c>
       <c r="AN130">
-        <v>1.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AO130">
-        <v>0.22</v>
+        <v>0.78</v>
       </c>
       <c r="AP130">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ130">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR130">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AS130">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT130">
-        <v>2.56</v>
+        <v>2.74</v>
       </c>
       <c r="AU130">
         <v>2</v>
@@ -28405,25 +28405,25 @@
         <v>1.14</v>
       </c>
       <c r="AN131">
-        <v>0.89</v>
+        <v>0.78</v>
       </c>
       <c r="AO131">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="AP131">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ131">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR131">
-        <v>1.19</v>
+        <v>1.1</v>
       </c>
       <c r="AS131">
-        <v>1.32</v>
+        <v>1.67</v>
       </c>
       <c r="AT131">
-        <v>2.51</v>
+        <v>2.77</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28611,25 +28611,25 @@
         <v>1.1</v>
       </c>
       <c r="AN132">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="AO132">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP132">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ132">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR132">
         <v>1.13</v>
       </c>
       <c r="AS132">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="AT132">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28817,25 +28817,25 @@
         <v>3.7</v>
       </c>
       <c r="AN133">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="AO133">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AP133">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR133">
-        <v>1.85</v>
+        <v>1.69</v>
       </c>
       <c r="AS133">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AT133">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="AU133">
         <v>7</v>
@@ -29023,25 +29023,25 @@
         <v>1.22</v>
       </c>
       <c r="AN134">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="AO134">
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ134">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR134">
-        <v>1.81</v>
+        <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AT134">
-        <v>3.44</v>
+        <v>3.2</v>
       </c>
       <c r="AU134">
         <v>0</v>
@@ -29229,25 +29229,25 @@
         <v>1.65</v>
       </c>
       <c r="AN135">
-        <v>1.33</v>
+        <v>0.74</v>
       </c>
       <c r="AO135">
-        <v>0.78</v>
+        <v>1.26</v>
       </c>
       <c r="AP135">
+        <v>1.09</v>
+      </c>
+      <c r="AQ135">
+        <v>0.97</v>
+      </c>
+      <c r="AR135">
         <v>1.31</v>
       </c>
-      <c r="AQ135">
-        <v>0.78</v>
-      </c>
-      <c r="AR135">
-        <v>1.53</v>
-      </c>
       <c r="AS135">
-        <v>1.04</v>
+        <v>1.16</v>
       </c>
       <c r="AT135">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="AU135">
         <v>3</v>
@@ -29435,25 +29435,25 @@
         <v>1.72</v>
       </c>
       <c r="AN136">
-        <v>1.71</v>
+        <v>1.11</v>
       </c>
       <c r="AO136">
-        <v>0.67</v>
+        <v>0.74</v>
       </c>
       <c r="AP136">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ136">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR136">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="AS136">
-        <v>1.01</v>
+        <v>1.1</v>
       </c>
       <c r="AT136">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="AU136">
         <v>7</v>
@@ -29641,25 +29641,25 @@
         <v>1.22</v>
       </c>
       <c r="AN137">
-        <v>1</v>
+        <v>0.63</v>
       </c>
       <c r="AO137">
-        <v>0.88</v>
+        <v>1.58</v>
       </c>
       <c r="AP137">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ137">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR137">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AS137">
-        <v>1.11</v>
+        <v>1.45</v>
       </c>
       <c r="AT137">
-        <v>2.38</v>
+        <v>2.58</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -29847,25 +29847,25 @@
         <v>3.6</v>
       </c>
       <c r="AN138">
-        <v>2.33</v>
+        <v>2.21</v>
       </c>
       <c r="AO138">
-        <v>0.44</v>
+        <v>1.05</v>
       </c>
       <c r="AP138">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ138">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR138">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="AS138">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AT138">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="AU138">
         <v>9</v>
@@ -30053,25 +30053,25 @@
         <v>1.74</v>
       </c>
       <c r="AN139">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="AO139">
-        <v>0.89</v>
+        <v>1.21</v>
       </c>
       <c r="AP139">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ139">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR139">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="AS139">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AT139">
-        <v>2.35</v>
+        <v>2.31</v>
       </c>
       <c r="AU139">
         <v>7</v>
@@ -30259,25 +30259,25 @@
         <v>4.2</v>
       </c>
       <c r="AN140">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AO140">
-        <v>0.4</v>
+        <v>0.63</v>
       </c>
       <c r="AP140">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ140">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR140">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="AS140">
-        <v>0.99</v>
+        <v>1.07</v>
       </c>
       <c r="AT140">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU140">
         <v>9</v>
@@ -30465,25 +30465,25 @@
         <v>1.63</v>
       </c>
       <c r="AN141">
-        <v>2.8</v>
+        <v>2.32</v>
       </c>
       <c r="AO141">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="AP141">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ141">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR141">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AS141">
-        <v>1.56</v>
+        <v>1.69</v>
       </c>
       <c r="AT141">
-        <v>3.51</v>
+        <v>3.36</v>
       </c>
       <c r="AU141">
         <v>6</v>
@@ -30671,25 +30671,25 @@
         <v>1.62</v>
       </c>
       <c r="AN142">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="AO142">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="AP142">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ142">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR142">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AS142">
-        <v>1.11</v>
+        <v>1.32</v>
       </c>
       <c r="AT142">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30877,25 +30877,25 @@
         <v>1.35</v>
       </c>
       <c r="AN143">
-        <v>1.63</v>
+        <v>1.1</v>
       </c>
       <c r="AO143">
-        <v>1.11</v>
+        <v>1.65</v>
       </c>
       <c r="AP143">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ143">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR143">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AS143">
-        <v>1.09</v>
+        <v>1.42</v>
       </c>
       <c r="AT143">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="AU143">
         <v>8</v>
@@ -31083,25 +31083,25 @@
         <v>2.1</v>
       </c>
       <c r="AN144">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO144">
-        <v>0.22</v>
+        <v>0.6</v>
       </c>
       <c r="AP144">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ144">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR144">
         <v>1.36</v>
       </c>
       <c r="AS144">
-        <v>0.97</v>
+        <v>1.12</v>
       </c>
       <c r="AT144">
-        <v>2.33</v>
+        <v>2.48</v>
       </c>
       <c r="AU144">
         <v>4</v>
@@ -31289,25 +31289,25 @@
         <v>1.57</v>
       </c>
       <c r="AN145">
-        <v>0.89</v>
+        <v>0.6</v>
       </c>
       <c r="AO145">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AP145">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ145">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR145">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="AS145">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AT145">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="AU145">
         <v>9</v>
@@ -31495,25 +31495,25 @@
         <v>4.3</v>
       </c>
       <c r="AN146">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="AO146">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AP146">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ146">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR146">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="AS146">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="AT146">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="AU146">
         <v>8</v>
@@ -31701,25 +31701,25 @@
         <v>1.12</v>
       </c>
       <c r="AN147">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="AO147">
-        <v>1.78</v>
+        <v>2.35</v>
       </c>
       <c r="AP147">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ147">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR147">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AS147">
-        <v>1.35</v>
+        <v>1.66</v>
       </c>
       <c r="AT147">
-        <v>2.47</v>
+        <v>2.79</v>
       </c>
       <c r="AU147">
         <v>0</v>
@@ -31907,25 +31907,25 @@
         <v>1.57</v>
       </c>
       <c r="AN148">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="AO148">
         <v>2.1</v>
       </c>
       <c r="AP148">
+        <v>2</v>
+      </c>
+      <c r="AQ148">
         <v>2.06</v>
       </c>
-      <c r="AQ148">
-        <v>1.78</v>
-      </c>
       <c r="AR148">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="AS148">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT148">
-        <v>3.43</v>
+        <v>3.36</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -32113,25 +32113,25 @@
         <v>3.75</v>
       </c>
       <c r="AN149">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AO149">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AP149">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ149">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR149">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AS149">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AT149">
-        <v>3.16</v>
+        <v>3.03</v>
       </c>
       <c r="AU149">
         <v>11</v>
@@ -32319,25 +32319,25 @@
         <v>1.22</v>
       </c>
       <c r="AN150">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AO150">
-        <v>1.1</v>
+        <v>1.62</v>
       </c>
       <c r="AP150">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ150">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR150">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="AS150">
-        <v>1.1</v>
+        <v>1.41</v>
       </c>
       <c r="AT150">
-        <v>2.39</v>
+        <v>2.53</v>
       </c>
       <c r="AU150">
         <v>3</v>
@@ -32525,25 +32525,25 @@
         <v>1.65</v>
       </c>
       <c r="AN151">
-        <v>1.2</v>
+        <v>0.71</v>
       </c>
       <c r="AO151">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="AP151">
+        <v>1.09</v>
+      </c>
+      <c r="AQ151">
+        <v>1.03</v>
+      </c>
+      <c r="AR151">
         <v>1.31</v>
       </c>
-      <c r="AQ151">
-        <v>0.75</v>
-      </c>
-      <c r="AR151">
-        <v>1.52</v>
-      </c>
       <c r="AS151">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="AT151">
-        <v>2.66</v>
+        <v>2.41</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32731,25 +32731,25 @@
         <v>1.68</v>
       </c>
       <c r="AN152">
-        <v>0.91</v>
+        <v>0.71</v>
       </c>
       <c r="AO152">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="AP152">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ152">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR152">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AS152">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT152">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="AU152">
         <v>4</v>
@@ -32937,25 +32937,25 @@
         <v>1.07</v>
       </c>
       <c r="AN153">
-        <v>1.56</v>
+        <v>1.1</v>
       </c>
       <c r="AO153">
-        <v>2</v>
+        <v>2.24</v>
       </c>
       <c r="AP153">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ153">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR153">
-        <v>1.31</v>
+        <v>1.14</v>
       </c>
       <c r="AS153">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="AT153">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
       <c r="AU153">
         <v>3</v>
@@ -33143,25 +33143,25 @@
         <v>1.55</v>
       </c>
       <c r="AN154">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AO154">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AP154">
+        <v>0.97</v>
+      </c>
+      <c r="AQ154">
+        <v>1.15</v>
+      </c>
+      <c r="AR154">
+        <v>1.21</v>
+      </c>
+      <c r="AS154">
         <v>1.17</v>
       </c>
-      <c r="AQ154">
-        <v>1.19</v>
-      </c>
-      <c r="AR154">
-        <v>1.27</v>
-      </c>
-      <c r="AS154">
-        <v>1.12</v>
-      </c>
       <c r="AT154">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33349,25 +33349,25 @@
         <v>1.57</v>
       </c>
       <c r="AN155">
-        <v>2.82</v>
+        <v>2.38</v>
       </c>
       <c r="AO155">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="AP155">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ155">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR155">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="AS155">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AT155">
-        <v>3.73</v>
+        <v>3.57</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33555,25 +33555,25 @@
         <v>1.36</v>
       </c>
       <c r="AN156">
-        <v>1.36</v>
+        <v>1.05</v>
       </c>
       <c r="AO156">
-        <v>1.09</v>
+        <v>1.59</v>
       </c>
       <c r="AP156">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ156">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR156">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AS156">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="AT156">
-        <v>2.15</v>
+        <v>2.53</v>
       </c>
       <c r="AU156">
         <v>2</v>
@@ -33761,25 +33761,25 @@
         <v>3.4</v>
       </c>
       <c r="AN157">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AO157">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AP157">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ157">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR157">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AS157">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AT157">
-        <v>2.99</v>
+        <v>2.87</v>
       </c>
       <c r="AU157">
         <v>7</v>
@@ -33967,25 +33967,25 @@
         <v>1.78</v>
       </c>
       <c r="AN158">
-        <v>0.82</v>
+        <v>0.77</v>
       </c>
       <c r="AO158">
-        <v>0.36</v>
+        <v>0.59</v>
       </c>
       <c r="AP158">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ158">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR158">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AS158">
-        <v>0.97</v>
+        <v>1.12</v>
       </c>
       <c r="AT158">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="AU158">
         <v>5</v>
@@ -34173,25 +34173,25 @@
         <v>4.75</v>
       </c>
       <c r="AN159">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="AO159">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="AP159">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ159">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR159">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="AS159">
-        <v>0.99</v>
+        <v>1.13</v>
       </c>
       <c r="AT159">
-        <v>2.93</v>
+        <v>2.98</v>
       </c>
       <c r="AU159">
         <v>13</v>
@@ -34379,25 +34379,25 @@
         <v>1.64</v>
       </c>
       <c r="AN160">
-        <v>2.67</v>
+        <v>2.32</v>
       </c>
       <c r="AO160">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AP160">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ160">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR160">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AS160">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AT160">
-        <v>3.44</v>
+        <v>3.39</v>
       </c>
       <c r="AU160">
         <v>5</v>
@@ -34585,25 +34585,25 @@
         <v>1.83</v>
       </c>
       <c r="AN161">
-        <v>1.45</v>
+        <v>0.91</v>
       </c>
       <c r="AO161">
-        <v>0.75</v>
+        <v>1.05</v>
       </c>
       <c r="AP161">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ161">
-        <v>0.63</v>
+        <v>1.15</v>
       </c>
       <c r="AR161">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="AS161">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="AT161">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="AU161">
         <v>6</v>
@@ -34791,25 +34791,25 @@
         <v>1.9</v>
       </c>
       <c r="AN162">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="AO162">
-        <v>0.27</v>
+        <v>0.82</v>
       </c>
       <c r="AP162">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AQ162">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR162">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AS162">
-        <v>1.12</v>
+        <v>1.31</v>
       </c>
       <c r="AT162">
-        <v>2.34</v>
+        <v>2.5</v>
       </c>
       <c r="AU162">
         <v>6</v>
@@ -34997,25 +34997,25 @@
         <v>1.11</v>
       </c>
       <c r="AN163">
-        <v>1.82</v>
+        <v>1.48</v>
       </c>
       <c r="AO163">
-        <v>2</v>
+        <v>2.26</v>
       </c>
       <c r="AP163">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ163">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR163">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
       <c r="AS163">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="AT163">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35203,25 +35203,25 @@
         <v>1.59</v>
       </c>
       <c r="AN164">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AO164">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AP164">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ164">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR164">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AS164">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT164">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU164">
         <v>3</v>
@@ -35409,25 +35409,25 @@
         <v>1.57</v>
       </c>
       <c r="AN165">
-        <v>0.82</v>
+        <v>0.7</v>
       </c>
       <c r="AO165">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="AP165">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ165">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR165">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AS165">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AT165">
-        <v>2.55</v>
+        <v>2.47</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35615,25 +35615,25 @@
         <v>1.07</v>
       </c>
       <c r="AN166">
-        <v>1.36</v>
+        <v>0.83</v>
       </c>
       <c r="AO166">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="AP166">
+        <v>1.09</v>
+      </c>
+      <c r="AQ166">
+        <v>2.22</v>
+      </c>
+      <c r="AR166">
         <v>1.31</v>
       </c>
-      <c r="AQ166">
-        <v>2</v>
-      </c>
-      <c r="AR166">
-        <v>1.5</v>
-      </c>
       <c r="AS166">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="AT166">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="AU166">
         <v>5</v>
@@ -35821,25 +35821,25 @@
         <v>3.75</v>
       </c>
       <c r="AN167">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="AO167">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AP167">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ167">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AR167">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AS167">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AT167">
-        <v>3.01</v>
+        <v>2.92</v>
       </c>
       <c r="AU167">
         <v>12</v>
@@ -36027,25 +36027,25 @@
         <v>2.65</v>
       </c>
       <c r="AN168">
-        <v>2.09</v>
+        <v>1.65</v>
       </c>
       <c r="AO168">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="AP168">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ168">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR168">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="AS168">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AT168">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AU168">
         <v>10</v>
@@ -36233,25 +36233,25 @@
         <v>4.3</v>
       </c>
       <c r="AN169">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="AO169">
-        <v>0.45</v>
+        <v>0.7</v>
       </c>
       <c r="AP169">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ169">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="AR169">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="AS169">
-        <v>0.92</v>
+        <v>1.09</v>
       </c>
       <c r="AT169">
-        <v>2.83</v>
+        <v>2.81</v>
       </c>
       <c r="AU169">
         <v>5</v>
@@ -36439,25 +36439,25 @@
         <v>2</v>
       </c>
       <c r="AN170">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AO170">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="AP170">
+        <v>1.15</v>
+      </c>
+      <c r="AQ170">
+        <v>0.79</v>
+      </c>
+      <c r="AR170">
+        <v>1.21</v>
+      </c>
+      <c r="AS170">
         <v>1.12</v>
       </c>
-      <c r="AQ170">
-        <v>0.76</v>
-      </c>
-      <c r="AR170">
-        <v>1.28</v>
-      </c>
-      <c r="AS170">
-        <v>0.98</v>
-      </c>
       <c r="AT170">
-        <v>2.26</v>
+        <v>2.33</v>
       </c>
       <c r="AU170">
         <v>10</v>
@@ -36645,25 +36645,25 @@
         <v>1.47</v>
       </c>
       <c r="AN171">
-        <v>0.75</v>
+        <v>0.71</v>
       </c>
       <c r="AO171">
-        <v>0.42</v>
+        <v>1</v>
       </c>
       <c r="AP171">
-        <v>1.19</v>
+        <v>1.03</v>
       </c>
       <c r="AQ171">
-        <v>0.5</v>
+        <v>1.06</v>
       </c>
       <c r="AR171">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="AS171">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="AT171">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="AU171">
         <v>5</v>
@@ -36851,25 +36851,25 @@
         <v>1.62</v>
       </c>
       <c r="AN172">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO172">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="AP172">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="AQ172">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR172">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AS172">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AT172">
-        <v>2.18</v>
+        <v>2.29</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37057,25 +37057,25 @@
         <v>1.06</v>
       </c>
       <c r="AN173">
-        <v>1.25</v>
+        <v>0.79</v>
       </c>
       <c r="AO173">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AP173">
-        <v>1.31</v>
+        <v>1.09</v>
       </c>
       <c r="AQ173">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR173">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AS173">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AT173">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="AU173">
         <v>3</v>
@@ -37263,25 +37263,25 @@
         <v>4.75</v>
       </c>
       <c r="AN174">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AO174">
-        <v>0.58</v>
+        <v>0.71</v>
       </c>
       <c r="AP174">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ174">
-        <v>0.59</v>
+        <v>0.7</v>
       </c>
       <c r="AR174">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AS174">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="AT174">
-        <v>3.08</v>
+        <v>3.05</v>
       </c>
       <c r="AU174">
         <v>6</v>
@@ -37469,25 +37469,25 @@
         <v>3.6</v>
       </c>
       <c r="AN175">
-        <v>1.36</v>
+        <v>1</v>
       </c>
       <c r="AO175">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AP175">
-        <v>1.65</v>
+        <v>1.15</v>
       </c>
       <c r="AQ175">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR175">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="AS175">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="AT175">
-        <v>2.76</v>
+        <v>2.81</v>
       </c>
       <c r="AU175">
         <v>4</v>
@@ -37675,25 +37675,25 @@
         <v>2.4</v>
       </c>
       <c r="AN176">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="AO176">
-        <v>1.25</v>
+        <v>1.71</v>
       </c>
       <c r="AP176">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ176">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR176">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="AS176">
-        <v>1.1</v>
+        <v>1.43</v>
       </c>
       <c r="AT176">
-        <v>2.98</v>
+        <v>3.14</v>
       </c>
       <c r="AU176">
         <v>7</v>
@@ -37881,25 +37881,25 @@
         <v>1.7</v>
       </c>
       <c r="AN177">
+        <v>0.96</v>
+      </c>
+      <c r="AO177">
+        <v>1.24</v>
+      </c>
+      <c r="AP177">
+        <v>1.15</v>
+      </c>
+      <c r="AQ177">
+        <v>1.15</v>
+      </c>
+      <c r="AR177">
+        <v>1.13</v>
+      </c>
+      <c r="AS177">
         <v>1.25</v>
       </c>
-      <c r="AO177">
-        <v>1.08</v>
-      </c>
-      <c r="AP177">
-        <v>1.65</v>
-      </c>
-      <c r="AQ177">
-        <v>1.19</v>
-      </c>
-      <c r="AR177">
-        <v>1.25</v>
-      </c>
-      <c r="AS177">
-        <v>1.14</v>
-      </c>
       <c r="AT177">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="AU177">
         <v>7</v>
@@ -38087,25 +38087,25 @@
         <v>1.6</v>
       </c>
       <c r="AN178">
-        <v>0.83</v>
+        <v>0.68</v>
       </c>
       <c r="AO178">
-        <v>0.75</v>
+        <v>1.08</v>
       </c>
       <c r="AP178">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="AQ178">
-        <v>0.75</v>
+        <v>1.03</v>
       </c>
       <c r="AR178">
-        <v>1.26</v>
+        <v>1.13</v>
       </c>
       <c r="AS178">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT178">
-        <v>2.42</v>
+        <v>2.25</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38293,25 +38293,25 @@
         <v>1.1</v>
       </c>
       <c r="AN179">
-        <v>1.58</v>
+        <v>0.96</v>
       </c>
       <c r="AO179">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="AP179">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="AQ179">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR179">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AS179">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AT179">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38499,25 +38499,25 @@
         <v>1.07</v>
       </c>
       <c r="AN180">
+        <v>1.36</v>
+      </c>
+      <c r="AO180">
+        <v>2.28</v>
+      </c>
+      <c r="AP180">
+        <v>0.97</v>
+      </c>
+      <c r="AQ180">
+        <v>2.22</v>
+      </c>
+      <c r="AR180">
+        <v>1.17</v>
+      </c>
+      <c r="AS180">
         <v>1.67</v>
       </c>
-      <c r="AO180">
-        <v>2.08</v>
-      </c>
-      <c r="AP180">
-        <v>1.17</v>
-      </c>
-      <c r="AQ180">
-        <v>2</v>
-      </c>
-      <c r="AR180">
-        <v>1.23</v>
-      </c>
-      <c r="AS180">
-        <v>1.49</v>
-      </c>
       <c r="AT180">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="AU180">
         <v>3</v>
@@ -38705,25 +38705,25 @@
         <v>1.68</v>
       </c>
       <c r="AN181">
-        <v>0.92</v>
+        <v>0.72</v>
       </c>
       <c r="AO181">
-        <v>0.33</v>
+        <v>0.76</v>
       </c>
       <c r="AP181">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="AQ181">
-        <v>0.88</v>
+        <v>1.09</v>
       </c>
       <c r="AR181">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AS181">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AT181">
-        <v>2.38</v>
+        <v>2.41</v>
       </c>
       <c r="AU181">
         <v>9</v>
@@ -38911,25 +38911,25 @@
         <v>1.13</v>
       </c>
       <c r="AN182">
+        <v>1.64</v>
+      </c>
+      <c r="AO182">
+        <v>2.32</v>
+      </c>
+      <c r="AP182">
+        <v>1.53</v>
+      </c>
+      <c r="AQ182">
         <v>2.17</v>
       </c>
-      <c r="AO182">
-        <v>2.08</v>
-      </c>
-      <c r="AP182">
-        <v>1.72</v>
-      </c>
-      <c r="AQ182">
-        <v>1.78</v>
-      </c>
       <c r="AR182">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="AS182">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
       <c r="AT182">
-        <v>3.52</v>
+        <v>3.33</v>
       </c>
       <c r="AU182">
         <v>6</v>
@@ -39117,25 +39117,25 @@
         <v>5</v>
       </c>
       <c r="AN183">
-        <v>2.25</v>
+        <v>2.16</v>
       </c>
       <c r="AO183">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="AP183">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ183">
-        <v>0.88</v>
+        <v>1.03</v>
       </c>
       <c r="AR183">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="AS183">
-        <v>0.97</v>
+        <v>1.09</v>
       </c>
       <c r="AT183">
-        <v>2.93</v>
+        <v>2.84</v>
       </c>
       <c r="AU183">
         <v>16</v>
@@ -39323,25 +39323,25 @@
         <v>1.06</v>
       </c>
       <c r="AN184">
-        <v>1.54</v>
+        <v>1.31</v>
       </c>
       <c r="AO184">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP184">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ184">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR184">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AS184">
-        <v>1.79</v>
+        <v>1.92</v>
       </c>
       <c r="AT184">
-        <v>2.97</v>
+        <v>3.06</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39529,25 +39529,25 @@
         <v>1.82</v>
       </c>
       <c r="AN185">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="AO185">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="AP185">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ185">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR185">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="AS185">
-        <v>1.55</v>
+        <v>1.71</v>
       </c>
       <c r="AT185">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39735,25 +39735,25 @@
         <v>2.68</v>
       </c>
       <c r="AN186">
-        <v>2.46</v>
+        <v>2.31</v>
       </c>
       <c r="AO186">
-        <v>1.15</v>
+        <v>1.62</v>
       </c>
       <c r="AP186">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ186">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR186">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AS186">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AT186">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -41589,25 +41589,25 @@
         <v>1.78</v>
       </c>
       <c r="AN195">
-        <v>2.31</v>
+        <v>2.19</v>
       </c>
       <c r="AO195">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="AP195">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ195">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR195">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="AS195">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="AT195">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="AU195">
         <v>8</v>
@@ -41795,25 +41795,25 @@
         <v>1.9</v>
       </c>
       <c r="AN196">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="AO196">
-        <v>2.08</v>
+        <v>2.11</v>
       </c>
       <c r="AP196">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ196">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR196">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="AS196">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="AT196">
-        <v>3.61</v>
+        <v>3.73</v>
       </c>
       <c r="AU196">
         <v>6</v>
@@ -42001,25 +42001,25 @@
         <v>2.7</v>
       </c>
       <c r="AN197">
-        <v>2.08</v>
+        <v>1.67</v>
       </c>
       <c r="AO197">
-        <v>1.08</v>
+        <v>1.26</v>
       </c>
       <c r="AP197">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ197">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR197">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="AS197">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="AT197">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="AU197">
         <v>10</v>
@@ -42207,25 +42207,25 @@
         <v>3</v>
       </c>
       <c r="AN198">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="AO198">
-        <v>1.29</v>
+        <v>1.71</v>
       </c>
       <c r="AP198">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ198">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR198">
-        <v>2.03</v>
+        <v>1.79</v>
       </c>
       <c r="AS198">
-        <v>1.07</v>
+        <v>1.4</v>
       </c>
       <c r="AT198">
-        <v>3.1</v>
+        <v>3.19</v>
       </c>
       <c r="AU198">
         <v>10</v>
@@ -42413,25 +42413,25 @@
         <v>4.33</v>
       </c>
       <c r="AN199">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="AO199">
-        <v>1</v>
+        <v>1.21</v>
       </c>
       <c r="AP199">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ199">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR199">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AS199">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AT199">
-        <v>2.89</v>
+        <v>2.8</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42619,25 +42619,25 @@
         <v>1.52</v>
       </c>
       <c r="AN200">
-        <v>2.14</v>
+        <v>2.11</v>
       </c>
       <c r="AO200">
-        <v>2.07</v>
+        <v>2.32</v>
       </c>
       <c r="AP200">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ200">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR200">
-        <v>1.89</v>
+        <v>1.71</v>
       </c>
       <c r="AS200">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AT200">
-        <v>3.7</v>
+        <v>3.62</v>
       </c>
       <c r="AU200">
         <v>6</v>
@@ -43649,25 +43649,25 @@
         <v>1.02</v>
       </c>
       <c r="AN205">
-        <v>1.43</v>
+        <v>1.17</v>
       </c>
       <c r="AO205">
-        <v>1.93</v>
+        <v>2.07</v>
       </c>
       <c r="AP205">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ205">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR205">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AS205">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="AT205">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="AU205">
         <v>3</v>
@@ -43855,25 +43855,25 @@
         <v>1.28</v>
       </c>
       <c r="AN206">
+        <v>1.66</v>
+      </c>
+      <c r="AO206">
         <v>2.14</v>
       </c>
-      <c r="AO206">
-        <v>2.07</v>
-      </c>
       <c r="AP206">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ206">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR206">
-        <v>1.73</v>
+        <v>1.37</v>
       </c>
       <c r="AS206">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AT206">
-        <v>3.27</v>
+        <v>3.07</v>
       </c>
       <c r="AU206">
         <v>6</v>
@@ -44061,25 +44061,25 @@
         <v>1.92</v>
       </c>
       <c r="AN207">
-        <v>2.57</v>
+        <v>2.24</v>
       </c>
       <c r="AO207">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="AP207">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ207">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR207">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AS207">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AT207">
-        <v>3.59</v>
+        <v>3.6</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -45091,25 +45091,25 @@
         <v>5</v>
       </c>
       <c r="AN212">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="AO212">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="AP212">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ212">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR212">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AS212">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="AT212">
-        <v>2.91</v>
+        <v>2.76</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45297,25 +45297,25 @@
         <v>4</v>
       </c>
       <c r="AN213">
-        <v>2.47</v>
+        <v>2.2</v>
       </c>
       <c r="AO213">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AP213">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ213">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR213">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="AS213">
-        <v>1.03</v>
+        <v>1.39</v>
       </c>
       <c r="AT213">
-        <v>2.98</v>
+        <v>3.27</v>
       </c>
       <c r="AU213">
         <v>9</v>
@@ -46327,25 +46327,25 @@
         <v>1.03</v>
       </c>
       <c r="AN218">
-        <v>1.33</v>
+        <v>1.1</v>
       </c>
       <c r="AO218">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AP218">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ218">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR218">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="AS218">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="AT218">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="AU218">
         <v>6</v>
@@ -46533,25 +46533,25 @@
         <v>1.09</v>
       </c>
       <c r="AN219">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="AO219">
-        <v>1.93</v>
+        <v>2.23</v>
       </c>
       <c r="AP219">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ219">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR219">
-        <v>1.74</v>
+        <v>1.36</v>
       </c>
       <c r="AS219">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="AT219">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46739,25 +46739,25 @@
         <v>1.98</v>
       </c>
       <c r="AN220">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AO220">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="AP220">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ220">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR220">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="AS220">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AT220">
-        <v>3.57</v>
+        <v>3.48</v>
       </c>
       <c r="AU220">
         <v>5</v>
@@ -46945,25 +46945,25 @@
         <v>1.02</v>
       </c>
       <c r="AN221">
-        <v>1.25</v>
+        <v>1.06</v>
       </c>
       <c r="AO221">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="AP221">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ221">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR221">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AS221">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="AT221">
-        <v>2.62</v>
+        <v>2.73</v>
       </c>
       <c r="AU221">
         <v>3</v>
@@ -47151,25 +47151,25 @@
         <v>1.18</v>
       </c>
       <c r="AN222">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AO222">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AP222">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ222">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR222">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="AS222">
-        <v>1.59</v>
+        <v>1.79</v>
       </c>
       <c r="AT222">
-        <v>3.28</v>
+        <v>3.14</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47357,25 +47357,25 @@
         <v>1.92</v>
       </c>
       <c r="AN223">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AO223">
-        <v>2.19</v>
+        <v>2.22</v>
       </c>
       <c r="AP223">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ223">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR223">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="AS223">
-        <v>1.54</v>
+        <v>1.7</v>
       </c>
       <c r="AT223">
-        <v>3.5</v>
+        <v>3.63</v>
       </c>
       <c r="AU223">
         <v>9</v>
@@ -48387,25 +48387,25 @@
         <v>6</v>
       </c>
       <c r="AN228">
-        <v>2.25</v>
+        <v>2.09</v>
       </c>
       <c r="AO228">
-        <v>0.88</v>
+        <v>1.06</v>
       </c>
       <c r="AP228">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ228">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR228">
-        <v>1.97</v>
+        <v>1.8</v>
       </c>
       <c r="AS228">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AT228">
-        <v>3.02</v>
+        <v>2.88</v>
       </c>
       <c r="AU228">
         <v>11</v>
@@ -48593,25 +48593,25 @@
         <v>1.5</v>
       </c>
       <c r="AN229">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="AO229">
-        <v>2</v>
+        <v>2.27</v>
       </c>
       <c r="AP229">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ229">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR229">
-        <v>1.81</v>
+        <v>1.65</v>
       </c>
       <c r="AS229">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="AT229">
-        <v>3.71</v>
+        <v>3.57</v>
       </c>
       <c r="AU229">
         <v>6</v>
@@ -48799,25 +48799,25 @@
         <v>3.4</v>
       </c>
       <c r="AN230">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AO230">
-        <v>1.13</v>
+        <v>1.48</v>
       </c>
       <c r="AP230">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="AQ230">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR230">
-        <v>1.87</v>
+        <v>1.68</v>
       </c>
       <c r="AS230">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="AT230">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="AU230">
         <v>7</v>
@@ -49829,25 +49829,25 @@
         <v>1.69</v>
       </c>
       <c r="AN235">
-        <v>2.38</v>
+        <v>2.15</v>
       </c>
       <c r="AO235">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="AP235">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ235">
-        <v>1.78</v>
+        <v>2.06</v>
       </c>
       <c r="AR235">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AS235">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="AT235">
-        <v>3.41</v>
+        <v>3.46</v>
       </c>
       <c r="AU235">
         <v>3</v>
@@ -50035,25 +50035,25 @@
         <v>1.28</v>
       </c>
       <c r="AN236">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
       <c r="AO236">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AP236">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
       <c r="AQ236">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="AR236">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AS236">
-        <v>1</v>
+        <v>1.34</v>
       </c>
       <c r="AT236">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="AU236">
         <v>6</v>
@@ -50241,25 +50241,25 @@
         <v>1.72</v>
       </c>
       <c r="AN237">
-        <v>2.41</v>
+        <v>2.18</v>
       </c>
       <c r="AO237">
-        <v>2.06</v>
+        <v>2.09</v>
       </c>
       <c r="AP237">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="AQ237">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AR237">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="AS237">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="AT237">
-        <v>3.22</v>
+        <v>3.31</v>
       </c>
       <c r="AU237">
         <v>7</v>
@@ -50447,25 +50447,25 @@
         <v>1.55</v>
       </c>
       <c r="AN238">
-        <v>2.29</v>
+        <v>2.06</v>
       </c>
       <c r="AO238">
-        <v>1.88</v>
+        <v>2.21</v>
       </c>
       <c r="AP238">
-        <v>2.33</v>
+        <v>2.06</v>
       </c>
       <c r="AQ238">
-        <v>1.78</v>
+        <v>2.17</v>
       </c>
       <c r="AR238">
-        <v>1.99</v>
+        <v>1.8</v>
       </c>
       <c r="AS238">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="AT238">
-        <v>3.86</v>
+        <v>3.71</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50653,25 +50653,25 @@
         <v>1.17</v>
       </c>
       <c r="AN239">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="AO239">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="AP239">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="AQ239">
-        <v>2</v>
+        <v>2.22</v>
       </c>
       <c r="AR239">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="AS239">
-        <v>1.51</v>
+        <v>1.61</v>
       </c>
       <c r="AT239">
-        <v>3.19</v>
+        <v>2.95</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -50859,25 +50859,25 @@
         <v>8.6</v>
       </c>
       <c r="AN240">
-        <v>2.53</v>
+        <v>2.14</v>
       </c>
       <c r="AO240">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="AP240">
-        <v>2.56</v>
+        <v>2.17</v>
       </c>
       <c r="AQ240">
-        <v>0.78</v>
+        <v>0.97</v>
       </c>
       <c r="AR240">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="AS240">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AT240">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="AU240">
         <v>8</v>
@@ -51065,25 +51065,25 @@
         <v>1.58</v>
       </c>
       <c r="AN241">
-        <v>2.12</v>
+        <v>2.03</v>
       </c>
       <c r="AO241">
-        <v>1.82</v>
+        <v>2.09</v>
       </c>
       <c r="AP241">
+        <v>2</v>
+      </c>
+      <c r="AQ241">
         <v>2.06</v>
       </c>
-      <c r="AQ241">
-        <v>1.78</v>
-      </c>
       <c r="AR241">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="AS241">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="AT241">
-        <v>3.5</v>
+        <v>3.47</v>
       </c>
       <c r="AU241">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -1837,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ2">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ3">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2249,10 +2249,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ4">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ5">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2661,10 +2661,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ6">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2864,22 +2864,22 @@
         <v>0</v>
       </c>
       <c r="AO7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ7">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR7">
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AT7">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AU7">
         <v>8</v>
@@ -3070,22 +3070,22 @@
         <v>0</v>
       </c>
       <c r="AO8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ8">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AT8">
-        <v>2.31</v>
+        <v>0</v>
       </c>
       <c r="AU8">
         <v>5</v>
@@ -3276,22 +3276,22 @@
         <v>0</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ9">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AT9">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>9</v>
@@ -3485,10 +3485,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ10">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3685,25 +3685,25 @@
         <v>1.22</v>
       </c>
       <c r="AN11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.51</v>
       </c>
       <c r="AT11">
-        <v>3.22</v>
+        <v>1.51</v>
       </c>
       <c r="AU11">
         <v>4</v>
@@ -3897,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ12">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR12">
         <v>1.83</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ13">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>2.47</v>
@@ -4309,19 +4309,19 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ14">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR14">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AS14">
         <v>0.44</v>
       </c>
       <c r="AT14">
-        <v>1.11</v>
+        <v>0.44</v>
       </c>
       <c r="AU14">
         <v>6</v>
@@ -4509,25 +4509,25 @@
         <v>1.5</v>
       </c>
       <c r="AN15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ15">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR15">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AT15">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4718,22 +4718,22 @@
         <v>0</v>
       </c>
       <c r="AO16">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ16">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR16">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AS16">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="AT16">
-        <v>2.28</v>
+        <v>0.79</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4924,22 +4924,22 @@
         <v>3</v>
       </c>
       <c r="AO17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR17">
         <v>2.51</v>
       </c>
       <c r="AS17">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="AT17">
-        <v>3.81</v>
+        <v>4.22</v>
       </c>
       <c r="AU17">
         <v>9</v>
@@ -5127,25 +5127,25 @@
         <v>1.17</v>
       </c>
       <c r="AN18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ18">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR18">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="AS18">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>3.76</v>
+        <v>1.52</v>
       </c>
       <c r="AU18">
         <v>3</v>
@@ -5333,25 +5333,25 @@
         <v>1.01</v>
       </c>
       <c r="AN19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ19">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR19">
-        <v>0.87</v>
+        <v>1.21</v>
       </c>
       <c r="AS19">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>4</v>
+        <v>1.21</v>
       </c>
       <c r="AU19">
         <v>6</v>
@@ -5539,25 +5539,25 @@
         <v>1.12</v>
       </c>
       <c r="AN20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR20">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="AS20">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>2.9</v>
+        <v>1.39</v>
       </c>
       <c r="AU20">
         <v>4</v>
@@ -5745,25 +5745,25 @@
         <v>1.45</v>
       </c>
       <c r="AN21">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ21">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
-        <v>1.26</v>
+        <v>0.89</v>
       </c>
       <c r="AS21">
-        <v>1.52</v>
+        <v>2.1</v>
       </c>
       <c r="AT21">
-        <v>2.78</v>
+        <v>2.99</v>
       </c>
       <c r="AU21">
         <v>2</v>
@@ -5957,19 +5957,19 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ22">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR22">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AT22">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="AU22">
         <v>4</v>
@@ -6157,25 +6157,25 @@
         <v>1.75</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ23">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR23">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AS23">
-        <v>1.17</v>
+        <v>0.95</v>
       </c>
       <c r="AT23">
-        <v>2.21</v>
+        <v>2.12</v>
       </c>
       <c r="AU23">
         <v>7</v>
@@ -6363,25 +6363,25 @@
         <v>1.78</v>
       </c>
       <c r="AN24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AP24">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ24">
+        <v>0.63</v>
+      </c>
+      <c r="AR24">
+        <v>1.19</v>
+      </c>
+      <c r="AS24">
         <v>0.79</v>
       </c>
-      <c r="AQ24">
-        <v>1.15</v>
-      </c>
-      <c r="AR24">
-        <v>0.84</v>
-      </c>
-      <c r="AS24">
-        <v>0.99</v>
-      </c>
       <c r="AT24">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="AU24">
         <v>7</v>
@@ -6569,25 +6569,25 @@
         <v>2.55</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ25">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="AS25">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AT25">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="AU25">
         <v>6</v>
@@ -6775,25 +6775,25 @@
         <v>1.87</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ26">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR26">
-        <v>2.47</v>
+        <v>3.13</v>
       </c>
       <c r="AS26">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>4.83</v>
+        <v>3.13</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6984,22 +6984,22 @@
         <v>0</v>
       </c>
       <c r="AO27">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ27">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR27">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>0.95</v>
+        <v>0.52</v>
       </c>
       <c r="AT27">
-        <v>2.06</v>
+        <v>0.52</v>
       </c>
       <c r="AU27">
         <v>3</v>
@@ -7187,25 +7187,25 @@
         <v>1.87</v>
       </c>
       <c r="AN28">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="AO28">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ28">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="AS28">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AT28">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="AU28">
         <v>6</v>
@@ -7393,25 +7393,25 @@
         <v>1.68</v>
       </c>
       <c r="AN29">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AO29">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ29">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR29">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="AS29">
-        <v>1.14</v>
+        <v>1.44</v>
       </c>
       <c r="AT29">
-        <v>2.15</v>
+        <v>2.82</v>
       </c>
       <c r="AU29">
         <v>9</v>
@@ -7599,25 +7599,25 @@
         <v>5.5</v>
       </c>
       <c r="AN30">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ30">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR30">
-        <v>2</v>
+        <v>2.36</v>
       </c>
       <c r="AS30">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AT30">
-        <v>3.13</v>
+        <v>3.03</v>
       </c>
       <c r="AU30">
         <v>8</v>
@@ -7805,25 +7805,25 @@
         <v>2.65</v>
       </c>
       <c r="AN31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO31">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ31">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR31">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AS31">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AT31">
-        <v>2.65</v>
+        <v>2.78</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -8014,22 +8014,22 @@
         <v>0.5</v>
       </c>
       <c r="AO32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ32">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR32">
-        <v>0.98</v>
+        <v>1.17</v>
       </c>
       <c r="AS32">
-        <v>1.25</v>
+        <v>0.97</v>
       </c>
       <c r="AT32">
-        <v>2.23</v>
+        <v>2.14</v>
       </c>
       <c r="AU32">
         <v>8</v>
@@ -8217,25 +8217,25 @@
         <v>1.15</v>
       </c>
       <c r="AN33">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AO33">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AP33">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ33">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR33">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="AS33">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="AT33">
-        <v>2.81</v>
+        <v>2.57</v>
       </c>
       <c r="AU33">
         <v>5</v>
@@ -8426,22 +8426,22 @@
         <v>3</v>
       </c>
       <c r="AO34">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ34">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR34">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AS34">
-        <v>2.03</v>
+        <v>1.82</v>
       </c>
       <c r="AT34">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="AU34">
         <v>5</v>
@@ -8632,22 +8632,22 @@
         <v>0.5</v>
       </c>
       <c r="AO35">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP35">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ35">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AS35">
-        <v>1.52</v>
+        <v>1.68</v>
       </c>
       <c r="AT35">
-        <v>2.92</v>
+        <v>3.13</v>
       </c>
       <c r="AU35">
         <v>7</v>
@@ -8835,25 +8835,25 @@
         <v>1.52</v>
       </c>
       <c r="AN36">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP36">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ36">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR36">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="AS36">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="AT36">
-        <v>2.14</v>
+        <v>2.79</v>
       </c>
       <c r="AU36">
         <v>6</v>
@@ -9041,25 +9041,25 @@
         <v>2.95</v>
       </c>
       <c r="AN37">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AO37">
-        <v>1.4</v>
+        <v>0.33</v>
       </c>
       <c r="AP37">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ37">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR37">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="AS37">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="AT37">
-        <v>3.39</v>
+        <v>3.43</v>
       </c>
       <c r="AU37">
         <v>7</v>
@@ -9247,25 +9247,25 @@
         <v>4.75</v>
       </c>
       <c r="AN38">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AO38">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AP38">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ38">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="AS38">
-        <v>1.05</v>
+        <v>0.79</v>
       </c>
       <c r="AT38">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU38">
         <v>12</v>
@@ -9453,25 +9453,25 @@
         <v>1.6</v>
       </c>
       <c r="AN39">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="AO39">
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ39">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR39">
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
       <c r="AS39">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="AT39">
-        <v>2.37</v>
+        <v>2.62</v>
       </c>
       <c r="AU39">
         <v>6</v>
@@ -9659,25 +9659,25 @@
         <v>1.18</v>
       </c>
       <c r="AN40">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AO40">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR40">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AS40">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AT40">
-        <v>2.92</v>
+        <v>3.18</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9865,25 +9865,25 @@
         <v>4.5</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO41">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP41">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ41">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR41">
-        <v>1.92</v>
+        <v>2.13</v>
       </c>
       <c r="AS41">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="AT41">
-        <v>3.11</v>
+        <v>3.27</v>
       </c>
       <c r="AU41">
         <v>9</v>
@@ -10071,25 +10071,25 @@
         <v>1.65</v>
       </c>
       <c r="AN42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO42">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ42">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR42">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="AS42">
-        <v>1.51</v>
+        <v>1.34</v>
       </c>
       <c r="AT42">
-        <v>2.56</v>
+        <v>2.18</v>
       </c>
       <c r="AU42">
         <v>4</v>
@@ -10277,25 +10277,25 @@
         <v>2.69</v>
       </c>
       <c r="AN43">
-        <v>1.17</v>
+        <v>3</v>
       </c>
       <c r="AO43">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ43">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR43">
-        <v>1.25</v>
+        <v>1.76</v>
       </c>
       <c r="AS43">
-        <v>1.23</v>
+        <v>0.74</v>
       </c>
       <c r="AT43">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="AU43">
         <v>8</v>
@@ -10483,25 +10483,25 @@
         <v>1.85</v>
       </c>
       <c r="AN44">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="AO44">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ44">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR44">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AS44">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AT44">
-        <v>3.37</v>
+        <v>2.74</v>
       </c>
       <c r="AU44">
         <v>13</v>
@@ -10689,25 +10689,25 @@
         <v>1.1</v>
       </c>
       <c r="AN45">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO45">
-        <v>2.67</v>
+        <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ45">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR45">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AS45">
-        <v>1.94</v>
+        <v>0.9</v>
       </c>
       <c r="AT45">
-        <v>3.09</v>
+        <v>2.2</v>
       </c>
       <c r="AU45">
         <v>0</v>
@@ -10895,25 +10895,25 @@
         <v>1.68</v>
       </c>
       <c r="AN46">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AO46">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ46">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR46">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="AS46">
-        <v>1.3</v>
+        <v>1.19</v>
       </c>
       <c r="AT46">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="AU46">
         <v>2</v>
@@ -11101,25 +11101,25 @@
         <v>1.11</v>
       </c>
       <c r="AN47">
-        <v>1.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO47">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ47">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR47">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AS47">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="AT47">
-        <v>3.65</v>
+        <v>3.13</v>
       </c>
       <c r="AU47">
         <v>6</v>
@@ -11307,25 +11307,25 @@
         <v>5.7</v>
       </c>
       <c r="AN48">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO48">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP48">
+        <v>2.56</v>
+      </c>
+      <c r="AQ48">
+        <v>0.88</v>
+      </c>
+      <c r="AR48">
         <v>2.17</v>
       </c>
-      <c r="AQ48">
-        <v>1.09</v>
-      </c>
-      <c r="AR48">
-        <v>1.93</v>
-      </c>
       <c r="AS48">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="AT48">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="AU48">
         <v>9</v>
@@ -11513,25 +11513,25 @@
         <v>3.5</v>
       </c>
       <c r="AN49">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO49">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ49">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="AS49">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AT49">
-        <v>2.94</v>
+        <v>3.09</v>
       </c>
       <c r="AU49">
         <v>10</v>
@@ -11719,25 +11719,25 @@
         <v>1.63</v>
       </c>
       <c r="AN50">
-        <v>1.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO50">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AP50">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ50">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR50">
-        <v>1.05</v>
+        <v>0.91</v>
       </c>
       <c r="AS50">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>2.08</v>
+        <v>1.91</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11925,25 +11925,25 @@
         <v>1.7</v>
       </c>
       <c r="AN51">
-        <v>0.43</v>
+        <v>0.67</v>
       </c>
       <c r="AO51">
         <v>0.33</v>
       </c>
       <c r="AP51">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ51">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
-        <v>1.39</v>
+        <v>1.62</v>
       </c>
       <c r="AS51">
-        <v>1.01</v>
+        <v>0.8</v>
       </c>
       <c r="AT51">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU51">
         <v>8</v>
@@ -12131,25 +12131,25 @@
         <v>1.16</v>
       </c>
       <c r="AN52">
-        <v>1.14</v>
+        <v>2.33</v>
       </c>
       <c r="AO52">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP52">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ52">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR52">
-        <v>1.32</v>
+        <v>1.76</v>
       </c>
       <c r="AS52">
-        <v>1.2</v>
+        <v>0.88</v>
       </c>
       <c r="AT52">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="AU52">
         <v>8</v>
@@ -12337,25 +12337,25 @@
         <v>1.16</v>
       </c>
       <c r="AN53">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO53">
         <v>2</v>
       </c>
       <c r="AP53">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ53">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR53">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="AS53">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="AT53">
-        <v>3.35</v>
+        <v>3.11</v>
       </c>
       <c r="AU53">
         <v>2</v>
@@ -12543,25 +12543,25 @@
         <v>1.38</v>
       </c>
       <c r="AN54">
-        <v>0.86</v>
+        <v>1.67</v>
       </c>
       <c r="AO54">
-        <v>1.71</v>
+        <v>0.67</v>
       </c>
       <c r="AP54">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ54">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
-        <v>1.21</v>
+        <v>1.73</v>
       </c>
       <c r="AS54">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
       <c r="AT54">
-        <v>2.79</v>
+        <v>3.64</v>
       </c>
       <c r="AU54">
         <v>3</v>
@@ -12749,25 +12749,25 @@
         <v>3.4</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO55">
-        <v>0.43</v>
+        <v>0.2</v>
       </c>
       <c r="AP55">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ55">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="AS55">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="AT55">
-        <v>2.58</v>
+        <v>2.94</v>
       </c>
       <c r="AU55">
         <v>8</v>
@@ -12955,25 +12955,25 @@
         <v>1.9</v>
       </c>
       <c r="AN56">
-        <v>2.71</v>
+        <v>3</v>
       </c>
       <c r="AO56">
-        <v>2.29</v>
+        <v>3</v>
       </c>
       <c r="AP56">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR56">
-        <v>2.01</v>
+        <v>2.15</v>
       </c>
       <c r="AS56">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="AT56">
-        <v>3.93</v>
+        <v>3.91</v>
       </c>
       <c r="AU56">
         <v>2</v>
@@ -13161,25 +13161,25 @@
         <v>1.63</v>
       </c>
       <c r="AN57">
-        <v>0.29</v>
+        <v>0.33</v>
       </c>
       <c r="AO57">
-        <v>0.88</v>
+        <v>0.25</v>
       </c>
       <c r="AP57">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ57">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR57">
-        <v>1</v>
+        <v>1.23</v>
       </c>
       <c r="AS57">
-        <v>1.2</v>
+        <v>0.82</v>
       </c>
       <c r="AT57">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AU57">
         <v>8</v>
@@ -13367,25 +13367,25 @@
         <v>1.95</v>
       </c>
       <c r="AN58">
-        <v>0.38</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="AP58">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR58">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="AS58">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AT58">
-        <v>2.43</v>
+        <v>2.21</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13576,22 +13576,22 @@
         <v>1</v>
       </c>
       <c r="AO59">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AP59">
+        <v>1.12</v>
+      </c>
+      <c r="AQ59">
+        <v>0.78</v>
+      </c>
+      <c r="AR59">
+        <v>1.24</v>
+      </c>
+      <c r="AS59">
         <v>1.15</v>
       </c>
-      <c r="AQ59">
-        <v>0.97</v>
-      </c>
-      <c r="AR59">
-        <v>1.22</v>
-      </c>
-      <c r="AS59">
-        <v>1.1</v>
-      </c>
       <c r="AT59">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="AU59">
         <v>4</v>
@@ -13779,25 +13779,25 @@
         <v>4.2</v>
       </c>
       <c r="AN60">
-        <v>2.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO60">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ60">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR60">
-        <v>1.79</v>
+        <v>2.04</v>
       </c>
       <c r="AS60">
-        <v>1.14</v>
+        <v>0.85</v>
       </c>
       <c r="AT60">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="AU60">
         <v>7</v>
@@ -13985,25 +13985,25 @@
         <v>2.75</v>
       </c>
       <c r="AN61">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="AO61">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ61">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR61">
-        <v>1.46</v>
+        <v>1.92</v>
       </c>
       <c r="AS61">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AT61">
-        <v>2.52</v>
+        <v>2.97</v>
       </c>
       <c r="AU61">
         <v>7</v>
@@ -14191,25 +14191,25 @@
         <v>2.05</v>
       </c>
       <c r="AN62">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>2.13</v>
+        <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ62">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR62">
-        <v>2.01</v>
+        <v>2.31</v>
       </c>
       <c r="AS62">
-        <v>1.64</v>
+        <v>1.1</v>
       </c>
       <c r="AT62">
-        <v>3.65</v>
+        <v>3.41</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -14397,25 +14397,25 @@
         <v>1.14</v>
       </c>
       <c r="AN63">
-        <v>1.63</v>
+        <v>2.5</v>
       </c>
       <c r="AO63">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="AP63">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ63">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR63">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="AT63">
-        <v>3.38</v>
+        <v>3.01</v>
       </c>
       <c r="AU63">
         <v>0</v>
@@ -14603,25 +14603,25 @@
         <v>1.1</v>
       </c>
       <c r="AN64">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="AO64">
-        <v>2.44</v>
+        <v>3</v>
       </c>
       <c r="AP64">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ64">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR64">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AS64">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="AT64">
-        <v>2.86</v>
+        <v>2.58</v>
       </c>
       <c r="AU64">
         <v>7</v>
@@ -14809,25 +14809,25 @@
         <v>1.05</v>
       </c>
       <c r="AN65">
-        <v>0.78</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AP65">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ65">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR65">
-        <v>1.14</v>
+        <v>1.58</v>
       </c>
       <c r="AS65">
-        <v>1.94</v>
+        <v>1.71</v>
       </c>
       <c r="AT65">
-        <v>3.08</v>
+        <v>3.29</v>
       </c>
       <c r="AU65">
         <v>3</v>
@@ -15015,25 +15015,25 @@
         <v>1.32</v>
       </c>
       <c r="AN66">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AO66">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ66">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR66">
-        <v>1.39</v>
+        <v>1.65</v>
       </c>
       <c r="AS66">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AT66">
-        <v>2.64</v>
+        <v>2.86</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -15221,25 +15221,25 @@
         <v>1.85</v>
       </c>
       <c r="AN67">
-        <v>0.5600000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="AO67">
-        <v>0.63</v>
+        <v>0.25</v>
       </c>
       <c r="AP67">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ67">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="AS67">
-        <v>1.09</v>
+        <v>0.83</v>
       </c>
       <c r="AT67">
-        <v>2.06</v>
+        <v>1.89</v>
       </c>
       <c r="AU67">
         <v>4</v>
@@ -15427,25 +15427,25 @@
         <v>2.1</v>
       </c>
       <c r="AN68">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AO68">
-        <v>1.89</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ68">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR68">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="AS68">
-        <v>1.54</v>
+        <v>1.01</v>
       </c>
       <c r="AT68">
-        <v>3.36</v>
+        <v>2.92</v>
       </c>
       <c r="AU68">
         <v>7</v>
@@ -15633,25 +15633,25 @@
         <v>2.65</v>
       </c>
       <c r="AN69">
-        <v>1.56</v>
+        <v>2.6</v>
       </c>
       <c r="AO69">
-        <v>0.67</v>
+        <v>0.17</v>
       </c>
       <c r="AP69">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ69">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR69">
-        <v>1.52</v>
+        <v>1.94</v>
       </c>
       <c r="AS69">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AT69">
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
       <c r="AU69">
         <v>6</v>
@@ -15839,25 +15839,25 @@
         <v>1.44</v>
       </c>
       <c r="AN70">
-        <v>1.13</v>
+        <v>2.33</v>
       </c>
       <c r="AO70">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AP70">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ70">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
-        <v>1.09</v>
+        <v>1.52</v>
       </c>
       <c r="AS70">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="AT70">
-        <v>2.51</v>
+        <v>3.26</v>
       </c>
       <c r="AU70">
         <v>5</v>
@@ -16045,25 +16045,25 @@
         <v>2.1</v>
       </c>
       <c r="AN71">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP71">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ71">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR71">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="AS71">
-        <v>0.99</v>
+        <v>0.89</v>
       </c>
       <c r="AT71">
-        <v>2.4</v>
+        <v>2.06</v>
       </c>
       <c r="AU71">
         <v>5</v>
@@ -16251,25 +16251,25 @@
         <v>1.85</v>
       </c>
       <c r="AN72">
-        <v>0.9</v>
+        <v>1.67</v>
       </c>
       <c r="AO72">
-        <v>1.33</v>
+        <v>0.4</v>
       </c>
       <c r="AP72">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ72">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR72">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="AS72">
-        <v>1.1</v>
+        <v>0.84</v>
       </c>
       <c r="AT72">
-        <v>2.14</v>
+        <v>1.97</v>
       </c>
       <c r="AU72">
         <v>4</v>
@@ -16457,25 +16457,25 @@
         <v>1.22</v>
       </c>
       <c r="AN73">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO73">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="AP73">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ73">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR73">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="AS73">
-        <v>1.54</v>
+        <v>0.99</v>
       </c>
       <c r="AT73">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="AU73">
         <v>5</v>
@@ -16663,25 +16663,25 @@
         <v>4.5</v>
       </c>
       <c r="AN74">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="AO74">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP74">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ74">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR74">
-        <v>1.52</v>
+        <v>1.97</v>
       </c>
       <c r="AS74">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="AT74">
-        <v>2.95</v>
+        <v>3.16</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16869,25 +16869,25 @@
         <v>4.3</v>
       </c>
       <c r="AN75">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO75">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ75">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR75">
-        <v>1.94</v>
+        <v>2.12</v>
       </c>
       <c r="AS75">
         <v>1.12</v>
       </c>
       <c r="AT75">
-        <v>3.06</v>
+        <v>3.24</v>
       </c>
       <c r="AU75">
         <v>6</v>
@@ -17075,25 +17075,25 @@
         <v>1.1</v>
       </c>
       <c r="AN76">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AO76">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ76">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR76">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AS76">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="AT76">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="AU76">
         <v>3</v>
@@ -17281,25 +17281,25 @@
         <v>1.02</v>
       </c>
       <c r="AN77">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AO77">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR77">
-        <v>1.11</v>
+        <v>1.42</v>
       </c>
       <c r="AS77">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="AT77">
-        <v>2.86</v>
+        <v>2.94</v>
       </c>
       <c r="AU77">
         <v>2</v>
@@ -17487,25 +17487,25 @@
         <v>2</v>
       </c>
       <c r="AN78">
-        <v>1.27</v>
+        <v>1.83</v>
       </c>
       <c r="AO78">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP78">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ78">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR78">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AS78">
-        <v>1.14</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT78">
-        <v>2.53</v>
+        <v>2.13</v>
       </c>
       <c r="AU78">
         <v>6</v>
@@ -17693,25 +17693,25 @@
         <v>5</v>
       </c>
       <c r="AN79">
-        <v>2.27</v>
+        <v>2.14</v>
       </c>
       <c r="AO79">
-        <v>0.55</v>
+        <v>0.17</v>
       </c>
       <c r="AP79">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR79">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="AS79">
-        <v>1.38</v>
+        <v>1.14</v>
       </c>
       <c r="AT79">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17899,25 +17899,25 @@
         <v>4</v>
       </c>
       <c r="AN80">
-        <v>2.09</v>
+        <v>2.67</v>
       </c>
       <c r="AO80">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AP80">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ80">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR80">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="AS80">
-        <v>1.07</v>
+        <v>0.83</v>
       </c>
       <c r="AT80">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AU80">
         <v>9</v>
@@ -18105,25 +18105,25 @@
         <v>1.55</v>
       </c>
       <c r="AN81">
-        <v>0.73</v>
+        <v>1.17</v>
       </c>
       <c r="AO81">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AP81">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ81">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR81">
-        <v>1.04</v>
+        <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AT81">
-        <v>2.21</v>
+        <v>2.39</v>
       </c>
       <c r="AU81">
         <v>6</v>
@@ -18311,25 +18311,25 @@
         <v>1.05</v>
       </c>
       <c r="AN82">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AO82">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AP82">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ82">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR82">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AS82">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT82">
-        <v>2.97</v>
+        <v>2.85</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18517,25 +18517,25 @@
         <v>1.62</v>
       </c>
       <c r="AN83">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AO83">
-        <v>0.91</v>
+        <v>0.57</v>
       </c>
       <c r="AP83">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ83">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR83">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AS83">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="AT83">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="AU83">
         <v>8</v>
@@ -18723,25 +18723,25 @@
         <v>1.33</v>
       </c>
       <c r="AN84">
-        <v>1.55</v>
+        <v>2.17</v>
       </c>
       <c r="AO84">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="AP84">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR84">
-        <v>1.49</v>
+        <v>1.9</v>
       </c>
       <c r="AS84">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AT84">
-        <v>3.22</v>
+        <v>3.42</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18929,22 +18929,22 @@
         <v>1.6</v>
       </c>
       <c r="AN85">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AO85">
-        <v>1.18</v>
+        <v>0.43</v>
       </c>
       <c r="AP85">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ85">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR85">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="AS85">
-        <v>1.04</v>
+        <v>0.82</v>
       </c>
       <c r="AT85">
         <v>2.17</v>
@@ -19135,25 +19135,25 @@
         <v>1.7</v>
       </c>
       <c r="AN86">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO86">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="AP86">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ86">
+        <v>0.76</v>
+      </c>
+      <c r="AR86">
+        <v>1.67</v>
+      </c>
+      <c r="AS86">
         <v>0.79</v>
       </c>
-      <c r="AR86">
-        <v>1.38</v>
-      </c>
-      <c r="AS86">
-        <v>1.12</v>
-      </c>
       <c r="AT86">
-        <v>2.5</v>
+        <v>2.46</v>
       </c>
       <c r="AU86">
         <v>10</v>
@@ -19341,25 +19341,25 @@
         <v>1.85</v>
       </c>
       <c r="AN87">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AO87">
-        <v>1.08</v>
+        <v>0.38</v>
       </c>
       <c r="AP87">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ87">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR87">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AS87">
-        <v>1.03</v>
+        <v>0.84</v>
       </c>
       <c r="AT87">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="AU87">
         <v>3</v>
@@ -19547,22 +19547,22 @@
         <v>1.01</v>
       </c>
       <c r="AN88">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AO88">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AP88">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ88">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR88">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="AS88">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AT88">
         <v>2.89</v>
@@ -19753,25 +19753,25 @@
         <v>1.83</v>
       </c>
       <c r="AN89">
-        <v>0.92</v>
+        <v>1.5</v>
       </c>
       <c r="AO89">
-        <v>0.58</v>
+        <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ89">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR89">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AS89">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AT89">
-        <v>2.12</v>
+        <v>2.13</v>
       </c>
       <c r="AU89">
         <v>6</v>
@@ -19959,25 +19959,25 @@
         <v>3.75</v>
       </c>
       <c r="AN90">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO90">
-        <v>1.25</v>
+        <v>0.6</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ90">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR90">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="AS90">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AT90">
-        <v>3.21</v>
+        <v>3.62</v>
       </c>
       <c r="AU90">
         <v>8</v>
@@ -20165,25 +20165,25 @@
         <v>4.33</v>
       </c>
       <c r="AN91">
-        <v>2.17</v>
+        <v>2.71</v>
       </c>
       <c r="AO91">
-        <v>1.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP91">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ91">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR91">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AS91">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="AT91">
-        <v>2.61</v>
+        <v>2.83</v>
       </c>
       <c r="AU91">
         <v>10</v>
@@ -20371,25 +20371,25 @@
         <v>2.95</v>
       </c>
       <c r="AN92">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AO92">
-        <v>1.67</v>
+        <v>0.8</v>
       </c>
       <c r="AP92">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ92">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="AS92">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="AT92">
-        <v>3.41</v>
+        <v>3.03</v>
       </c>
       <c r="AU92">
         <v>7</v>
@@ -20577,25 +20577,25 @@
         <v>1.55</v>
       </c>
       <c r="AN93">
-        <v>0.62</v>
+        <v>1</v>
       </c>
       <c r="AO93">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AP93">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ93">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR93">
-        <v>1.11</v>
+        <v>1.35</v>
       </c>
       <c r="AS93">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AT93">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="AU93">
         <v>10</v>
@@ -20783,25 +20783,25 @@
         <v>1.7</v>
       </c>
       <c r="AN94">
-        <v>1.54</v>
+        <v>2.29</v>
       </c>
       <c r="AO94">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="AP94">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ94">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR94">
-        <v>1.42</v>
+        <v>1.8</v>
       </c>
       <c r="AS94">
-        <v>1.38</v>
+        <v>1.49</v>
       </c>
       <c r="AT94">
-        <v>2.8</v>
+        <v>3.29</v>
       </c>
       <c r="AU94">
         <v>7</v>
@@ -20989,25 +20989,25 @@
         <v>1.17</v>
       </c>
       <c r="AN95">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AO95">
-        <v>2.23</v>
+        <v>1.4</v>
       </c>
       <c r="AP95">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ95">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR95">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AS95">
-        <v>1.56</v>
+        <v>1.07</v>
       </c>
       <c r="AT95">
-        <v>2.72</v>
+        <v>2.24</v>
       </c>
       <c r="AU95">
         <v>5</v>
@@ -21195,25 +21195,25 @@
         <v>1.72</v>
       </c>
       <c r="AN96">
-        <v>1.23</v>
+        <v>1.83</v>
       </c>
       <c r="AO96">
-        <v>0.85</v>
+        <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ96">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR96">
-        <v>1.14</v>
+        <v>1.2</v>
       </c>
       <c r="AS96">
-        <v>1.14</v>
+        <v>0.95</v>
       </c>
       <c r="AT96">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="AU96">
         <v>4</v>
@@ -21401,25 +21401,25 @@
         <v>1.12</v>
       </c>
       <c r="AN97">
-        <v>0.92</v>
+        <v>1.4</v>
       </c>
       <c r="AO97">
-        <v>2.38</v>
+        <v>2.57</v>
       </c>
       <c r="AP97">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR97">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AS97">
-        <v>1.76</v>
+        <v>1.62</v>
       </c>
       <c r="AT97">
-        <v>2.89</v>
+        <v>2.82</v>
       </c>
       <c r="AU97">
         <v>5</v>
@@ -21607,25 +21607,25 @@
         <v>1.02</v>
       </c>
       <c r="AN98">
-        <v>0.6899999999999999</v>
+        <v>1.33</v>
       </c>
       <c r="AO98">
-        <v>2.31</v>
+        <v>2.17</v>
       </c>
       <c r="AP98">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ98">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR98">
-        <v>1.42</v>
+        <v>1.71</v>
       </c>
       <c r="AS98">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AT98">
-        <v>3.35</v>
+        <v>3.57</v>
       </c>
       <c r="AU98">
         <v>3</v>
@@ -21813,25 +21813,25 @@
         <v>1.05</v>
       </c>
       <c r="AN99">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="AO99">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="AP99">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ99">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR99">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="AS99">
-        <v>1.73</v>
+        <v>1.54</v>
       </c>
       <c r="AT99">
-        <v>2.81</v>
+        <v>2.97</v>
       </c>
       <c r="AU99">
         <v>3</v>
@@ -22019,25 +22019,25 @@
         <v>2.7</v>
       </c>
       <c r="AN100">
-        <v>1.64</v>
+        <v>2.38</v>
       </c>
       <c r="AO100">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AP100">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ100">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR100">
-        <v>1.44</v>
+        <v>1.78</v>
       </c>
       <c r="AS100">
-        <v>1.15</v>
+        <v>1.08</v>
       </c>
       <c r="AT100">
-        <v>2.59</v>
+        <v>2.86</v>
       </c>
       <c r="AU100">
         <v>13</v>
@@ -22225,25 +22225,25 @@
         <v>1.05</v>
       </c>
       <c r="AN101">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO101">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AP101">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ101">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR101">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AS101">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="AT101">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="AU101">
         <v>0</v>
@@ -22431,25 +22431,25 @@
         <v>1.62</v>
       </c>
       <c r="AN102">
-        <v>0.57</v>
+        <v>0.67</v>
       </c>
       <c r="AO102">
-        <v>0.71</v>
+        <v>0.14</v>
       </c>
       <c r="AP102">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ102">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR102">
         <v>1.05</v>
       </c>
       <c r="AS102">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="AT102">
-        <v>2.42</v>
+        <v>2.22</v>
       </c>
       <c r="AU102">
         <v>4</v>
@@ -22637,25 +22637,25 @@
         <v>1.06</v>
       </c>
       <c r="AN103">
-        <v>0.93</v>
+        <v>2</v>
       </c>
       <c r="AO103">
-        <v>2.21</v>
+        <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ103">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR103">
-        <v>1.06</v>
+        <v>1.29</v>
       </c>
       <c r="AS103">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="AT103">
-        <v>3</v>
+        <v>3.18</v>
       </c>
       <c r="AU103">
         <v>6</v>
@@ -22843,25 +22843,25 @@
         <v>1.78</v>
       </c>
       <c r="AN104">
-        <v>1.07</v>
+        <v>1.71</v>
       </c>
       <c r="AO104">
-        <v>1.21</v>
+        <v>1.67</v>
       </c>
       <c r="AP104">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ104">
+        <v>1.19</v>
+      </c>
+      <c r="AR104">
+        <v>1.29</v>
+      </c>
+      <c r="AS104">
         <v>1.15</v>
       </c>
-      <c r="AR104">
-        <v>1.33</v>
-      </c>
-      <c r="AS104">
-        <v>1.18</v>
-      </c>
       <c r="AT104">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="AU104">
         <v>6</v>
@@ -23049,25 +23049,25 @@
         <v>1.04</v>
       </c>
       <c r="AN105">
-        <v>0.79</v>
+        <v>1.25</v>
       </c>
       <c r="AO105">
-        <v>2.29</v>
+        <v>1.67</v>
       </c>
       <c r="AP105">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ105">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR105">
-        <v>1.15</v>
+        <v>1.39</v>
       </c>
       <c r="AS105">
-        <v>1.58</v>
+        <v>1.19</v>
       </c>
       <c r="AT105">
-        <v>2.73</v>
+        <v>2.58</v>
       </c>
       <c r="AU105">
         <v>3</v>
@@ -23255,25 +23255,25 @@
         <v>1.09</v>
       </c>
       <c r="AN106">
-        <v>1.07</v>
+        <v>1.67</v>
       </c>
       <c r="AO106">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AP106">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR106">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AS106">
-        <v>1.73</v>
+        <v>1.59</v>
       </c>
       <c r="AT106">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="AU106">
         <v>2</v>
@@ -23461,25 +23461,25 @@
         <v>1.33</v>
       </c>
       <c r="AN107">
+        <v>0.88</v>
+      </c>
+      <c r="AO107">
+        <v>0.67</v>
+      </c>
+      <c r="AP107">
+        <v>1.12</v>
+      </c>
+      <c r="AQ107">
         <v>1.33</v>
-      </c>
-      <c r="AO107">
-        <v>1.6</v>
-      </c>
-      <c r="AP107">
-        <v>1.15</v>
-      </c>
-      <c r="AQ107">
-        <v>1.53</v>
       </c>
       <c r="AR107">
         <v>1.2</v>
       </c>
       <c r="AS107">
-        <v>1.52</v>
+        <v>0.98</v>
       </c>
       <c r="AT107">
-        <v>2.72</v>
+        <v>2.18</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23667,25 +23667,25 @@
         <v>1.07</v>
       </c>
       <c r="AN108">
-        <v>1.13</v>
+        <v>1.57</v>
       </c>
       <c r="AO108">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AP108">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ108">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR108">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AS108">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="AT108">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="AU108">
         <v>7</v>
@@ -23873,25 +23873,25 @@
         <v>6</v>
       </c>
       <c r="AN109">
-        <v>2.13</v>
+        <v>2.43</v>
       </c>
       <c r="AO109">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP109">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ109">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
-        <v>1.93</v>
+        <v>1.99</v>
       </c>
       <c r="AS109">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="AT109">
-        <v>3.02</v>
+        <v>2.96</v>
       </c>
       <c r="AU109">
         <v>6</v>
@@ -24079,25 +24079,25 @@
         <v>3.7</v>
       </c>
       <c r="AN110">
-        <v>2.33</v>
+        <v>2.75</v>
       </c>
       <c r="AO110">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AP110">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ110">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR110">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="AS110">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="AT110">
-        <v>2.99</v>
+        <v>3.23</v>
       </c>
       <c r="AU110">
         <v>10</v>
@@ -24285,25 +24285,25 @@
         <v>4.4</v>
       </c>
       <c r="AN111">
-        <v>2.27</v>
+        <v>2.17</v>
       </c>
       <c r="AO111">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ111">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR111">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="AS111">
         <v>1.06</v>
       </c>
       <c r="AT111">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="AU111">
         <v>7</v>
@@ -24491,25 +24491,25 @@
         <v>1.63</v>
       </c>
       <c r="AN112">
-        <v>0.73</v>
+        <v>1.29</v>
       </c>
       <c r="AO112">
+        <v>0.33</v>
+      </c>
+      <c r="AP112">
+        <v>1.31</v>
+      </c>
+      <c r="AQ112">
+        <v>0.63</v>
+      </c>
+      <c r="AR112">
+        <v>1.56</v>
+      </c>
+      <c r="AS112">
         <v>0.93</v>
       </c>
-      <c r="AP112">
-        <v>1.09</v>
-      </c>
-      <c r="AQ112">
-        <v>1.15</v>
-      </c>
-      <c r="AR112">
-        <v>1.33</v>
-      </c>
-      <c r="AS112">
-        <v>1.07</v>
-      </c>
       <c r="AT112">
-        <v>2.4</v>
+        <v>2.49</v>
       </c>
       <c r="AU112">
         <v>5</v>
@@ -24697,25 +24697,25 @@
         <v>2.05</v>
       </c>
       <c r="AN113">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AO113">
-        <v>0.73</v>
+        <v>0.17</v>
       </c>
       <c r="AP113">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ113">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR113">
         <v>1.09</v>
       </c>
       <c r="AS113">
-        <v>1.13</v>
+        <v>0.83</v>
       </c>
       <c r="AT113">
-        <v>2.22</v>
+        <v>1.92</v>
       </c>
       <c r="AU113">
         <v>8</v>
@@ -24903,25 +24903,25 @@
         <v>1.55</v>
       </c>
       <c r="AN114">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO114">
+        <v>0.63</v>
+      </c>
+      <c r="AP114">
         <v>1.19</v>
       </c>
-      <c r="AP114">
-        <v>1.03</v>
-      </c>
       <c r="AQ114">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR114">
-        <v>1.09</v>
+        <v>1.2</v>
       </c>
       <c r="AS114">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="AT114">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="AU114">
         <v>5</v>
@@ -25109,25 +25109,25 @@
         <v>1.75</v>
       </c>
       <c r="AN115">
-        <v>0.88</v>
+        <v>1.83</v>
       </c>
       <c r="AO115">
-        <v>0.6899999999999999</v>
+        <v>0.14</v>
       </c>
       <c r="AP115">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ115">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR115">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="AS115">
-        <v>1.12</v>
+        <v>0.86</v>
       </c>
       <c r="AT115">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="AU115">
         <v>2</v>
@@ -25315,25 +25315,25 @@
         <v>4.5</v>
       </c>
       <c r="AN116">
-        <v>2.31</v>
+        <v>2.29</v>
       </c>
       <c r="AO116">
+        <v>0.25</v>
+      </c>
+      <c r="AP116">
+        <v>2.06</v>
+      </c>
+      <c r="AQ116">
         <v>0.88</v>
       </c>
-      <c r="AP116">
-        <v>2</v>
-      </c>
-      <c r="AQ116">
-        <v>1.09</v>
-      </c>
       <c r="AR116">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="AS116">
-        <v>1.34</v>
+        <v>1.12</v>
       </c>
       <c r="AT116">
-        <v>3.08</v>
+        <v>2.99</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25521,25 +25521,25 @@
         <v>1.5</v>
       </c>
       <c r="AN117">
-        <v>0.5600000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="AO117">
-        <v>1.44</v>
+        <v>1.86</v>
       </c>
       <c r="AP117">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ117">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR117">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AS117">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT117">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="AU117">
         <v>6</v>
@@ -25727,25 +25727,25 @@
         <v>1.25</v>
       </c>
       <c r="AN118">
-        <v>1.5</v>
+        <v>2.22</v>
       </c>
       <c r="AO118">
-        <v>2.38</v>
+        <v>1.86</v>
       </c>
       <c r="AP118">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ118">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR118">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="AS118">
-        <v>1.65</v>
+        <v>1.34</v>
       </c>
       <c r="AT118">
-        <v>3.16</v>
+        <v>3.23</v>
       </c>
       <c r="AU118">
         <v>5</v>
@@ -25933,25 +25933,25 @@
         <v>1.55</v>
       </c>
       <c r="AN119">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="AO119">
-        <v>2.19</v>
+        <v>1.88</v>
       </c>
       <c r="AP119">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR119">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="AS119">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AT119">
-        <v>3.63</v>
+        <v>3.71</v>
       </c>
       <c r="AU119">
         <v>5</v>
@@ -26139,25 +26139,25 @@
         <v>1.95</v>
       </c>
       <c r="AN120">
-        <v>0.9399999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="AO120">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="AP120">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ120">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR120">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AS120">
-        <v>1.16</v>
+        <v>1.07</v>
       </c>
       <c r="AT120">
-        <v>2.55</v>
+        <v>2.44</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -26345,22 +26345,22 @@
         <v>1.72</v>
       </c>
       <c r="AN121">
+        <v>1.75</v>
+      </c>
+      <c r="AO121">
+        <v>0.38</v>
+      </c>
+      <c r="AP121">
         <v>1.29</v>
       </c>
-      <c r="AO121">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AP121">
-        <v>1.03</v>
-      </c>
       <c r="AQ121">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR121">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AS121">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="AT121">
         <v>2.56</v>
@@ -26551,22 +26551,22 @@
         <v>1.72</v>
       </c>
       <c r="AN122">
-        <v>1.24</v>
+        <v>1.75</v>
       </c>
       <c r="AO122">
-        <v>0.88</v>
+        <v>0.3</v>
       </c>
       <c r="AP122">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ122">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR122">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AS122">
-        <v>1.07</v>
+        <v>0.96</v>
       </c>
       <c r="AT122">
         <v>2.22</v>
@@ -26757,25 +26757,25 @@
         <v>1.44</v>
       </c>
       <c r="AN123">
-        <v>0.82</v>
+        <v>1.5</v>
       </c>
       <c r="AO123">
-        <v>1.59</v>
+        <v>0.57</v>
       </c>
       <c r="AP123">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ123">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
-        <v>1.33</v>
+        <v>1.56</v>
       </c>
       <c r="AS123">
-        <v>1.48</v>
+        <v>1.01</v>
       </c>
       <c r="AT123">
-        <v>2.81</v>
+        <v>2.57</v>
       </c>
       <c r="AU123">
         <v>4</v>
@@ -26963,25 +26963,25 @@
         <v>1.01</v>
       </c>
       <c r="AN124">
-        <v>0.71</v>
+        <v>1.11</v>
       </c>
       <c r="AO124">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AP124">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ124">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR124">
-        <v>1.13</v>
+        <v>1.32</v>
       </c>
       <c r="AS124">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="AT124">
-        <v>2.82</v>
+        <v>2.93</v>
       </c>
       <c r="AU124">
         <v>4</v>
@@ -27169,25 +27169,25 @@
         <v>1.87</v>
       </c>
       <c r="AN125">
-        <v>1.35</v>
+        <v>1.11</v>
       </c>
       <c r="AO125">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AP125">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ125">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR125">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AS125">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="AT125">
-        <v>2.29</v>
+        <v>2.18</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -27375,25 +27375,25 @@
         <v>1.83</v>
       </c>
       <c r="AN126">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="AO126">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="AP126">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR126">
-        <v>1.86</v>
+        <v>1.94</v>
       </c>
       <c r="AS126">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT126">
-        <v>3.59</v>
+        <v>3.57</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27581,25 +27581,25 @@
         <v>4.85</v>
       </c>
       <c r="AN127">
-        <v>2.24</v>
+        <v>2.78</v>
       </c>
       <c r="AO127">
-        <v>0.71</v>
+        <v>0.44</v>
       </c>
       <c r="AP127">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ127">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR127">
-        <v>1.62</v>
+        <v>1.89</v>
       </c>
       <c r="AS127">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AT127">
-        <v>2.7</v>
+        <v>2.93</v>
       </c>
       <c r="AU127">
         <v>11</v>
@@ -27787,25 +27787,25 @@
         <v>1.72</v>
       </c>
       <c r="AN128">
+        <v>1.56</v>
+      </c>
+      <c r="AO128">
+        <v>0.25</v>
+      </c>
+      <c r="AP128">
         <v>1.17</v>
       </c>
-      <c r="AO128">
-        <v>0.67</v>
-      </c>
-      <c r="AP128">
-        <v>0.97</v>
-      </c>
       <c r="AQ128">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR128">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AS128">
-        <v>1.12</v>
+        <v>0.92</v>
       </c>
       <c r="AT128">
-        <v>2.26</v>
+        <v>2.15</v>
       </c>
       <c r="AU128">
         <v>8</v>
@@ -27993,25 +27993,25 @@
         <v>1.8</v>
       </c>
       <c r="AN129">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO129">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AP129">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ129">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR129">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="AS129">
-        <v>1.07</v>
+        <v>0.97</v>
       </c>
       <c r="AT129">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="AU129">
         <v>4</v>
@@ -28199,25 +28199,25 @@
         <v>1.81</v>
       </c>
       <c r="AN130">
-        <v>0.9399999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="AO130">
-        <v>0.78</v>
+        <v>0.22</v>
       </c>
       <c r="AP130">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ130">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR130">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AS130">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AT130">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="AU130">
         <v>2</v>
@@ -28405,25 +28405,25 @@
         <v>1.14</v>
       </c>
       <c r="AN131">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AO131">
-        <v>2.28</v>
+        <v>1.63</v>
       </c>
       <c r="AP131">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ131">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR131">
-        <v>1.1</v>
+        <v>1.19</v>
       </c>
       <c r="AS131">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="AT131">
-        <v>2.77</v>
+        <v>2.51</v>
       </c>
       <c r="AU131">
         <v>3</v>
@@ -28611,25 +28611,25 @@
         <v>1.1</v>
       </c>
       <c r="AN132">
-        <v>1.28</v>
+        <v>1.67</v>
       </c>
       <c r="AO132">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP132">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ132">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR132">
         <v>1.13</v>
       </c>
       <c r="AS132">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AT132">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="AU132">
         <v>4</v>
@@ -28817,25 +28817,25 @@
         <v>3.7</v>
       </c>
       <c r="AN133">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="AO133">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ133">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR133">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="AS133">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="AT133">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="AU133">
         <v>7</v>
@@ -29023,25 +29023,25 @@
         <v>1.22</v>
       </c>
       <c r="AN134">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="AO134">
         <v>2</v>
       </c>
       <c r="AP134">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ134">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR134">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="AS134">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AT134">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="AU134">
         <v>0</v>
@@ -29229,25 +29229,25 @@
         <v>1.65</v>
       </c>
       <c r="AN135">
-        <v>0.74</v>
+        <v>1.33</v>
       </c>
       <c r="AO135">
-        <v>1.26</v>
+        <v>0.78</v>
       </c>
       <c r="AP135">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ135">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR135">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="AS135">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="AT135">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="AU135">
         <v>3</v>
@@ -29435,25 +29435,25 @@
         <v>1.72</v>
       </c>
       <c r="AN136">
-        <v>1.11</v>
+        <v>1.71</v>
       </c>
       <c r="AO136">
-        <v>0.74</v>
+        <v>0.67</v>
       </c>
       <c r="AP136">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ136">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR136">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AS136">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="AT136">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AU136">
         <v>7</v>
@@ -29641,25 +29641,25 @@
         <v>1.22</v>
       </c>
       <c r="AN137">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO137">
-        <v>1.58</v>
+        <v>0.88</v>
       </c>
       <c r="AP137">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ137">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR137">
-        <v>1.13</v>
+        <v>1.27</v>
       </c>
       <c r="AS137">
-        <v>1.45</v>
+        <v>1.11</v>
       </c>
       <c r="AT137">
-        <v>2.58</v>
+        <v>2.38</v>
       </c>
       <c r="AU137">
         <v>2</v>
@@ -29847,25 +29847,25 @@
         <v>3.6</v>
       </c>
       <c r="AN138">
-        <v>2.21</v>
+        <v>2.33</v>
       </c>
       <c r="AO138">
-        <v>1.05</v>
+        <v>0.44</v>
       </c>
       <c r="AP138">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ138">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR138">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="AS138">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AT138">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="AU138">
         <v>9</v>
@@ -30053,25 +30053,25 @@
         <v>1.74</v>
       </c>
       <c r="AN139">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AO139">
+        <v>0.89</v>
+      </c>
+      <c r="AP139">
+        <v>1.12</v>
+      </c>
+      <c r="AQ139">
+        <v>0.75</v>
+      </c>
+      <c r="AR139">
         <v>1.21</v>
       </c>
-      <c r="AP139">
-        <v>1.15</v>
-      </c>
-      <c r="AQ139">
-        <v>1.03</v>
-      </c>
-      <c r="AR139">
-        <v>1.18</v>
-      </c>
       <c r="AS139">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AT139">
-        <v>2.31</v>
+        <v>2.35</v>
       </c>
       <c r="AU139">
         <v>7</v>
@@ -30259,25 +30259,25 @@
         <v>4.2</v>
       </c>
       <c r="AN140">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AO140">
-        <v>0.63</v>
+        <v>0.4</v>
       </c>
       <c r="AP140">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ140">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR140">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="AS140">
-        <v>1.07</v>
+        <v>0.99</v>
       </c>
       <c r="AT140">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU140">
         <v>9</v>
@@ -30465,25 +30465,25 @@
         <v>1.63</v>
       </c>
       <c r="AN141">
-        <v>2.32</v>
+        <v>2.8</v>
       </c>
       <c r="AO141">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="AP141">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ141">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR141">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AS141">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AT141">
-        <v>3.36</v>
+        <v>3.51</v>
       </c>
       <c r="AU141">
         <v>6</v>
@@ -30671,25 +30671,25 @@
         <v>1.62</v>
       </c>
       <c r="AN142">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="AO142">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AP142">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ142">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR142">
-        <v>1.09</v>
+        <v>1.18</v>
       </c>
       <c r="AS142">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="AT142">
-        <v>2.41</v>
+        <v>2.29</v>
       </c>
       <c r="AU142">
         <v>5</v>
@@ -30877,25 +30877,25 @@
         <v>1.35</v>
       </c>
       <c r="AN143">
-        <v>1.1</v>
+        <v>1.63</v>
       </c>
       <c r="AO143">
+        <v>1.11</v>
+      </c>
+      <c r="AP143">
         <v>1.65</v>
       </c>
-      <c r="AP143">
-        <v>1.15</v>
-      </c>
       <c r="AQ143">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR143">
-        <v>1.1</v>
+        <v>1.23</v>
       </c>
       <c r="AS143">
-        <v>1.42</v>
+        <v>1.09</v>
       </c>
       <c r="AT143">
-        <v>2.52</v>
+        <v>2.32</v>
       </c>
       <c r="AU143">
         <v>8</v>
@@ -31083,25 +31083,25 @@
         <v>2.1</v>
       </c>
       <c r="AN144">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO144">
-        <v>0.6</v>
+        <v>0.22</v>
       </c>
       <c r="AP144">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ144">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR144">
         <v>1.36</v>
       </c>
       <c r="AS144">
-        <v>1.12</v>
+        <v>0.97</v>
       </c>
       <c r="AT144">
-        <v>2.48</v>
+        <v>2.33</v>
       </c>
       <c r="AU144">
         <v>4</v>
@@ -31289,25 +31289,25 @@
         <v>1.57</v>
       </c>
       <c r="AN145">
-        <v>0.6</v>
+        <v>0.89</v>
       </c>
       <c r="AO145">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="AP145">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ145">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR145">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="AS145">
-        <v>1.18</v>
+        <v>1.09</v>
       </c>
       <c r="AT145">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="AU145">
         <v>9</v>
@@ -31495,25 +31495,25 @@
         <v>4.3</v>
       </c>
       <c r="AN146">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AO146">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="AP146">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ146">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR146">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="AS146">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="AT146">
-        <v>3.04</v>
+        <v>3.02</v>
       </c>
       <c r="AU146">
         <v>8</v>
@@ -31701,25 +31701,25 @@
         <v>1.12</v>
       </c>
       <c r="AN147">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="AO147">
-        <v>2.35</v>
+        <v>1.78</v>
       </c>
       <c r="AP147">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ147">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR147">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AS147">
-        <v>1.66</v>
+        <v>1.35</v>
       </c>
       <c r="AT147">
-        <v>2.79</v>
+        <v>2.47</v>
       </c>
       <c r="AU147">
         <v>0</v>
@@ -31907,25 +31907,25 @@
         <v>1.57</v>
       </c>
       <c r="AN148">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="AO148">
         <v>2.1</v>
       </c>
       <c r="AP148">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ148">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR148">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="AS148">
-        <v>1.69</v>
+        <v>1.58</v>
       </c>
       <c r="AT148">
-        <v>3.36</v>
+        <v>3.43</v>
       </c>
       <c r="AU148">
         <v>8</v>
@@ -32113,25 +32113,25 @@
         <v>3.75</v>
       </c>
       <c r="AN149">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AO149">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AP149">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ149">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR149">
-        <v>1.68</v>
+        <v>1.8</v>
       </c>
       <c r="AS149">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AT149">
-        <v>3.03</v>
+        <v>3.16</v>
       </c>
       <c r="AU149">
         <v>11</v>
@@ -32319,25 +32319,25 @@
         <v>1.22</v>
       </c>
       <c r="AN150">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="AO150">
-        <v>1.62</v>
+        <v>1.1</v>
       </c>
       <c r="AP150">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ150">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR150">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="AS150">
-        <v>1.41</v>
+        <v>1.1</v>
       </c>
       <c r="AT150">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="AU150">
         <v>3</v>
@@ -32525,25 +32525,25 @@
         <v>1.65</v>
       </c>
       <c r="AN151">
-        <v>0.71</v>
+        <v>1.2</v>
       </c>
       <c r="AO151">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AP151">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ151">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR151">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="AS151">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AT151">
-        <v>2.41</v>
+        <v>2.66</v>
       </c>
       <c r="AU151">
         <v>6</v>
@@ -32731,25 +32731,25 @@
         <v>1.68</v>
       </c>
       <c r="AN152">
-        <v>0.71</v>
+        <v>0.91</v>
       </c>
       <c r="AO152">
-        <v>0.76</v>
+        <v>0.7</v>
       </c>
       <c r="AP152">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ152">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR152">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AS152">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT152">
-        <v>2.23</v>
+        <v>2.25</v>
       </c>
       <c r="AU152">
         <v>4</v>
@@ -32937,25 +32937,25 @@
         <v>1.07</v>
       </c>
       <c r="AN153">
-        <v>1.1</v>
+        <v>1.56</v>
       </c>
       <c r="AO153">
-        <v>2.24</v>
+        <v>2</v>
       </c>
       <c r="AP153">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ153">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR153">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AS153">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="AT153">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="AU153">
         <v>3</v>
@@ -33143,25 +33143,25 @@
         <v>1.55</v>
       </c>
       <c r="AN154">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AO154">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AP154">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ154">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR154">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AS154">
-        <v>1.17</v>
+        <v>1.12</v>
       </c>
       <c r="AT154">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="AU154">
         <v>4</v>
@@ -33349,25 +33349,25 @@
         <v>1.57</v>
       </c>
       <c r="AN155">
-        <v>2.38</v>
+        <v>2.82</v>
       </c>
       <c r="AO155">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="AP155">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ155">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR155">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="AS155">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AT155">
-        <v>3.57</v>
+        <v>3.73</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33555,25 +33555,25 @@
         <v>1.36</v>
       </c>
       <c r="AN156">
-        <v>1.05</v>
+        <v>1.36</v>
       </c>
       <c r="AO156">
-        <v>1.59</v>
+        <v>1.09</v>
       </c>
       <c r="AP156">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ156">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR156">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AS156">
-        <v>1.39</v>
+        <v>1.09</v>
       </c>
       <c r="AT156">
-        <v>2.53</v>
+        <v>2.15</v>
       </c>
       <c r="AU156">
         <v>2</v>
@@ -33761,25 +33761,25 @@
         <v>3.4</v>
       </c>
       <c r="AN157">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="AO157">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AP157">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ157">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR157">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AS157">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AT157">
-        <v>2.87</v>
+        <v>2.99</v>
       </c>
       <c r="AU157">
         <v>7</v>
@@ -33967,25 +33967,25 @@
         <v>1.78</v>
       </c>
       <c r="AN158">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="AO158">
+        <v>0.36</v>
+      </c>
+      <c r="AP158">
+        <v>1.19</v>
+      </c>
+      <c r="AQ158">
         <v>0.59</v>
       </c>
-      <c r="AP158">
-        <v>1.03</v>
-      </c>
-      <c r="AQ158">
-        <v>0.7</v>
-      </c>
       <c r="AR158">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AS158">
-        <v>1.12</v>
+        <v>0.97</v>
       </c>
       <c r="AT158">
-        <v>2.22</v>
+        <v>2.17</v>
       </c>
       <c r="AU158">
         <v>5</v>
@@ -34173,25 +34173,25 @@
         <v>4.75</v>
       </c>
       <c r="AN159">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="AO159">
-        <v>0.73</v>
+        <v>0.5</v>
       </c>
       <c r="AP159">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ159">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR159">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="AS159">
-        <v>1.13</v>
+        <v>0.99</v>
       </c>
       <c r="AT159">
-        <v>2.98</v>
+        <v>2.93</v>
       </c>
       <c r="AU159">
         <v>13</v>
@@ -34379,25 +34379,25 @@
         <v>1.64</v>
       </c>
       <c r="AN160">
-        <v>2.32</v>
+        <v>2.67</v>
       </c>
       <c r="AO160">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AP160">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ160">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR160">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="AS160">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AT160">
-        <v>3.39</v>
+        <v>3.44</v>
       </c>
       <c r="AU160">
         <v>5</v>
@@ -34585,25 +34585,25 @@
         <v>1.83</v>
       </c>
       <c r="AN161">
-        <v>0.91</v>
+        <v>1.45</v>
       </c>
       <c r="AO161">
-        <v>1.05</v>
+        <v>0.75</v>
       </c>
       <c r="AP161">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ161">
-        <v>1.15</v>
+        <v>0.63</v>
       </c>
       <c r="AR161">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="AS161">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="AT161">
-        <v>2.46</v>
+        <v>2.36</v>
       </c>
       <c r="AU161">
         <v>6</v>
@@ -34791,25 +34791,25 @@
         <v>1.9</v>
       </c>
       <c r="AN162">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AO162">
-        <v>0.82</v>
+        <v>0.27</v>
       </c>
       <c r="AP162">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ162">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR162">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS162">
-        <v>1.31</v>
+        <v>1.12</v>
       </c>
       <c r="AT162">
-        <v>2.5</v>
+        <v>2.34</v>
       </c>
       <c r="AU162">
         <v>6</v>
@@ -34997,25 +34997,25 @@
         <v>1.11</v>
       </c>
       <c r="AN163">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="AO163">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="AP163">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ163">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR163">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AS163">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT163">
-        <v>3.1</v>
+        <v>3.01</v>
       </c>
       <c r="AU163">
         <v>6</v>
@@ -35203,25 +35203,25 @@
         <v>1.59</v>
       </c>
       <c r="AN164">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO164">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="AP164">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ164">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR164">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AS164">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT164">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="AU164">
         <v>3</v>
@@ -35409,25 +35409,25 @@
         <v>1.57</v>
       </c>
       <c r="AN165">
-        <v>0.7</v>
+        <v>0.82</v>
       </c>
       <c r="AO165">
-        <v>1</v>
+        <v>0.36</v>
       </c>
       <c r="AP165">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ165">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR165">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="AS165">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AT165">
-        <v>2.47</v>
+        <v>2.55</v>
       </c>
       <c r="AU165">
         <v>5</v>
@@ -35615,25 +35615,25 @@
         <v>1.07</v>
       </c>
       <c r="AN166">
-        <v>0.83</v>
+        <v>1.36</v>
       </c>
       <c r="AO166">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="AP166">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ166">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR166">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AS166">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AT166">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="AU166">
         <v>5</v>
@@ -35821,25 +35821,25 @@
         <v>3.75</v>
       </c>
       <c r="AN167">
-        <v>2.09</v>
+        <v>2.18</v>
       </c>
       <c r="AO167">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AP167">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ167">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR167">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AS167">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AT167">
-        <v>2.92</v>
+        <v>3.01</v>
       </c>
       <c r="AU167">
         <v>12</v>
@@ -36027,25 +36027,25 @@
         <v>2.65</v>
       </c>
       <c r="AN168">
-        <v>1.65</v>
+        <v>2.09</v>
       </c>
       <c r="AO168">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="AP168">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ168">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR168">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="AS168">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AT168">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="AU168">
         <v>10</v>
@@ -36233,25 +36233,25 @@
         <v>4.3</v>
       </c>
       <c r="AN169">
-        <v>2.22</v>
+        <v>2.36</v>
       </c>
       <c r="AO169">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="AP169">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ169">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR169">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="AS169">
-        <v>1.09</v>
+        <v>0.92</v>
       </c>
       <c r="AT169">
-        <v>2.81</v>
+        <v>2.83</v>
       </c>
       <c r="AU169">
         <v>5</v>
@@ -36439,25 +36439,25 @@
         <v>2</v>
       </c>
       <c r="AN170">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AO170">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="AQ170">
-        <v>0.79</v>
+        <v>0.76</v>
       </c>
       <c r="AR170">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AS170">
-        <v>1.12</v>
+        <v>0.98</v>
       </c>
       <c r="AT170">
-        <v>2.33</v>
+        <v>2.26</v>
       </c>
       <c r="AU170">
         <v>10</v>
@@ -36645,25 +36645,25 @@
         <v>1.47</v>
       </c>
       <c r="AN171">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AO171">
-        <v>1</v>
+        <v>0.42</v>
       </c>
       <c r="AP171">
-        <v>1.03</v>
+        <v>1.19</v>
       </c>
       <c r="AQ171">
-        <v>1.06</v>
+        <v>0.5</v>
       </c>
       <c r="AR171">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="AS171">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="AT171">
-        <v>2.4</v>
+        <v>2.48</v>
       </c>
       <c r="AU171">
         <v>5</v>
@@ -36851,25 +36851,25 @@
         <v>1.62</v>
       </c>
       <c r="AN172">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO172">
-        <v>1.42</v>
+        <v>1.17</v>
       </c>
       <c r="AP172">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="AQ172">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR172">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="AS172">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AT172">
-        <v>2.29</v>
+        <v>2.18</v>
       </c>
       <c r="AU172">
         <v>7</v>
@@ -37057,25 +37057,25 @@
         <v>1.06</v>
       </c>
       <c r="AN173">
-        <v>0.79</v>
+        <v>1.25</v>
       </c>
       <c r="AO173">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AP173">
-        <v>1.09</v>
+        <v>1.31</v>
       </c>
       <c r="AQ173">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR173">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AS173">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="AT173">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="AU173">
         <v>3</v>
@@ -37263,25 +37263,25 @@
         <v>4.75</v>
       </c>
       <c r="AN174">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="AO174">
-        <v>0.71</v>
+        <v>0.58</v>
       </c>
       <c r="AP174">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ174">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="AR174">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AS174">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="AT174">
-        <v>3.05</v>
+        <v>3.08</v>
       </c>
       <c r="AU174">
         <v>6</v>
@@ -37469,25 +37469,25 @@
         <v>3.6</v>
       </c>
       <c r="AN175">
-        <v>1</v>
+        <v>1.36</v>
       </c>
       <c r="AO175">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AP175">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ175">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR175">
-        <v>1.14</v>
+        <v>1.28</v>
       </c>
       <c r="AS175">
-        <v>1.67</v>
+        <v>1.48</v>
       </c>
       <c r="AT175">
-        <v>2.81</v>
+        <v>2.76</v>
       </c>
       <c r="AU175">
         <v>4</v>
@@ -37675,25 +37675,25 @@
         <v>2.4</v>
       </c>
       <c r="AN176">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="AO176">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="AP176">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ176">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR176">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AS176">
-        <v>1.43</v>
+        <v>1.1</v>
       </c>
       <c r="AT176">
-        <v>3.14</v>
+        <v>2.98</v>
       </c>
       <c r="AU176">
         <v>7</v>
@@ -37881,25 +37881,25 @@
         <v>1.7</v>
       </c>
       <c r="AN177">
-        <v>0.96</v>
+        <v>1.25</v>
       </c>
       <c r="AO177">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="AP177">
-        <v>1.15</v>
+        <v>1.65</v>
       </c>
       <c r="AQ177">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="AR177">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AS177">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="AT177">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="AU177">
         <v>7</v>
@@ -38087,25 +38087,25 @@
         <v>1.6</v>
       </c>
       <c r="AN178">
-        <v>0.68</v>
+        <v>0.83</v>
       </c>
       <c r="AO178">
-        <v>1.08</v>
+        <v>0.75</v>
       </c>
       <c r="AP178">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ178">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="AR178">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="AS178">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="AT178">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="AU178">
         <v>4</v>
@@ -38293,25 +38293,25 @@
         <v>1.1</v>
       </c>
       <c r="AN179">
-        <v>0.96</v>
+        <v>1.58</v>
       </c>
       <c r="AO179">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="AP179">
-        <v>1.06</v>
+        <v>1.59</v>
       </c>
       <c r="AQ179">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR179">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AS179">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AT179">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AU179">
         <v>5</v>
@@ -38499,25 +38499,25 @@
         <v>1.07</v>
       </c>
       <c r="AN180">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AO180">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="AP180">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ180">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR180">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AS180">
-        <v>1.67</v>
+        <v>1.49</v>
       </c>
       <c r="AT180">
-        <v>2.84</v>
+        <v>2.72</v>
       </c>
       <c r="AU180">
         <v>3</v>
@@ -38705,25 +38705,25 @@
         <v>1.68</v>
       </c>
       <c r="AN181">
-        <v>0.72</v>
+        <v>0.92</v>
       </c>
       <c r="AO181">
-        <v>0.76</v>
+        <v>0.33</v>
       </c>
       <c r="AP181">
-        <v>0.79</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AQ181">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
       <c r="AR181">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="AS181">
-        <v>1.27</v>
+        <v>1.13</v>
       </c>
       <c r="AT181">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="AU181">
         <v>9</v>
@@ -38911,25 +38911,25 @@
         <v>1.13</v>
       </c>
       <c r="AN182">
-        <v>1.64</v>
+        <v>2.17</v>
       </c>
       <c r="AO182">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="AP182">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ182">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR182">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="AS182">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT182">
-        <v>3.33</v>
+        <v>3.52</v>
       </c>
       <c r="AU182">
         <v>6</v>
@@ -39117,25 +39117,25 @@
         <v>5</v>
       </c>
       <c r="AN183">
-        <v>2.16</v>
+        <v>2.25</v>
       </c>
       <c r="AO183">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AP183">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ183">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="AR183">
-        <v>1.75</v>
+        <v>1.96</v>
       </c>
       <c r="AS183">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="AT183">
-        <v>2.84</v>
+        <v>2.93</v>
       </c>
       <c r="AU183">
         <v>16</v>
@@ -39323,25 +39323,25 @@
         <v>1.06</v>
       </c>
       <c r="AN184">
-        <v>1.31</v>
+        <v>1.54</v>
       </c>
       <c r="AO184">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AP184">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ184">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR184">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="AS184">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AT184">
-        <v>3.06</v>
+        <v>2.97</v>
       </c>
       <c r="AU184">
         <v>0</v>
@@ -39529,25 +39529,25 @@
         <v>1.82</v>
       </c>
       <c r="AN185">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AO185">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="AP185">
+        <v>2.33</v>
+      </c>
+      <c r="AQ185">
+        <v>1.94</v>
+      </c>
+      <c r="AR185">
         <v>2.06</v>
       </c>
-      <c r="AQ185">
-        <v>2</v>
-      </c>
-      <c r="AR185">
-        <v>1.81</v>
-      </c>
       <c r="AS185">
-        <v>1.71</v>
+        <v>1.55</v>
       </c>
       <c r="AT185">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="AU185">
         <v>5</v>
@@ -39735,25 +39735,25 @@
         <v>2.68</v>
       </c>
       <c r="AN186">
-        <v>2.31</v>
+        <v>2.46</v>
       </c>
       <c r="AO186">
-        <v>1.62</v>
+        <v>1.15</v>
       </c>
       <c r="AP186">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ186">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR186">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AS186">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AT186">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="AU186">
         <v>4</v>
@@ -41589,25 +41589,25 @@
         <v>1.78</v>
       </c>
       <c r="AN195">
-        <v>2.19</v>
+        <v>2.31</v>
       </c>
       <c r="AO195">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="AP195">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ195">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR195">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="AS195">
-        <v>1.68</v>
+        <v>1.56</v>
       </c>
       <c r="AT195">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="AU195">
         <v>8</v>
@@ -41795,25 +41795,25 @@
         <v>1.9</v>
       </c>
       <c r="AN196">
-        <v>2.3</v>
+        <v>2.54</v>
       </c>
       <c r="AO196">
-        <v>2.11</v>
+        <v>2.08</v>
       </c>
       <c r="AP196">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ196">
+        <v>1.78</v>
+      </c>
+      <c r="AR196">
         <v>2.06</v>
       </c>
-      <c r="AR196">
-        <v>1.93</v>
-      </c>
       <c r="AS196">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AT196">
-        <v>3.73</v>
+        <v>3.61</v>
       </c>
       <c r="AU196">
         <v>6</v>
@@ -42001,25 +42001,25 @@
         <v>2.7</v>
       </c>
       <c r="AN197">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="AO197">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="AP197">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ197">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR197">
-        <v>1.37</v>
+        <v>1.7</v>
       </c>
       <c r="AS197">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT197">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="AU197">
         <v>10</v>
@@ -42207,25 +42207,25 @@
         <v>3</v>
       </c>
       <c r="AN198">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="AO198">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="AP198">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ198">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR198">
-        <v>1.79</v>
+        <v>2.03</v>
       </c>
       <c r="AS198">
-        <v>1.4</v>
+        <v>1.07</v>
       </c>
       <c r="AT198">
-        <v>3.19</v>
+        <v>3.1</v>
       </c>
       <c r="AU198">
         <v>10</v>
@@ -42413,25 +42413,25 @@
         <v>4.33</v>
       </c>
       <c r="AN199">
-        <v>2.25</v>
+        <v>2.29</v>
       </c>
       <c r="AO199">
-        <v>1.21</v>
+        <v>1</v>
       </c>
       <c r="AP199">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ199">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR199">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="AS199">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AT199">
-        <v>2.8</v>
+        <v>2.89</v>
       </c>
       <c r="AU199">
         <v>8</v>
@@ -42619,25 +42619,25 @@
         <v>1.52</v>
       </c>
       <c r="AN200">
-        <v>2.11</v>
+        <v>2.14</v>
       </c>
       <c r="AO200">
-        <v>2.32</v>
+        <v>2.07</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ200">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR200">
-        <v>1.71</v>
+        <v>1.89</v>
       </c>
       <c r="AS200">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="AT200">
-        <v>3.62</v>
+        <v>3.7</v>
       </c>
       <c r="AU200">
         <v>6</v>
@@ -43649,25 +43649,25 @@
         <v>1.02</v>
       </c>
       <c r="AN205">
+        <v>1.43</v>
+      </c>
+      <c r="AO205">
+        <v>1.93</v>
+      </c>
+      <c r="AP205">
         <v>1.17</v>
       </c>
-      <c r="AO205">
-        <v>2.07</v>
-      </c>
-      <c r="AP205">
-        <v>0.97</v>
-      </c>
       <c r="AQ205">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR205">
-        <v>1.09</v>
+        <v>1.12</v>
       </c>
       <c r="AS205">
-        <v>1.79</v>
+        <v>1.55</v>
       </c>
       <c r="AT205">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="AU205">
         <v>3</v>
@@ -43855,25 +43855,25 @@
         <v>1.28</v>
       </c>
       <c r="AN206">
-        <v>1.66</v>
+        <v>2.14</v>
       </c>
       <c r="AO206">
-        <v>2.14</v>
+        <v>2.07</v>
       </c>
       <c r="AP206">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ206">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR206">
-        <v>1.37</v>
+        <v>1.73</v>
       </c>
       <c r="AS206">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AT206">
-        <v>3.07</v>
+        <v>3.27</v>
       </c>
       <c r="AU206">
         <v>6</v>
@@ -44061,25 +44061,25 @@
         <v>1.92</v>
       </c>
       <c r="AN207">
-        <v>2.24</v>
+        <v>2.57</v>
       </c>
       <c r="AO207">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AP207">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ207">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR207">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AS207">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT207">
-        <v>3.6</v>
+        <v>3.59</v>
       </c>
       <c r="AU207">
         <v>4</v>
@@ -45091,25 +45091,25 @@
         <v>5</v>
       </c>
       <c r="AN212">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="AO212">
-        <v>1.13</v>
+        <v>0.93</v>
       </c>
       <c r="AP212">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ212">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR212">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AS212">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="AT212">
-        <v>2.76</v>
+        <v>2.91</v>
       </c>
       <c r="AU212">
         <v>8</v>
@@ -45297,25 +45297,25 @@
         <v>4</v>
       </c>
       <c r="AN213">
-        <v>2.2</v>
+        <v>2.47</v>
       </c>
       <c r="AO213">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AP213">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ213">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR213">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AS213">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="AT213">
-        <v>3.27</v>
+        <v>2.98</v>
       </c>
       <c r="AU213">
         <v>9</v>
@@ -46327,25 +46327,25 @@
         <v>1.03</v>
       </c>
       <c r="AN218">
-        <v>1.1</v>
+        <v>1.33</v>
       </c>
       <c r="AO218">
-        <v>2.19</v>
+        <v>2.13</v>
       </c>
       <c r="AP218">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ218">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR218">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="AS218">
-        <v>1.7</v>
+        <v>1.51</v>
       </c>
       <c r="AT218">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="AU218">
         <v>6</v>
@@ -46533,25 +46533,25 @@
         <v>1.09</v>
       </c>
       <c r="AN219">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="AO219">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="AP219">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ219">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR219">
-        <v>1.36</v>
+        <v>1.74</v>
       </c>
       <c r="AS219">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="AT219">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="AU219">
         <v>6</v>
@@ -46739,25 +46739,25 @@
         <v>1.98</v>
       </c>
       <c r="AN220">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AO220">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="AP220">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ220">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR220">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="AS220">
-        <v>1.68</v>
+        <v>1.55</v>
       </c>
       <c r="AT220">
-        <v>3.48</v>
+        <v>3.57</v>
       </c>
       <c r="AU220">
         <v>5</v>
@@ -46945,25 +46945,25 @@
         <v>1.02</v>
       </c>
       <c r="AN221">
-        <v>1.06</v>
+        <v>1.25</v>
       </c>
       <c r="AO221">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="AP221">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ221">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR221">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AS221">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="AT221">
-        <v>2.73</v>
+        <v>2.62</v>
       </c>
       <c r="AU221">
         <v>3</v>
@@ -47151,25 +47151,25 @@
         <v>1.18</v>
       </c>
       <c r="AN222">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AO222">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AP222">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ222">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR222">
-        <v>1.35</v>
+        <v>1.69</v>
       </c>
       <c r="AS222">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="AT222">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="AU222">
         <v>6</v>
@@ -47357,25 +47357,25 @@
         <v>1.92</v>
       </c>
       <c r="AN223">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AO223">
-        <v>2.22</v>
+        <v>2.19</v>
       </c>
       <c r="AP223">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ223">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR223">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="AS223">
-        <v>1.7</v>
+        <v>1.54</v>
       </c>
       <c r="AT223">
-        <v>3.63</v>
+        <v>3.5</v>
       </c>
       <c r="AU223">
         <v>9</v>
@@ -48387,25 +48387,25 @@
         <v>6</v>
       </c>
       <c r="AN228">
-        <v>2.09</v>
+        <v>2.25</v>
       </c>
       <c r="AO228">
-        <v>1.06</v>
+        <v>0.88</v>
       </c>
       <c r="AP228">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ228">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR228">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="AS228">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="AT228">
-        <v>2.88</v>
+        <v>3.02</v>
       </c>
       <c r="AU228">
         <v>11</v>
@@ -48593,25 +48593,25 @@
         <v>1.5</v>
       </c>
       <c r="AN229">
-        <v>2.13</v>
+        <v>2.33</v>
       </c>
       <c r="AO229">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="AP229">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ229">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR229">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="AS229">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="AT229">
-        <v>3.57</v>
+        <v>3.71</v>
       </c>
       <c r="AU229">
         <v>6</v>
@@ -48799,25 +48799,25 @@
         <v>3.4</v>
       </c>
       <c r="AN230">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AO230">
-        <v>1.48</v>
+        <v>1.13</v>
       </c>
       <c r="AP230">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ230">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR230">
-        <v>1.68</v>
+        <v>1.87</v>
       </c>
       <c r="AS230">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="AT230">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="AU230">
         <v>7</v>
@@ -49829,25 +49829,25 @@
         <v>1.69</v>
       </c>
       <c r="AN235">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="AO235">
-        <v>2.12</v>
+        <v>1.94</v>
       </c>
       <c r="AP235">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ235">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR235">
+        <v>1.77</v>
+      </c>
+      <c r="AS235">
         <v>1.64</v>
       </c>
-      <c r="AS235">
-        <v>1.82</v>
-      </c>
       <c r="AT235">
-        <v>3.46</v>
+        <v>3.41</v>
       </c>
       <c r="AU235">
         <v>3</v>
@@ -50035,25 +50035,25 @@
         <v>1.28</v>
       </c>
       <c r="AN236">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="AO236">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="AP236">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="AQ236">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AR236">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AS236">
-        <v>1.34</v>
+        <v>1</v>
       </c>
       <c r="AT236">
-        <v>2.42</v>
+        <v>2.12</v>
       </c>
       <c r="AU236">
         <v>6</v>
@@ -50241,25 +50241,25 @@
         <v>1.72</v>
       </c>
       <c r="AN237">
-        <v>2.18</v>
+        <v>2.41</v>
       </c>
       <c r="AO237">
-        <v>2.09</v>
+        <v>2.06</v>
       </c>
       <c r="AP237">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AQ237">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AR237">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="AS237">
-        <v>1.69</v>
+        <v>1.5</v>
       </c>
       <c r="AT237">
-        <v>3.31</v>
+        <v>3.22</v>
       </c>
       <c r="AU237">
         <v>7</v>
@@ -50447,25 +50447,25 @@
         <v>1.55</v>
       </c>
       <c r="AN238">
-        <v>2.06</v>
+        <v>2.29</v>
       </c>
       <c r="AO238">
-        <v>2.21</v>
+        <v>1.88</v>
       </c>
       <c r="AP238">
-        <v>2.06</v>
+        <v>2.33</v>
       </c>
       <c r="AQ238">
-        <v>2.17</v>
+        <v>1.78</v>
       </c>
       <c r="AR238">
-        <v>1.8</v>
+        <v>1.99</v>
       </c>
       <c r="AS238">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AT238">
-        <v>3.71</v>
+        <v>3.86</v>
       </c>
       <c r="AU238">
         <v>7</v>
@@ -50653,25 +50653,25 @@
         <v>1.17</v>
       </c>
       <c r="AN239">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="AO239">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="AP239">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="AQ239">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AR239">
-        <v>1.34</v>
+        <v>1.68</v>
       </c>
       <c r="AS239">
-        <v>1.61</v>
+        <v>1.51</v>
       </c>
       <c r="AT239">
-        <v>2.95</v>
+        <v>3.19</v>
       </c>
       <c r="AU239">
         <v>4</v>
@@ -50859,25 +50859,25 @@
         <v>8.6</v>
       </c>
       <c r="AN240">
-        <v>2.14</v>
+        <v>2.53</v>
       </c>
       <c r="AO240">
-        <v>1</v>
+        <v>0.82</v>
       </c>
       <c r="AP240">
-        <v>2.17</v>
+        <v>2.56</v>
       </c>
       <c r="AQ240">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="AR240">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AS240">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="AT240">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="AU240">
         <v>8</v>
@@ -51065,25 +51065,25 @@
         <v>1.58</v>
       </c>
       <c r="AN241">
-        <v>2.03</v>
+        <v>2.12</v>
       </c>
       <c r="AO241">
-        <v>2.09</v>
+        <v>1.82</v>
       </c>
       <c r="AP241">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="AQ241">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="AR241">
-        <v>1.67</v>
+        <v>1.89</v>
       </c>
       <c r="AS241">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="AT241">
-        <v>3.47</v>
+        <v>3.5</v>
       </c>
       <c r="AU241">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Greece Super League_20232024.xlsx
@@ -1864,10 +1864,10 @@
         <v>4</v>
       </c>
       <c r="AY2">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA2">
         <v>7</v>
@@ -2070,10 +2070,10 @@
         <v>3</v>
       </c>
       <c r="AY3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA3">
         <v>7</v>
@@ -2276,10 +2276,10 @@
         <v>4</v>
       </c>
       <c r="AY4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BA4">
         <v>3</v>
@@ -2482,10 +2482,10 @@
         <v>6</v>
       </c>
       <c r="AY5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA5">
         <v>3</v>
@@ -2688,10 +2688,10 @@
         <v>3</v>
       </c>
       <c r="AY6">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="AZ6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA6">
         <v>8</v>
@@ -2894,10 +2894,10 @@
         <v>5</v>
       </c>
       <c r="AY7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA7">
         <v>2</v>
@@ -3100,10 +3100,10 @@
         <v>9</v>
       </c>
       <c r="AY8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA8">
         <v>3</v>
@@ -3306,10 +3306,10 @@
         <v>2</v>
       </c>
       <c r="AY9">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA9">
         <v>6</v>
@@ -3512,10 +3512,10 @@
         <v>4</v>
       </c>
       <c r="AY10">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="AZ10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA10">
         <v>12</v>
@@ -3718,10 +3718,10 @@
         <v>1</v>
       </c>
       <c r="AY11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ11">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA11">
         <v>2</v>
@@ -3924,10 +3924,10 @@
         <v>4</v>
       </c>
       <c r="AY12">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ12">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA12">
         <v>8</v>
@@ -4130,10 +4130,10 @@
         <v>0</v>
       </c>
       <c r="AY13">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA13">
         <v>5</v>
@@ -4336,10 +4336,10 @@
         <v>4</v>
       </c>
       <c r="AY14">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA14">
         <v>5</v>
@@ -4542,10 +4542,10 @@
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA15">
         <v>4</v>
@@ -4748,7 +4748,7 @@
         <v>4</v>
       </c>
       <c r="AY16">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ16">
         <v>9</v>
@@ -4954,7 +4954,7 @@
         <v>2</v>
       </c>
       <c r="AY17">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ17">
         <v>8</v>
@@ -5160,10 +5160,10 @@
         <v>5</v>
       </c>
       <c r="AY18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA18">
         <v>1</v>
@@ -5366,10 +5366,10 @@
         <v>4</v>
       </c>
       <c r="AY19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ19">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA19">
         <v>3</v>
@@ -5572,10 +5572,10 @@
         <v>3</v>
       </c>
       <c r="AY20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ20">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BA20">
         <v>2</v>
@@ -5778,10 +5778,10 @@
         <v>4</v>
       </c>
       <c r="AY21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA21">
         <v>6</v>
@@ -5984,10 +5984,10 @@
         <v>5</v>
       </c>
       <c r="AY22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ22">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA22">
         <v>3</v>
@@ -6190,7 +6190,7 @@
         <v>1</v>
       </c>
       <c r="AY23">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ23">
         <v>8</v>
@@ -6396,10 +6396,10 @@
         <v>4</v>
       </c>
       <c r="AY24">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ24">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA24">
         <v>3</v>
@@ -6602,10 +6602,10 @@
         <v>4</v>
       </c>
       <c r="AY25">
+        <v>13</v>
+      </c>
+      <c r="AZ25">
         <v>9</v>
-      </c>
-      <c r="AZ25">
-        <v>8</v>
       </c>
       <c r="BA25">
         <v>7</v>
@@ -6808,10 +6808,10 @@
         <v>4</v>
       </c>
       <c r="AY26">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA26">
         <v>5</v>
@@ -7014,10 +7014,10 @@
         <v>8</v>
       </c>
       <c r="AY27">
+        <v>13</v>
+      </c>
+      <c r="AZ27">
         <v>11</v>
-      </c>
-      <c r="AZ27">
-        <v>10</v>
       </c>
       <c r="BA27">
         <v>4</v>
@@ -7220,10 +7220,10 @@
         <v>5</v>
       </c>
       <c r="AY28">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ28">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA28">
         <v>8</v>
@@ -7426,10 +7426,10 @@
         <v>2</v>
       </c>
       <c r="AY29">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ29">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA29">
         <v>3</v>
@@ -7632,10 +7632,10 @@
         <v>5</v>
       </c>
       <c r="AY30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ30">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA30">
         <v>7</v>
@@ -7838,10 +7838,10 @@
         <v>2</v>
       </c>
       <c r="AY31">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA31">
         <v>6</v>
@@ -8044,10 +8044,10 @@
         <v>8</v>
       </c>
       <c r="AY32">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA32">
         <v>1</v>
@@ -8250,10 +8250,10 @@
         <v>3</v>
       </c>
       <c r="AY33">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA33">
         <v>8</v>
@@ -8456,10 +8456,10 @@
         <v>8</v>
       </c>
       <c r="AY34">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ34">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA34">
         <v>6</v>
@@ -8662,10 +8662,10 @@
         <v>9</v>
       </c>
       <c r="AY35">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ35">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="BA35">
         <v>3</v>
@@ -8868,10 +8868,10 @@
         <v>3</v>
       </c>
       <c r="AY36">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AZ36">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA36">
         <v>6</v>
@@ -9074,10 +9074,10 @@
         <v>1</v>
       </c>
       <c r="AY37">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ37">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BA37">
         <v>8</v>
@@ -9280,7 +9280,7 @@
         <v>4</v>
       </c>
       <c r="AY38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ38">
         <v>7</v>
@@ -9486,10 +9486,10 @@
         <v>1</v>
       </c>
       <c r="AY39">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ39">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA39">
         <v>4</v>
@@ -9692,7 +9692,7 @@
         <v>3</v>
       </c>
       <c r="AY40">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ40">
         <v>13</v>
@@ -9898,10 +9898,10 @@
         <v>1</v>
       </c>
       <c r="AY41">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AZ41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA41">
         <v>6</v>
@@ -10107,7 +10107,7 @@
         <v>8</v>
       </c>
       <c r="AZ42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA42">
         <v>2</v>
@@ -10310,10 +10310,10 @@
         <v>4</v>
       </c>
       <c r="AY43">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ43">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA43">
         <v>5</v>
@@ -10516,7 +10516,7 @@
         <v>3</v>
       </c>
       <c r="AY44">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ44">
         <v>7</v>
@@ -10722,10 +10722,10 @@
         <v>11</v>
       </c>
       <c r="AY45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ45">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="BA45">
         <v>2</v>
@@ -10928,10 +10928,10 @@
         <v>4</v>
       </c>
       <c r="AY46">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ46">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA46">
         <v>4</v>
@@ -11134,10 +11134,10 @@
         <v>8</v>
       </c>
       <c r="AY47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA47">
         <v>2</v>
@@ -11340,10 +11340,10 @@
         <v>2</v>
       </c>
       <c r="AY48">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ48">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA48">
         <v>9</v>
@@ -11546,10 +11546,10 @@
         <v>3</v>
       </c>
       <c r="AY49">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AZ49">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA49">
         <v>2</v>
@@ -11752,10 +11752,10 @@
         <v>7</v>
       </c>
       <c r="AY50">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ50">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA50">
         <v>4</v>
@@ -11958,10 +11958,10 @@
         <v>6</v>
       </c>
       <c r="AY51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ51">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA51">
         <v>3</v>
@@ -12164,10 +12164,10 @@
         <v>5</v>
       </c>
       <c r="AY52">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ52">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA52">
         <v>8</v>
@@ -12373,7 +12373,7 @@
         <v>6</v>
       </c>
       <c r="AZ53">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BA53">
         <v>2</v>
@@ -12576,10 +12576,10 @@
         <v>4</v>
       </c>
       <c r="AY54">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ54">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA54">
         <v>5</v>
@@ -12782,7 +12782,7 @@
         <v>4</v>
       </c>
       <c r="AY55">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AZ55">
         <v>8</v>
@@ -12988,10 +12988,10 @@
         <v>3</v>
       </c>
       <c r="AY56">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ56">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA56">
         <v>2</v>
@@ -13194,10 +13194,10 @@
         <v>1</v>
       </c>
       <c r="AY57">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ57">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -13400,7 +13400,7 @@
         <v>3</v>
       </c>
       <c r="AY58">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ58">
         <v>8</v>
@@ -13606,10 +13606,10 @@
         <v>5</v>
       </c>
       <c r="AY59">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ59">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA59">
         <v>5</v>
@@ -13812,10 +13812,10 @@
         <v>6</v>
       </c>
       <c r="AY60">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AZ60">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA60">
         <v>7</v>
@@ -14018,10 +14018,10 @@
         <v>2</v>
       </c>
       <c r="AY61">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ61">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BA61">
         <v>6</v>
@@ -14224,10 +14224,10 @@
         <v>1</v>
       </c>
       <c r="AY62">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA62">
         <v>5</v>
@@ -14430,10 +14430,10 @@
         <v>8</v>
       </c>
       <c r="AY63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ63">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA63">
         <v>2</v>
@@ -14636,10 +14636,10 @@
         <v>4</v>
       </c>
       <c r="AY64">
+        <v>15</v>
+      </c>
+      <c r="AZ64">
         <v>12</v>
-      </c>
-      <c r="AZ64">
-        <v>11</v>
       </c>
       <c r="BA64">
         <v>3</v>
@@ -14842,10 +14842,10 @@
         <v>7</v>
       </c>
       <c r="AY65">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ65">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA65">
         <v>5</v>
@@ -15048,10 +15048,10 @@
         <v>2</v>
       </c>
       <c r="AY66">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA66">
         <v>8</v>
@@ -15254,10 +15254,10 @@
         <v>7</v>
       </c>
       <c r="AY67">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ67">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA67">
         <v>4</v>
@@ -15460,10 +15460,10 @@
         <v>4</v>
       </c>
       <c r="AY68">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ68">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA68">
         <v>7</v>
@@ -15666,7 +15666,7 @@
         <v>2</v>
       </c>
       <c r="AY69">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ69">
         <v>8</v>
@@ -15872,10 +15872,10 @@
         <v>4</v>
       </c>
       <c r="AY70">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ70">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA70">
         <v>4</v>
@@ -16078,10 +16078,10 @@
         <v>6</v>
       </c>
       <c r="AY71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ71">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA71">
         <v>1</v>
@@ -16284,10 +16284,10 @@
         <v>4</v>
       </c>
       <c r="AY72">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA72">
         <v>5</v>
@@ -16490,10 +16490,10 @@
         <v>2</v>
       </c>
       <c r="AY73">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ73">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA73">
         <v>5</v>
@@ -16696,10 +16696,10 @@
         <v>3</v>
       </c>
       <c r="AY74">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ74">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA74">
         <v>4</v>
@@ -16902,10 +16902,10 @@
         <v>4</v>
       </c>
       <c r="AY75">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA75">
         <v>4</v>
@@ -17108,10 +17108,10 @@
         <v>6</v>
       </c>
       <c r="AY76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ76">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA76">
         <v>2</v>
@@ -17314,10 +17314,10 @@
         <v>4</v>
       </c>
       <c r="AY77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ77">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA77">
         <v>0</v>
@@ -17520,10 +17520,10 @@
         <v>5</v>
       </c>
       <c r="AY78">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ78">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA78">
         <v>6</v>
@@ -17726,7 +17726,7 @@
         <v>7</v>
       </c>
       <c r="AY79">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ79">
         <v>12</v>
@@ -17932,10 +17932,10 @@
         <v>8</v>
       </c>
       <c r="AY80">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ80">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA80">
         <v>8</v>
@@ -18138,10 +18138,10 @@
         <v>3</v>
       </c>
       <c r="AY81">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ81">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA81">
         <v>7</v>
@@ -18344,10 +18344,10 @@
         <v>12</v>
       </c>
       <c r="AY82">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ82">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA82">
         <v>3</v>
@@ -18550,10 +18550,10 @@
         <v>6</v>
       </c>
       <c r="AY83">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ83">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA83">
         <v>3</v>
@@ -18756,7 +18756,7 @@
         <v>7</v>
       </c>
       <c r="AY84">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ84">
         <v>16</v>
@@ -18962,10 +18962,10 @@
         <v>3</v>
       </c>
       <c r="AY85">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ85">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA85">
         <v>3</v>
@@ -19168,10 +19168,10 @@
         <v>3</v>
       </c>
       <c r="AY86">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA86">
         <v>5</v>
@@ -19374,10 +19374,10 @@
         <v>9</v>
       </c>
       <c r="AY87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ87">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="BA87">
         <v>5</v>
@@ -19580,10 +19580,10 @@
         <v>5</v>
       </c>
       <c r="AY88">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ88">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA88">
         <v>2</v>
@@ -19786,10 +19786,10 @@
         <v>4</v>
       </c>
       <c r="AY89">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ89">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA89">
         <v>2</v>
@@ -19992,10 +19992,10 @@
         <v>2</v>
       </c>
       <c r="AY90">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA90">
         <v>2</v>
@@ -20198,10 +20198,10 @@
         <v>4</v>
       </c>
       <c r="AY91">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ91">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA91">
         <v>5</v>
@@ -20404,10 +20404,10 @@
         <v>7</v>
       </c>
       <c r="AY92">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ92">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA92">
         <v>9</v>
@@ -20613,7 +20613,7 @@
         <v>12</v>
       </c>
       <c r="AZ93">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA93">
         <v>3</v>
@@ -20816,10 +20816,10 @@
         <v>4</v>
       </c>
       <c r="AY94">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ94">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA94">
         <v>6</v>
@@ -21022,10 +21022,10 @@
         <v>4</v>
       </c>
       <c r="AY95">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ95">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA95">
         <v>7</v>
@@ -21228,10 +21228,10 @@
         <v>3</v>
       </c>
       <c r="AY96">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ96">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA96">
         <v>6</v>
@@ -21434,10 +21434,10 @@
         <v>5</v>
       </c>
       <c r="AY97">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ97">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA97">
         <v>1</v>
@@ -21640,10 +21640,10 @@
         <v>8</v>
       </c>
       <c r="AY98">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ98">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BA98">
         <v>2</v>
@@ -21846,10 +21846,10 @@
         <v>7</v>
       </c>
       <c r="AY99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ99">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA99">
         <v>3</v>
@@ -22052,10 +22052,10 @@
         <v>3</v>
       </c>
       <c r="AY100">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ100">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA100">
         <v>10</v>
@@ -22258,10 +22258,10 @@
         <v>6</v>
       </c>
       <c r="AY101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ101">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA101">
         <v>3</v>
@@ -22464,10 +22464,10 @@
         <v>2</v>
       </c>
       <c r="AY102">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA102">
         <v>7</v>
@@ -22670,10 +22670,10 @@
         <v>9</v>
       </c>
       <c r="AY103">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ103">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA103">
         <v>5</v>
@@ -22876,10 +22876,10 @@
         <v>9</v>
       </c>
       <c r="AY104">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AZ104">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA104">
         <v>9</v>
@@ -23082,10 +23082,10 @@
         <v>2</v>
       </c>
       <c r="AY105">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ105">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA105">
         <v>0</v>
@@ -23288,10 +23288,10 @@
         <v>11</v>
       </c>
       <c r="AY106">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ106">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA106">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         <v>5</v>
       </c>
       <c r="AY107">
+        <v>12</v>
+      </c>
+      <c r="AZ107">
         <v>11</v>
-      </c>
-      <c r="AZ107">
-        <v>10</v>
       </c>
       <c r="BA107">
         <v>5</v>
@@ -23700,10 +23700,10 @@
         <v>7</v>
       </c>
       <c r="AY108">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ108">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA108">
         <v>7</v>
@@ -23906,10 +23906,10 @@
         <v>4</v>
       </c>
       <c r="AY109">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ109">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA109">
         <v>9</v>
@@ -24112,10 +24112,10 @@
         <v>6</v>
       </c>
       <c r="AY110">
+        <v>18</v>
+      </c>
+      <c r="AZ110">
         <v>15</v>
-      </c>
-      <c r="AZ110">
-        <v>14</v>
       </c>
       <c r="BA110">
         <v>6</v>
@@ -24318,10 +24318,10 @@
         <v>4</v>
       </c>
       <c r="AY111">
+        <v>13</v>
+      </c>
+      <c r="AZ111">
         <v>10</v>
-      </c>
-      <c r="AZ111">
-        <v>8</v>
       </c>
       <c r="BA111">
         <v>8</v>
@@ -24524,10 +24524,10 @@
         <v>6</v>
       </c>
       <c r="AY112">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AZ112">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA112">
         <v>4</v>
@@ -24730,10 +24730,10 @@
         <v>4</v>
       </c>
       <c r="AY113">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ113">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA113">
         <v>1</v>
@@ -24936,10 +24936,10 @@
         <v>4</v>
       </c>
       <c r="AY114">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ114">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA114">
         <v>2</v>
@@ -25142,10 +25142,10 @@
         <v>5</v>
       </c>
       <c r="AY115">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ115">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BA115">
         <v>3</v>
@@ -25348,10 +25348,10 @@
         <v>2</v>
       </c>
       <c r="AY116">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ116">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA116">
         <v>4</v>
@@ -25554,10 +25554,10 @@
         <v>5</v>
       </c>
       <c r="AY117">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ117">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA117">
         <v>7</v>
@@ -25760,10 +25760,10 @@
         <v>7</v>
       </c>
       <c r="AY118">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AZ118">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA118">
         <v>4</v>
@@ -25966,10 +25966,10 @@
         <v>5</v>
       </c>
       <c r="AY119">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ119">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA119">
         <v>5</v>
@@ -26172,7 +26172,7 @@
         <v>2</v>
       </c>
       <c r="AY120">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AZ120">
         <v>5</v>
@@ -26378,10 +26378,10 @@
         <v>8</v>
       </c>
       <c r="AY121">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ121">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA121">
         <v>5</v>
@@ -26584,10 +26584,10 @@
         <v>2</v>
       </c>
       <c r="AY122">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ122">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA122">
         <v>2</v>
@@ -26790,10 +26790,10 @@
         <v>2</v>
       </c>
       <c r="AY123">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ123">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA123">
         <v>4</v>
@@ -26996,10 +26996,10 @@
         <v>2</v>
       </c>
       <c r="AY124">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ124">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA124">
         <v>2</v>
@@ -27202,10 +27202,10 @@
         <v>8</v>
       </c>
       <c r="AY125">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ125">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA125">
         <v>6</v>
@@ -27408,10 +27408,10 @@
         <v>5</v>
       </c>
       <c r="AY126">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA126">
         <v>7</v>
@@ -27614,7 +27614,7 @@
         <v>5</v>
       </c>
       <c r="AY127">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ127">
         <v>5</v>
@@ -27820,10 +27820,10 @@
         <v>6</v>
       </c>
       <c r="AY128">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ128">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA128">
         <v>6</v>
@@ -28026,10 +28026,10 @@
         <v>2</v>
       </c>
       <c r="AY129">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ129">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA129">
         <v>9</v>
@@ -28232,7 +28232,7 @@
         <v>6</v>
       </c>
       <c r="AY130">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ130">
         <v>8</v>
@@ -28438,10 +28438,10 @@
         <v>5</v>
       </c>
       <c r="AY131">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ131">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA131">
         <v>1</v>
@@ -28644,10 +28644,10 @@
         <v>7</v>
       </c>
       <c r="AY132">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ132">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA132">
         <v>7</v>
@@ -28850,10 +28850,10 @@
         <v>3</v>
       </c>
       <c r="AY133">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ133">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA133">
         <v>9</v>
@@ -29056,10 +29056,10 @@
         <v>5</v>
       </c>
       <c r="AY134">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ134">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA134">
         <v>1</v>
@@ -29262,10 +29262,10 @@
         <v>6</v>
       </c>
       <c r="AY135">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ135">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA135">
         <v>4</v>
@@ -29468,10 +29468,10 @@
         <v>2</v>
       </c>
       <c r="AY136">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ136">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA136">
         <v>2</v>
@@ -29674,7 +29674,7 @@
         <v>3</v>
       </c>
       <c r="AY137">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ137">
         <v>7</v>
@@ -29880,10 +29880,10 @@
         <v>5</v>
       </c>
       <c r="AY138">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ138">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA138">
         <v>13</v>
@@ -30089,7 +30089,7 @@
         <v>10</v>
       </c>
       <c r="AZ139">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA139">
         <v>5</v>
@@ -30292,10 +30292,10 @@
         <v>2</v>
       </c>
       <c r="AY140">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ140">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA140">
         <v>8</v>
@@ -30498,10 +30498,10 @@
         <v>3</v>
       </c>
       <c r="AY141">
+        <v>13</v>
+      </c>
+      <c r="AZ141">
         <v>10</v>
-      </c>
-      <c r="AZ141">
-        <v>9</v>
       </c>
       <c r="BA141">
         <v>3</v>
@@ -30704,10 +30704,10 @@
         <v>3</v>
       </c>
       <c r="AY142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ142">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA142">
         <v>5</v>
@@ -30913,7 +30913,7 @@
         <v>15</v>
       </c>
       <c r="AZ143">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA143">
         <v>4</v>
@@ -31116,10 +31116,10 @@
         <v>3</v>
       </c>
       <c r="AY144">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ144">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA144">
         <v>3</v>
@@ -31322,10 +31322,10 @@
         <v>3</v>
       </c>
       <c r="AY145">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ145">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA145">
         <v>11</v>
@@ -31528,10 +31528,10 @@
         <v>4</v>
       </c>
       <c r="AY146">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AZ146">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA146">
         <v>6</v>
@@ -31737,7 +31737,7 @@
         <v>3</v>
       </c>
       <c r="AZ147">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="BA147">
         <v>2</v>
@@ -31940,10 +31940,10 @@
         <v>6</v>
       </c>
       <c r="AY148">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ148">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA148">
         <v>3</v>
@@ -32146,10 +32146,10 @@
         <v>5</v>
       </c>
       <c r="AY149">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AZ149">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA149">
         <v>5</v>
@@ -32352,10 +32352,10 @@
         <v>3</v>
       </c>
       <c r="AY150">
+        <v>11</v>
+      </c>
+      <c r="AZ150">
         <v>9</v>
-      </c>
-      <c r="AZ150">
-        <v>7</v>
       </c>
       <c r="BA150">
         <v>2</v>
@@ -32561,7 +32561,7 @@
         <v>9</v>
       </c>
       <c r="AZ151">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA151">
         <v>5</v>
@@ -32764,10 +32764,10 @@
         <v>2</v>
       </c>
       <c r="AY152">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ152">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA152">
         <v>11</v>
@@ -32970,10 +32970,10 @@
         <v>4</v>
       </c>
       <c r="AY153">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ153">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA153">
         <v>3</v>
@@ -33176,10 +33176,10 @@
         <v>5</v>
       </c>
       <c r="AY154">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AZ154">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA154">
         <v>4</v>
@@ -33382,10 +33382,10 @@
         <v>1</v>
       </c>
       <c r="AY155">
+        <v>12</v>
+      </c>
+      <c r="AZ155">
         <v>11</v>
-      </c>
-      <c r="AZ155">
-        <v>7</v>
       </c>
       <c r="BA155">
         <v>5</v>
@@ -33588,10 +33588,10 @@
         <v>5</v>
       </c>
       <c r="AY156">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ156">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA156">
         <v>0</v>
@@ -33794,10 +33794,10 @@
         <v>1</v>
       </c>
       <c r="AY157">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="AZ157">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA157">
         <v>12</v>
@@ -34000,10 +34000,10 @@
         <v>5</v>
       </c>
       <c r="AY158">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ158">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA158">
         <v>4</v>
@@ -34206,10 +34206,10 @@
         <v>2</v>
       </c>
       <c r="AY159">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AZ159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA159">
         <v>10</v>
@@ -34412,7 +34412,7 @@
         <v>4</v>
       </c>
       <c r="AY160">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ160">
         <v>12</v>
@@ -34618,10 +34618,10 @@
         <v>7</v>
       </c>
       <c r="AY161">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ161">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA161">
         <v>3</v>
@@ -34824,7 +34824,7 @@
         <v>4</v>
       </c>
       <c r="AY162">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ162">
         <v>11</v>
@@ -35236,10 +35236,10 @@
         <v>0</v>
       </c>
       <c r="AY164">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA164">
         <v>3</v>
@@ -35445,7 +35445,7 @@
         <v>8</v>
       </c>
       <c r="AZ165">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA165">
         <v>6</v>
@@ -35651,7 +35651,7 @@
         <v>8</v>
       </c>
       <c r="AZ166">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BA166">
         <v>2</v>
@@ -35854,10 +35854,10 @@
         <v>5</v>
       </c>
       <c r="AY167">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="AZ167">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA167">
         <v>11</v>
@@ -36060,10 +36060,10 @@
         <v>2</v>
       </c>
       <c r="AY168">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ168">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA168">
         <v>6</v>
@@ -36266,10 +36266,10 @@
         <v>4</v>
       </c>
       <c r="AY169">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ169">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BA169">
         <v>7</v>
@@ -36472,10 +36472,10 @@
         <v>3</v>
       </c>
       <c r="AY170">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ170">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA170">
         <v>8</v>
@@ -36678,10 +36678,10 @@
         <v>2</v>
       </c>
       <c r="AY171">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ171">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA171">
         <v>2</v>
@@ -36884,10 +36884,10 @@
         <v>1</v>
       </c>
       <c r="AY172">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ172">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA172">
         <v>3</v>
@@ -37093,7 +37093,7 @@
         <v>4</v>
       </c>
       <c r="AZ173">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA173">
         <v>1</v>
@@ -37296,10 +37296,10 @@
         <v>3</v>
       </c>
       <c r="AY174">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ174">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA174">
         <v>10</v>
@@ -37502,10 +37502,10 @@
         <v>8</v>
       </c>
       <c r="AY175">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ175">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA175">
         <v>1</v>
@@ -37708,10 +37708,10 @@
         <v>3</v>
       </c>
       <c r="AY176">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ176">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA176">
         <v>3</v>
@@ -37914,7 +37914,7 @@
         <v>4</v>
       </c>
       <c r="AY177">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ177">
         <v>7</v>
@@ -38120,10 +38120,10 @@
         <v>3</v>
       </c>
       <c r="AY178">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AZ178">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA178">
         <v>8</v>
@@ -38329,7 +38329,7 @@
         <v>9</v>
       </c>
       <c r="AZ179">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA179">
         <v>1</v>
@@ -38535,7 +38535,7 @@
         <v>4</v>
       </c>
       <c r="AZ180">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA180">
         <v>1</v>
@@ -38738,10 +38738,10 @@
         <v>5</v>
       </c>
       <c r="AY181">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ181">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA181">
         <v>5</v>
@@ -38944,10 +38944,10 @@
         <v>5</v>
       </c>
       <c r="AY182">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ182">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA182">
         <v>0</v>
@@ -39150,7 +39150,7 @@
         <v>4</v>
       </c>
       <c r="AY183">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="AZ183">
         <v>4</v>
@@ -39359,7 +39359,7 @@
         <v>3</v>
       </c>
       <c r="AZ184">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="BA184">
         <v>1</v>
@@ -39562,10 +39562,10 @@
         <v>2</v>
       </c>
       <c r="AY185">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ185">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA185">
         <v>8</v>
@@ -39768,10 +39768,10 @@
         <v>1</v>
       </c>
       <c r="AY186">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ186">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA186">
         <v>7</v>
@@ -39974,10 +39974,10 @@
         <v>2</v>
       </c>
       <c r="AY187">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ187">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BA187">
         <v>4</v>
@@ -40180,10 +40180,10 @@
         <v>5</v>
       </c>
       <c r="AY188">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ188">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA188">
         <v>5</v>
@@ -40389,7 +40389,7 @@
         <v>9</v>
       </c>
       <c r="AZ189">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA189">
         <v>2</v>
@@ -40592,10 +40592,10 @@
         <v>5</v>
       </c>
       <c r="AY190">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ190">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA190">
         <v>3</v>
@@ -40798,10 +40798,10 @@
         <v>8</v>
       </c>
       <c r="AY191">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ191">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA191">
         <v>2</v>
@@ -41004,10 +41004,10 @@
         <v>3</v>
       </c>
       <c r="AY192">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ192">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BA192">
         <v>7</v>
@@ -41210,10 +41210,10 @@
         <v>5</v>
       </c>
       <c r="AY193">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ193">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA193">
         <v>3</v>
@@ -41416,10 +41416,10 @@
         <v>8</v>
       </c>
       <c r="AY194">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AZ194">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA194">
         <v>5</v>
@@ -41622,10 +41622,10 @@
         <v>3</v>
       </c>
       <c r="AY195">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ195">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA195">
         <v>6</v>
@@ -41828,10 +41828,10 @@
         <v>6</v>
       </c>
       <c r="AY196">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ196">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA196">
         <v>2</v>
@@ -42034,10 +42034,10 @@
         <v>7</v>
       </c>
       <c r="AY197">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="AZ197">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA197">
         <v>13</v>
@@ -42240,10 +42240,10 @@
         <v>6</v>
       </c>
       <c r="AY198">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ198">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA198">
         <v>9</v>
@@ -42446,10 +42446,10 @@
         <v>4</v>
       </c>
       <c r="AY199">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AZ199">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA199">
         <v>13</v>
@@ -42652,10 +42652,10 @@
         <v>10</v>
       </c>
       <c r="AY200">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ200">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA200">
         <v>1</v>
@@ -42858,10 +42858,10 @@
         <v>3</v>
       </c>
       <c r="AY201">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ201">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA201">
         <v>5</v>
@@ -43064,10 +43064,10 @@
         <v>3</v>
       </c>
       <c r="AY202">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AZ202">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA202">
         <v>9</v>
@@ -43270,10 +43270,10 @@
         <v>3</v>
       </c>
       <c r="AY203">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ203">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA203">
         <v>4</v>
@@ -43476,10 +43476,10 @@
         <v>7</v>
       </c>
       <c r="AY204">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AZ204">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA204">
         <v>6</v>
@@ -43682,10 +43682,10 @@
         <v>4</v>
       </c>
       <c r="AY205">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ205">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA205">
         <v>2</v>
@@ -43888,10 +43888,10 @@
         <v>5</v>
       </c>
       <c r="AY206">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AZ206">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA206">
         <v>8</v>
@@ -44094,10 +44094,10 @@
         <v>3</v>
       </c>
       <c r="AY207">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ207">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA207">
         <v>3</v>
@@ -44300,10 +44300,10 @@
         <v>4</v>
       </c>
       <c r="AY208">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ208">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA208">
         <v>1</v>
@@ -44506,10 +44506,10 @@
         <v>2</v>
       </c>
       <c r="AY209">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AZ209">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA209">
         <v>7</v>
@@ -44712,10 +44712,10 @@
         <v>4</v>
       </c>
       <c r="AY210">
+        <v>16</v>
+      </c>
+      <c r="AZ210">
         <v>11</v>
-      </c>
-      <c r="AZ210">
-        <v>8</v>
       </c>
       <c r="BA210">
         <v>10</v>
@@ -44918,10 +44918,10 @@
         <v>4</v>
       </c>
       <c r="AY211">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AZ211">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA211">
         <v>2</v>
@@ -45124,10 +45124,10 @@
         <v>4</v>
       </c>
       <c r="AY212">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="AZ212">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA212">
         <v>7</v>
@@ -45330,10 +45330,10 @@
         <v>2</v>
       </c>
       <c r="AY213">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ213">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA213">
         <v>4</v>
@@ -45536,7 +45536,7 @@
         <v>3</v>
       </c>
       <c r="AY214">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ214">
         <v>8</v>
@@ -45742,10 +45742,10 @@
         <v>6</v>
       </c>
       <c r="AY215">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ215">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA215">
         <v>10</v>
@@ -45948,10 +45948,10 @@
         <v>3</v>
       </c>
       <c r="AY216">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ216">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA216">
         <v>3</v>
@@ -46154,10 +46154,10 @@
         <v>2</v>
       </c>
       <c r="AY217">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ217">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA217">
         <v>6</v>
@@ -46360,10 +46360,10 @@
         <v>5</v>
       </c>
       <c r="AY218">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ218">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BA218">
         <v>2</v>
@@ -46566,10 +46566,10 @@
         <v>13</v>
       </c>
       <c r="AY219">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ219">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA219">
         <v>2</v>
@@ -46775,7 +46775,7 @@
         <v>10</v>
       </c>
       <c r="AZ220">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA220">
         <v>2</v>
@@ -46978,10 +46978,10 @@
         <v>7</v>
       </c>
       <c r="AY221">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ221">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA221">
         <v>2</v>
@@ -47184,10 +47184,10 @@
         <v>8</v>
       </c>
       <c r="AY222">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ222">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BA222">
         <v>3</v>
@@ -47390,10 +47390,10 @@
         <v>4</v>
       </c>
       <c r="AY223">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ223">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA223">
         <v>4</v>
@@ -47596,10 +47596,10 @@
         <v>7</v>
       </c>
       <c r="AY224">
+        <v>16</v>
+      </c>
+      <c r="AZ224">
         <v>14</v>
-      </c>
-      <c r="AZ224">
-        <v>11</v>
       </c>
       <c r="BA224">
         <v>5</v>
@@ -47802,10 +47802,10 @@
         <v>4</v>
       </c>
       <c r="AY225">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AZ225">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA225">
         <v>8</v>
@@ -48008,10 +48008,10 @@
         <v>5</v>
       </c>
       <c r="AY226">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ226">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BA226">
         <v>3</v>
@@ -48214,10 +48214,10 @@
         <v>8</v>
       </c>
       <c r="AY227">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ227">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA227">
         <v>4</v>
@@ -48420,10 +48420,10 @@
         <v>3</v>
       </c>
       <c r="AY228">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ228">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA228">
         <v>6</v>
@@ -48626,10 +48626,10 @@
         <v>5</v>
       </c>
       <c r="AY229">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ229">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA229">
         <v>13</v>
@@ -48832,10 +48832,10 @@
         <v>3</v>
       </c>
       <c r="AY230">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AZ230">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA230">
         <v>9</v>
@@ -49038,10 +49038,10 @@
         <v>7</v>
       </c>
       <c r="AY231">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ231">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA231">
         <v>1</v>
@@ -49244,10 +49244,10 @@
         <v>3</v>
       </c>
       <c r="AY232">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ232">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA232">
         <v>3</v>
@@ -49450,10 +49450,10 @@
         <v>5</v>
       </c>
       <c r="AY233">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ233">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA233">
         <v>7</v>
@@ -49656,10 +49656,10 @@
         <v>2</v>
       </c>
       <c r="AY234">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AZ234">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA234">
         <v>6</v>
@@ -49862,10 +49862,10 @@
         <v>5</v>
       </c>
       <c r="AY235">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ235">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA235">
         <v>3</v>
@@ -50068,10 +50068,10 @@
         <v>5</v>
       </c>
       <c r="AY236">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ236">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA236">
         <v>3</v>
@@ -50277,7 +50277,7 @@
         <v>12</v>
       </c>
       <c r="AZ237">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA237">
         <v>4</v>
@@ -50480,10 +50480,10 @@
         <v>4</v>
       </c>
       <c r="AY238">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AZ238">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA238">
         <v>7</v>
@@ -50686,10 +50686,10 @@
         <v>3</v>
       </c>
       <c r="AY239">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ239">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA239">
         <v>1</v>
@@ -50892,10 +50892,10 @@
         <v>3</v>
       </c>
       <c r="AY240">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AZ240">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA240">
         <v>9</v>
@@ -51098,10 +51098,10 @@
         <v>10</v>
       </c>
       <c r="AY241">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ241">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA241">
         <v>8</v>
